--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -2096,13 +2096,17 @@
         <v>117.15</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>116</v>
+      </c>
+      <c r="K49" t="n">
+        <v>116</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -2131,14 +2135,22 @@
         <v>117.1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>116</v>
+      </c>
+      <c r="K50" t="n">
+        <v>116</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2166,14 +2178,22 @@
         <v>116.95</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>116</v>
+      </c>
+      <c r="K51" t="n">
+        <v>116</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +2221,22 @@
         <v>116.8</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>116</v>
+      </c>
+      <c r="K52" t="n">
+        <v>116</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2236,14 +2264,22 @@
         <v>116.8</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>117</v>
+      </c>
+      <c r="K53" t="n">
+        <v>116</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2307,22 @@
         <v>116.75</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>117</v>
+      </c>
+      <c r="K54" t="n">
+        <v>116</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2306,14 +2350,22 @@
         <v>116.65</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>116</v>
+      </c>
+      <c r="K55" t="n">
+        <v>116</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2399,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>116</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>116</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2481,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>116</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2522,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>116</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2481,18 +2557,20 @@
         <v>116.2</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>116</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>116</v>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2520,20 +2598,18 @@
         <v>116.1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>115</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>116</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2563,20 +2639,18 @@
         <v>116</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>115</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>116</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2606,18 +2680,20 @@
         <v>115.85</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>115</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>115</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2651,14 +2727,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K64" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -2688,20 +2764,18 @@
         <v>115.9</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>117</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2737,12 +2811,16 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K66" t="n">
         <v>116</v>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2770,20 +2848,18 @@
         <v>115.9</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>116</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>116</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2819,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K68" t="n">
         <v>116</v>
@@ -2938,14 +3014,12 @@
         <v>115.95</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>117</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>116</v>
       </c>
@@ -2981,14 +3055,12 @@
         <v>116</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>117</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>116</v>
       </c>
@@ -3024,14 +3096,12 @@
         <v>115.95</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>116</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>116</v>
       </c>
@@ -3067,14 +3137,12 @@
         <v>116</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>117</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>116</v>
       </c>
@@ -3110,14 +3178,12 @@
         <v>116.05</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>117</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>116</v>
       </c>
@@ -3153,14 +3219,12 @@
         <v>116.1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>117</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>116</v>
       </c>
@@ -3483,14 +3547,12 @@
         <v>116.5</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>116</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>116</v>
       </c>
@@ -3649,14 +3711,12 @@
         <v>116.45</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>116</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>116</v>
       </c>
@@ -3692,14 +3752,12 @@
         <v>116.45</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>116</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>116</v>
       </c>
@@ -3735,14 +3793,12 @@
         <v>116.45</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>116</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>116</v>
       </c>
@@ -3778,14 +3834,12 @@
         <v>116.4</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>116</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>116</v>
       </c>
@@ -3821,14 +3875,12 @@
         <v>116.4</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>117</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>116</v>
       </c>
@@ -3864,14 +3916,12 @@
         <v>116.45</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>117</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>116</v>
       </c>
@@ -3907,14 +3957,12 @@
         <v>116.4</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>116</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>116</v>
       </c>
@@ -3950,14 +3998,12 @@
         <v>116.35</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>116</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>116</v>
       </c>
@@ -3993,14 +4039,12 @@
         <v>116.3</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>116</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>116</v>
       </c>
@@ -4036,14 +4080,12 @@
         <v>116.3</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>117</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>116</v>
       </c>
@@ -4079,14 +4121,12 @@
         <v>116.3</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>117</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>116</v>
       </c>
@@ -4122,14 +4162,12 @@
         <v>116.35</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>117</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>116</v>
       </c>
@@ -4165,14 +4203,12 @@
         <v>116.3</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>116</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>116</v>
       </c>
@@ -4249,14 +4285,12 @@
         <v>116.35</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>117</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>116</v>
       </c>
@@ -4292,14 +4326,12 @@
         <v>116.3</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>116</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>116</v>
       </c>
@@ -4335,14 +4367,12 @@
         <v>116.3</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>116</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>116</v>
       </c>
@@ -4378,14 +4408,12 @@
         <v>116.3</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>116</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>116</v>
       </c>
@@ -4421,14 +4449,12 @@
         <v>116.3</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>116</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>116</v>
       </c>
@@ -4464,14 +4490,12 @@
         <v>116.35</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>117</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>116</v>
       </c>
@@ -4507,14 +4531,12 @@
         <v>116.35</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>116</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>116</v>
       </c>
@@ -4550,14 +4572,12 @@
         <v>116.35</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>116</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
         <v>116</v>
       </c>
@@ -4593,14 +4613,12 @@
         <v>116.4</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>117</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
         <v>116</v>
       </c>
@@ -4636,14 +4654,12 @@
         <v>116.45</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>117</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>116</v>
       </c>
@@ -4679,14 +4695,12 @@
         <v>116.4</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>116</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
         <v>116</v>
       </c>
@@ -4722,14 +4736,12 @@
         <v>116.35</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>116</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>116</v>
       </c>
@@ -4765,14 +4777,12 @@
         <v>116.35</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>116</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
         <v>116</v>
       </c>
@@ -4808,14 +4818,12 @@
         <v>116.35</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>116</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
         <v>116</v>
       </c>
@@ -4851,14 +4859,12 @@
         <v>116.3</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>115</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
         <v>116</v>
       </c>
@@ -4894,14 +4900,12 @@
         <v>116.2</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>115</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
         <v>116</v>
       </c>
@@ -4937,14 +4941,12 @@
         <v>116.1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>115</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
         <v>116</v>
       </c>
@@ -4980,14 +4982,12 @@
         <v>116.05</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>116</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
         <v>116</v>
       </c>
@@ -5023,14 +5023,12 @@
         <v>116.1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>117</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
         <v>116</v>
       </c>
@@ -5066,14 +5064,12 @@
         <v>116.1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>116</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>116</v>
       </c>
@@ -5109,14 +5105,12 @@
         <v>116.05</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>116</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
         <v>116</v>
       </c>
@@ -5193,14 +5187,12 @@
         <v>116.1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>117</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
         <v>116</v>
       </c>
@@ -5236,14 +5228,12 @@
         <v>116.15</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>117</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>116</v>
       </c>
@@ -5279,14 +5269,12 @@
         <v>116.15</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>116</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>116</v>
       </c>
@@ -5322,14 +5310,12 @@
         <v>116.1</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>116</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
         <v>116</v>
       </c>
@@ -5365,14 +5351,12 @@
         <v>116.15</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>117</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
         <v>116</v>
       </c>
@@ -5408,14 +5392,12 @@
         <v>116.2</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>117</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>116</v>
       </c>
@@ -5451,14 +5433,12 @@
         <v>116.25</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>118</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
         <v>116</v>
       </c>
@@ -5494,14 +5474,12 @@
         <v>116.25</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>117</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
         <v>116</v>
       </c>
@@ -6975,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
@@ -6983,11 +6961,11 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>1</v>
+        <v>1.020862068965517</v>
       </c>
     </row>
     <row r="168">
@@ -7016,17 +6994,11 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>116</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7057,19 +7029,13 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>116</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>1.020862068965517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -7098,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -7133,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>119</v>
       </c>
       <c r="F2" t="n">
-        <v>1932</v>
+        <v>1950</v>
       </c>
       <c r="G2" t="n">
-        <v>120.25</v>
+        <v>120.3833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>119</v>
       </c>
       <c r="F3" t="n">
-        <v>1949</v>
+        <v>1932</v>
       </c>
       <c r="G3" t="n">
-        <v>120.1</v>
+        <v>120.3666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>119</v>
       </c>
       <c r="F4" t="n">
-        <v>9782.753699999999</v>
+        <v>1949</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>120.35</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>119</v>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="n">
         <v>119</v>
       </c>
       <c r="F5" t="n">
-        <v>4148.0908</v>
+        <v>9782.753699999999</v>
       </c>
       <c r="G5" t="n">
-        <v>119.85</v>
+        <v>120.3166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>119</v>
       </c>
       <c r="C6" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E6" t="n">
         <v>119</v>
       </c>
       <c r="F6" t="n">
-        <v>2840</v>
+        <v>4148.0908</v>
       </c>
       <c r="G6" t="n">
-        <v>119.75</v>
+        <v>120.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="n">
         <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" t="n">
         <v>119</v>
       </c>
       <c r="F7" t="n">
-        <v>10400.6609</v>
+        <v>2840</v>
       </c>
       <c r="G7" t="n">
-        <v>119.75</v>
+        <v>120.2833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" t="n">
         <v>119</v>
       </c>
       <c r="F8" t="n">
-        <v>3045</v>
+        <v>10400.6609</v>
       </c>
       <c r="G8" t="n">
-        <v>119.7</v>
+        <v>120.25</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>119</v>
       </c>
       <c r="C9" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D9" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E9" t="n">
         <v>119</v>
       </c>
       <c r="F9" t="n">
-        <v>3703</v>
+        <v>3045</v>
       </c>
       <c r="G9" t="n">
-        <v>119.6</v>
+        <v>120.2666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>119</v>
       </c>
       <c r="F10" t="n">
-        <v>5080.5126</v>
+        <v>3703</v>
       </c>
       <c r="G10" t="n">
-        <v>119.55</v>
+        <v>120.25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>119</v>
       </c>
       <c r="F11" t="n">
-        <v>6797</v>
+        <v>5080.5126</v>
       </c>
       <c r="G11" t="n">
-        <v>119.5</v>
+        <v>120.2333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="n">
         <v>119</v>
       </c>
       <c r="D12" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" t="n">
         <v>119</v>
       </c>
       <c r="F12" t="n">
-        <v>10541.9998</v>
+        <v>6797</v>
       </c>
       <c r="G12" t="n">
-        <v>119.45</v>
+        <v>120.2333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" t="n">
         <v>119</v>
       </c>
       <c r="D13" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E13" t="n">
         <v>119</v>
       </c>
       <c r="F13" t="n">
-        <v>26235.8442</v>
+        <v>10541.9998</v>
       </c>
       <c r="G13" t="n">
-        <v>119.4</v>
+        <v>120.2333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>119</v>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>26235.8442</v>
       </c>
       <c r="G14" t="n">
-        <v>119.35</v>
+        <v>120.2333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" t="n">
-        <v>8025.6609</v>
+        <v>5000</v>
       </c>
       <c r="G15" t="n">
-        <v>119.35</v>
+        <v>120.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" t="n">
-        <v>5205</v>
+        <v>8025.6609</v>
       </c>
       <c r="G16" t="n">
-        <v>119.3</v>
+        <v>120.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" t="n">
         <v>119</v>
       </c>
       <c r="F17" t="n">
-        <v>8306</v>
+        <v>5205</v>
       </c>
       <c r="G17" t="n">
-        <v>119.25</v>
+        <v>120.1833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>8306</v>
       </c>
       <c r="G18" t="n">
-        <v>119.3</v>
+        <v>120.1833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C19" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D19" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F19" t="n">
-        <v>7279</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3</v>
+        <v>120.1833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>119</v>
       </c>
       <c r="D20" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E20" t="n">
         <v>119</v>
       </c>
       <c r="F20" t="n">
-        <v>1516</v>
+        <v>7279</v>
       </c>
       <c r="G20" t="n">
-        <v>119.3</v>
+        <v>120.15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>119</v>
       </c>
       <c r="C21" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" t="n">
         <v>119</v>
       </c>
       <c r="F21" t="n">
-        <v>7069.7403</v>
+        <v>1516</v>
       </c>
       <c r="G21" t="n">
-        <v>119.3</v>
+        <v>120.1166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>119</v>
       </c>
       <c r="C22" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" t="n">
         <v>119</v>
       </c>
       <c r="F22" t="n">
-        <v>1645.22</v>
+        <v>7069.7403</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3</v>
+        <v>120.15</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>119</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0084</v>
+        <v>1645.22</v>
       </c>
       <c r="G23" t="n">
-        <v>119.3</v>
+        <v>120.15</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" t="n">
-        <v>5818</v>
+        <v>1.0084</v>
       </c>
       <c r="G24" t="n">
-        <v>119.25</v>
+        <v>120.1666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>118</v>
       </c>
       <c r="F25" t="n">
-        <v>498</v>
+        <v>5818</v>
       </c>
       <c r="G25" t="n">
-        <v>119.2</v>
+        <v>120.15</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>118</v>
       </c>
       <c r="F26" t="n">
-        <v>3992</v>
+        <v>498</v>
       </c>
       <c r="G26" t="n">
-        <v>119.15</v>
+        <v>120.1333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>118</v>
       </c>
       <c r="F27" t="n">
-        <v>10549.1423</v>
+        <v>3992</v>
       </c>
       <c r="G27" t="n">
-        <v>119.05</v>
+        <v>120.0833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F28" t="n">
-        <v>502</v>
+        <v>10549.1423</v>
       </c>
       <c r="G28" t="n">
-        <v>118.95</v>
+        <v>120.0333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" t="n">
-        <v>3447.2455</v>
+        <v>502</v>
       </c>
       <c r="G29" t="n">
-        <v>118.95</v>
+        <v>119.9666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E30" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" t="n">
-        <v>4309</v>
+        <v>3447.2455</v>
       </c>
       <c r="G30" t="n">
-        <v>118.85</v>
+        <v>119.9166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D31" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E31" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F31" t="n">
-        <v>599.3935</v>
+        <v>4309</v>
       </c>
       <c r="G31" t="n">
-        <v>118.85</v>
+        <v>119.8333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>119</v>
       </c>
       <c r="F32" t="n">
-        <v>23680.4873</v>
+        <v>599.3935</v>
       </c>
       <c r="G32" t="n">
-        <v>118.8</v>
+        <v>119.7833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D33" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E33" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F33" t="n">
-        <v>4807</v>
+        <v>23680.4873</v>
       </c>
       <c r="G33" t="n">
-        <v>118.7</v>
+        <v>119.7666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>117</v>
       </c>
       <c r="F34" t="n">
-        <v>23621.286</v>
+        <v>4807</v>
       </c>
       <c r="G34" t="n">
-        <v>118.6</v>
+        <v>119.7166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>23621.286</v>
       </c>
       <c r="G35" t="n">
-        <v>118.5</v>
+        <v>119.6666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>118</v>
       </c>
       <c r="C36" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" t="n">
         <v>118</v>
       </c>
       <c r="F36" t="n">
-        <v>7426</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="n">
-        <v>118.45</v>
+        <v>119.6166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E37" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F37" t="n">
-        <v>99.84999999999999</v>
+        <v>7426</v>
       </c>
       <c r="G37" t="n">
-        <v>118.3</v>
+        <v>119.5833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" t="n">
-        <v>3007.9872</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>118.15</v>
+        <v>119.5166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>118</v>
       </c>
       <c r="F39" t="n">
-        <v>14555.6403</v>
+        <v>3007.9872</v>
       </c>
       <c r="G39" t="n">
-        <v>118.1</v>
+        <v>119.4666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E40" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F40" t="n">
-        <v>8745.234899999999</v>
+        <v>14555.6403</v>
       </c>
       <c r="G40" t="n">
-        <v>118</v>
+        <v>119.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>117</v>
       </c>
       <c r="F41" t="n">
-        <v>470.4266</v>
+        <v>8745.234899999999</v>
       </c>
       <c r="G41" t="n">
-        <v>117.9</v>
+        <v>119.3333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>117</v>
       </c>
       <c r="F42" t="n">
-        <v>280.9258</v>
+        <v>470.4266</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8</v>
+        <v>119.25</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F43" t="n">
-        <v>168</v>
+        <v>280.9258</v>
       </c>
       <c r="G43" t="n">
-        <v>117.75</v>
+        <v>119.1666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C44" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D44" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F44" t="n">
-        <v>2891</v>
+        <v>168</v>
       </c>
       <c r="G44" t="n">
-        <v>117.65</v>
+        <v>119.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>116</v>
       </c>
       <c r="F45" t="n">
-        <v>1592</v>
+        <v>2891</v>
       </c>
       <c r="G45" t="n">
-        <v>117.55</v>
+        <v>119.0166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>116</v>
       </c>
       <c r="F46" t="n">
-        <v>1503</v>
+        <v>1592</v>
       </c>
       <c r="G46" t="n">
-        <v>117.45</v>
+        <v>118.9166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>116</v>
       </c>
       <c r="F47" t="n">
-        <v>3487</v>
+        <v>1503</v>
       </c>
       <c r="G47" t="n">
-        <v>117.35</v>
+        <v>118.8333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>116</v>
       </c>
       <c r="F48" t="n">
-        <v>1834.6413</v>
+        <v>3487</v>
       </c>
       <c r="G48" t="n">
-        <v>117.3</v>
+        <v>118.7666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,23 +2090,19 @@
         <v>116</v>
       </c>
       <c r="F49" t="n">
-        <v>3741.2271</v>
+        <v>1834.6413</v>
       </c>
       <c r="G49" t="n">
-        <v>117.15</v>
+        <v>118.7</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>116</v>
-      </c>
-      <c r="K49" t="n">
-        <v>116</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -2123,34 +2119,26 @@
         <v>116</v>
       </c>
       <c r="D50" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E50" t="n">
         <v>116</v>
       </c>
       <c r="F50" t="n">
-        <v>2557.7279</v>
+        <v>3741.2271</v>
       </c>
       <c r="G50" t="n">
-        <v>117.1</v>
+        <v>118.6333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>116</v>
-      </c>
-      <c r="K50" t="n">
-        <v>116</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2166,34 +2154,26 @@
         <v>116</v>
       </c>
       <c r="D51" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E51" t="n">
         <v>116</v>
       </c>
       <c r="F51" t="n">
-        <v>306.7918</v>
+        <v>2557.7279</v>
       </c>
       <c r="G51" t="n">
-        <v>116.95</v>
+        <v>118.5666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>116</v>
-      </c>
-      <c r="K51" t="n">
-        <v>116</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2206,37 +2186,29 @@
         <v>116</v>
       </c>
       <c r="C52" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" t="n">
         <v>116</v>
       </c>
       <c r="F52" t="n">
-        <v>9614.661</v>
+        <v>306.7918</v>
       </c>
       <c r="G52" t="n">
-        <v>116.8</v>
+        <v>118.5</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>116</v>
-      </c>
-      <c r="K52" t="n">
-        <v>116</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2246,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" t="n">
         <v>117</v>
@@ -2255,31 +2227,23 @@
         <v>117</v>
       </c>
       <c r="E53" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" t="n">
-        <v>14300</v>
+        <v>9614.661</v>
       </c>
       <c r="G53" t="n">
-        <v>116.8</v>
+        <v>118.45</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>117</v>
-      </c>
-      <c r="K53" t="n">
-        <v>116</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2289,40 +2253,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E54" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F54" t="n">
-        <v>1851.6168</v>
+        <v>14300</v>
       </c>
       <c r="G54" t="n">
-        <v>116.75</v>
+        <v>118.4</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>117</v>
-      </c>
-      <c r="K54" t="n">
-        <v>116</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2338,34 +2294,26 @@
         <v>116</v>
       </c>
       <c r="D55" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" t="n">
         <v>116</v>
       </c>
       <c r="F55" t="n">
-        <v>1009.0376</v>
+        <v>1851.6168</v>
       </c>
       <c r="G55" t="n">
-        <v>116.65</v>
+        <v>118.3166666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>116</v>
-      </c>
-      <c r="K55" t="n">
-        <v>116</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2381,16 +2329,16 @@
         <v>116</v>
       </c>
       <c r="D56" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" t="n">
         <v>116</v>
       </c>
       <c r="F56" t="n">
-        <v>1677.0376</v>
+        <v>1009.0376</v>
       </c>
       <c r="G56" t="n">
-        <v>116.55</v>
+        <v>118.25</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2399,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>116</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2428,10 +2370,10 @@
         <v>116</v>
       </c>
       <c r="F57" t="n">
-        <v>288.0277</v>
+        <v>1677.0376</v>
       </c>
       <c r="G57" t="n">
-        <v>116.5</v>
+        <v>118.1666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2440,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>116</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2457,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D58" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E58" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F58" t="n">
-        <v>4773</v>
+        <v>288.0277</v>
       </c>
       <c r="G58" t="n">
-        <v>116.35</v>
+        <v>118.0833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2481,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>116</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D59" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" t="n">
-        <v>3003</v>
+        <v>4773</v>
       </c>
       <c r="G59" t="n">
-        <v>116.25</v>
+        <v>118</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2522,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>116</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2551,10 +2475,10 @@
         <v>116</v>
       </c>
       <c r="F60" t="n">
-        <v>1100</v>
+        <v>3003</v>
       </c>
       <c r="G60" t="n">
-        <v>116.2</v>
+        <v>117.95</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2563,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>116</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2580,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D61" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E61" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F61" t="n">
-        <v>621</v>
+        <v>1100</v>
       </c>
       <c r="G61" t="n">
-        <v>116.1</v>
+        <v>117.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2604,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>116</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2633,10 +2545,10 @@
         <v>115</v>
       </c>
       <c r="F62" t="n">
-        <v>2720</v>
+        <v>621</v>
       </c>
       <c r="G62" t="n">
-        <v>116</v>
+        <v>117.8333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2645,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>116</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2674,10 +2580,10 @@
         <v>115</v>
       </c>
       <c r="F63" t="n">
-        <v>6509.0955</v>
+        <v>2720</v>
       </c>
       <c r="G63" t="n">
-        <v>115.85</v>
+        <v>117.7666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2686,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>116</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2703,40 +2603,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E64" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F64" t="n">
-        <v>9823</v>
+        <v>6509.0955</v>
       </c>
       <c r="G64" t="n">
-        <v>115.85</v>
+        <v>117.7</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>115</v>
-      </c>
-      <c r="K64" t="n">
-        <v>116</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2746,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F65" t="n">
-        <v>23208.5848</v>
+        <v>9823</v>
       </c>
       <c r="G65" t="n">
-        <v>115.9</v>
+        <v>117.65</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2770,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>116</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2787,40 +2673,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C66" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D66" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E66" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F66" t="n">
-        <v>5397</v>
+        <v>23208.5848</v>
       </c>
       <c r="G66" t="n">
-        <v>115.9</v>
+        <v>117.6</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>117</v>
-      </c>
-      <c r="K66" t="n">
-        <v>116</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2833,19 +2711,19 @@
         <v>116</v>
       </c>
       <c r="C67" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D67" t="n">
         <v>116</v>
       </c>
       <c r="E67" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F67" t="n">
-        <v>54978.8169</v>
+        <v>5397</v>
       </c>
       <c r="G67" t="n">
-        <v>115.9</v>
+        <v>117.55</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2854,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>116</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2874,37 +2746,29 @@
         <v>116</v>
       </c>
       <c r="C68" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" t="n">
         <v>116</v>
       </c>
       <c r="E68" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" t="n">
-        <v>485.9859</v>
+        <v>54978.8169</v>
       </c>
       <c r="G68" t="n">
-        <v>115.9</v>
+        <v>117.4833333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>115</v>
-      </c>
-      <c r="K68" t="n">
-        <v>116</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2926,10 +2790,10 @@
         <v>116</v>
       </c>
       <c r="F69" t="n">
-        <v>5000</v>
+        <v>485.9859</v>
       </c>
       <c r="G69" t="n">
-        <v>115.9</v>
+        <v>117.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2938,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>116</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2967,10 +2825,10 @@
         <v>116</v>
       </c>
       <c r="F70" t="n">
-        <v>1956.5216</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>115.9</v>
+        <v>117.35</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2979,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>116</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2996,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F71" t="n">
-        <v>301</v>
+        <v>1956.5216</v>
       </c>
       <c r="G71" t="n">
-        <v>115.95</v>
+        <v>117.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3020,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>116</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3040,19 +2886,19 @@
         <v>117</v>
       </c>
       <c r="C72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D72" t="n">
         <v>117</v>
       </c>
       <c r="E72" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F72" t="n">
-        <v>2505</v>
+        <v>301</v>
       </c>
       <c r="G72" t="n">
-        <v>116</v>
+        <v>117.2666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3061,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>116</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3078,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C73" t="n">
         <v>116</v>
       </c>
       <c r="D73" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" t="n">
         <v>116</v>
       </c>
       <c r="F73" t="n">
-        <v>5698</v>
+        <v>2505</v>
       </c>
       <c r="G73" t="n">
-        <v>115.95</v>
+        <v>117.2166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3102,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>116</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3119,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D74" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E74" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>5698</v>
       </c>
       <c r="G74" t="n">
-        <v>116</v>
+        <v>117.1666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3143,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>116</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3169,13 +2997,13 @@
         <v>117</v>
       </c>
       <c r="E75" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F75" t="n">
-        <v>12315.2422</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>116.05</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3184,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>116</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3210,13 +3032,13 @@
         <v>117</v>
       </c>
       <c r="E76" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F76" t="n">
-        <v>7919.0371</v>
+        <v>12315.2422</v>
       </c>
       <c r="G76" t="n">
-        <v>116.1</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3225,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>116</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3254,10 +3070,10 @@
         <v>117</v>
       </c>
       <c r="F77" t="n">
-        <v>11805</v>
+        <v>7919.0371</v>
       </c>
       <c r="G77" t="n">
-        <v>116.15</v>
+        <v>117.05</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3266,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>116</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3286,19 +3096,19 @@
         <v>117</v>
       </c>
       <c r="C78" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D78" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F78" t="n">
-        <v>12475.7139</v>
+        <v>11805</v>
       </c>
       <c r="G78" t="n">
-        <v>116.25</v>
+        <v>117</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3307,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>116</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3324,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C79" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D79" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" t="n">
         <v>116</v>
       </c>
       <c r="F79" t="n">
-        <v>4865.7848</v>
+        <v>12475.7139</v>
       </c>
       <c r="G79" t="n">
-        <v>116.25</v>
+        <v>116.95</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3348,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>116</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3365,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C80" t="n">
         <v>117</v>
@@ -3374,13 +3172,13 @@
         <v>117</v>
       </c>
       <c r="E80" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F80" t="n">
-        <v>674</v>
+        <v>4865.7848</v>
       </c>
       <c r="G80" t="n">
-        <v>116.3</v>
+        <v>116.9166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3389,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>116</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3406,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C81" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D81" t="n">
         <v>117</v>
       </c>
       <c r="E81" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F81" t="n">
-        <v>7855.7148</v>
+        <v>674</v>
       </c>
       <c r="G81" t="n">
-        <v>116.35</v>
+        <v>116.8833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3430,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>116</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3453,16 +3239,16 @@
         <v>116</v>
       </c>
       <c r="D82" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" t="n">
         <v>116</v>
       </c>
       <c r="F82" t="n">
-        <v>8019</v>
+        <v>7855.7148</v>
       </c>
       <c r="G82" t="n">
-        <v>116.4</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3471,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>116</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3488,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F83" t="n">
-        <v>8628.2322</v>
+        <v>8019</v>
       </c>
       <c r="G83" t="n">
-        <v>116.5</v>
+        <v>116.7666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3512,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>116</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3529,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" t="n">
         <v>117</v>
@@ -3538,13 +3312,13 @@
         <v>117</v>
       </c>
       <c r="E84" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F84" t="n">
-        <v>1838</v>
+        <v>8628.2322</v>
       </c>
       <c r="G84" t="n">
-        <v>116.5</v>
+        <v>116.7333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3553,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>116</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3582,10 +3350,10 @@
         <v>116</v>
       </c>
       <c r="F85" t="n">
-        <v>825.3034</v>
+        <v>1838</v>
       </c>
       <c r="G85" t="n">
-        <v>116.45</v>
+        <v>116.7166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3594,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>116</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3614,19 +3376,19 @@
         <v>116</v>
       </c>
       <c r="C86" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D86" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" t="n">
         <v>116</v>
       </c>
       <c r="F86" t="n">
-        <v>7931</v>
+        <v>825.3034</v>
       </c>
       <c r="G86" t="n">
-        <v>116.45</v>
+        <v>116.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3635,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>116</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3655,19 +3411,19 @@
         <v>116</v>
       </c>
       <c r="C87" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D87" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E87" t="n">
         <v>116</v>
       </c>
       <c r="F87" t="n">
-        <v>152.0432</v>
+        <v>7931</v>
       </c>
       <c r="G87" t="n">
-        <v>116.45</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3676,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>116</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3705,10 +3455,10 @@
         <v>116</v>
       </c>
       <c r="F88" t="n">
-        <v>3487.3581</v>
+        <v>152.0432</v>
       </c>
       <c r="G88" t="n">
-        <v>116.45</v>
+        <v>116.65</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3717,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>116</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3737,19 +3481,19 @@
         <v>116</v>
       </c>
       <c r="C89" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D89" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" t="n">
         <v>116</v>
       </c>
       <c r="F89" t="n">
-        <v>8472</v>
+        <v>3487.3581</v>
       </c>
       <c r="G89" t="n">
-        <v>116.45</v>
+        <v>116.65</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3758,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>116</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3787,10 +3525,10 @@
         <v>116</v>
       </c>
       <c r="F90" t="n">
-        <v>6595</v>
+        <v>8472</v>
       </c>
       <c r="G90" t="n">
-        <v>116.45</v>
+        <v>116.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3799,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>116</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3828,10 +3560,10 @@
         <v>116</v>
       </c>
       <c r="F91" t="n">
-        <v>2244</v>
+        <v>6595</v>
       </c>
       <c r="G91" t="n">
-        <v>116.4</v>
+        <v>116.5833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3840,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>116</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3857,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E92" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F92" t="n">
-        <v>1157</v>
+        <v>2244</v>
       </c>
       <c r="G92" t="n">
-        <v>116.4</v>
+        <v>116.5333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3881,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>116</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +3630,10 @@
         <v>117</v>
       </c>
       <c r="F93" t="n">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G93" t="n">
-        <v>116.45</v>
+        <v>116.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3922,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>116</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3939,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C94" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D94" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E94" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F94" t="n">
-        <v>3722</v>
+        <v>1161</v>
       </c>
       <c r="G94" t="n">
-        <v>116.4</v>
+        <v>116.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3963,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>116</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3992,10 +3700,10 @@
         <v>116</v>
       </c>
       <c r="F95" t="n">
-        <v>3000</v>
+        <v>3722</v>
       </c>
       <c r="G95" t="n">
-        <v>116.35</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4004,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>116</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4024,19 +3726,19 @@
         <v>116</v>
       </c>
       <c r="C96" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E96" t="n">
         <v>116</v>
       </c>
       <c r="F96" t="n">
-        <v>2941</v>
+        <v>3000</v>
       </c>
       <c r="G96" t="n">
-        <v>116.3</v>
+        <v>116.45</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4045,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>116</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4062,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C97" t="n">
         <v>117</v>
@@ -4071,13 +3767,13 @@
         <v>117</v>
       </c>
       <c r="E97" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F97" t="n">
-        <v>7500</v>
+        <v>2941</v>
       </c>
       <c r="G97" t="n">
-        <v>116.3</v>
+        <v>116.4166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4086,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>116</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4115,10 +3805,10 @@
         <v>117</v>
       </c>
       <c r="F98" t="n">
-        <v>530</v>
+        <v>7500</v>
       </c>
       <c r="G98" t="n">
-        <v>116.3</v>
+        <v>116.4166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4127,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>116</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4156,10 +3840,10 @@
         <v>117</v>
       </c>
       <c r="F99" t="n">
-        <v>16953.3616</v>
+        <v>530</v>
       </c>
       <c r="G99" t="n">
-        <v>116.35</v>
+        <v>116.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4168,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>116</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4185,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F100" t="n">
-        <v>1014</v>
+        <v>16953.3616</v>
       </c>
       <c r="G100" t="n">
-        <v>116.3</v>
+        <v>116.3833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4209,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>116</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4238,10 +3910,10 @@
         <v>116</v>
       </c>
       <c r="F101" t="n">
-        <v>945.5516</v>
+        <v>1014</v>
       </c>
       <c r="G101" t="n">
-        <v>116.3</v>
+        <v>116.3666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4250,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>116</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4267,19 +3933,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F102" t="n">
-        <v>1321.9999</v>
+        <v>945.5516</v>
       </c>
       <c r="G102" t="n">
         <v>116.35</v>
@@ -4291,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>116</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4308,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C103" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D103" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E103" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F103" t="n">
-        <v>2888</v>
+        <v>1321.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>116.3</v>
+        <v>116.35</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4332,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>116</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4361,10 +4015,10 @@
         <v>116</v>
       </c>
       <c r="F104" t="n">
-        <v>842</v>
+        <v>2888</v>
       </c>
       <c r="G104" t="n">
-        <v>116.3</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4373,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>116</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4402,10 +4050,10 @@
         <v>116</v>
       </c>
       <c r="F105" t="n">
-        <v>644</v>
+        <v>842</v>
       </c>
       <c r="G105" t="n">
-        <v>116.3</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4414,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>116</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4446,7 +4088,7 @@
         <v>644</v>
       </c>
       <c r="G106" t="n">
-        <v>116.3</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4455,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>116</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4472,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E107" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F107" t="n">
-        <v>21900</v>
+        <v>644</v>
       </c>
       <c r="G107" t="n">
-        <v>116.35</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4496,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>116</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4513,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D108" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E108" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F108" t="n">
-        <v>6379</v>
+        <v>21900</v>
       </c>
       <c r="G108" t="n">
-        <v>116.35</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4537,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>116</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4566,10 +4190,10 @@
         <v>116</v>
       </c>
       <c r="F109" t="n">
-        <v>5184</v>
+        <v>6379</v>
       </c>
       <c r="G109" t="n">
-        <v>116.35</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4578,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>116</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4595,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E110" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F110" t="n">
-        <v>1657</v>
+        <v>5184</v>
       </c>
       <c r="G110" t="n">
-        <v>116.4</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4619,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>116</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4648,10 +4260,10 @@
         <v>117</v>
       </c>
       <c r="F111" t="n">
-        <v>1802</v>
+        <v>1657</v>
       </c>
       <c r="G111" t="n">
-        <v>116.45</v>
+        <v>116.35</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4660,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>116</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4677,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D112" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E112" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F112" t="n">
-        <v>8762</v>
+        <v>1802</v>
       </c>
       <c r="G112" t="n">
-        <v>116.4</v>
+        <v>116.3666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4701,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>116</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4730,7 +4330,7 @@
         <v>116</v>
       </c>
       <c r="F113" t="n">
-        <v>13016</v>
+        <v>8762</v>
       </c>
       <c r="G113" t="n">
         <v>116.35</v>
@@ -4742,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>116</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4771,10 +4365,10 @@
         <v>116</v>
       </c>
       <c r="F114" t="n">
-        <v>314</v>
+        <v>13016</v>
       </c>
       <c r="G114" t="n">
-        <v>116.35</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4783,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>116</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4806,16 +4394,16 @@
         <v>116</v>
       </c>
       <c r="D115" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E115" t="n">
         <v>116</v>
       </c>
       <c r="F115" t="n">
-        <v>16301.5436</v>
+        <v>314</v>
       </c>
       <c r="G115" t="n">
-        <v>116.35</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4824,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>116</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4841,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D116" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F116" t="n">
-        <v>7202.7498</v>
+        <v>16301.5436</v>
       </c>
       <c r="G116" t="n">
-        <v>116.3</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4865,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>116</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4885,19 +4461,19 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117" t="n">
         <v>115</v>
       </c>
       <c r="F117" t="n">
-        <v>863.6627</v>
+        <v>7202.7498</v>
       </c>
       <c r="G117" t="n">
-        <v>116.2</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4906,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>116</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4935,10 +4505,10 @@
         <v>115</v>
       </c>
       <c r="F118" t="n">
-        <v>4871</v>
+        <v>863.6627</v>
       </c>
       <c r="G118" t="n">
-        <v>116.1</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4947,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>116</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4964,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E119" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F119" t="n">
-        <v>5419</v>
+        <v>4871</v>
       </c>
       <c r="G119" t="n">
-        <v>116.05</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4988,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>116</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5005,7 +4563,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" t="n">
         <v>117</v>
@@ -5014,13 +4572,13 @@
         <v>117</v>
       </c>
       <c r="E120" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F120" t="n">
-        <v>5000</v>
+        <v>5419</v>
       </c>
       <c r="G120" t="n">
-        <v>116.1</v>
+        <v>116.35</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5029,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>116</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5046,7 +4598,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C121" t="n">
         <v>117</v>
@@ -5055,13 +4607,13 @@
         <v>117</v>
       </c>
       <c r="E121" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F121" t="n">
-        <v>27300</v>
+        <v>5000</v>
       </c>
       <c r="G121" t="n">
-        <v>116.1</v>
+        <v>116.3666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5070,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>116</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5090,19 +4636,19 @@
         <v>116</v>
       </c>
       <c r="C122" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D122" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E122" t="n">
         <v>116</v>
       </c>
       <c r="F122" t="n">
-        <v>2398</v>
+        <v>27300</v>
       </c>
       <c r="G122" t="n">
-        <v>116.05</v>
+        <v>116.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5111,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>116</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5140,10 +4680,10 @@
         <v>116</v>
       </c>
       <c r="F123" t="n">
-        <v>2041</v>
+        <v>2398</v>
       </c>
       <c r="G123" t="n">
-        <v>116.05</v>
+        <v>116.4166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5152,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>116</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5169,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D124" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E124" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F124" t="n">
-        <v>26</v>
+        <v>2041</v>
       </c>
       <c r="G124" t="n">
-        <v>116.1</v>
+        <v>116.4333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5193,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>116</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5222,10 +4750,10 @@
         <v>117</v>
       </c>
       <c r="F125" t="n">
-        <v>9444.291800000001</v>
+        <v>26</v>
       </c>
       <c r="G125" t="n">
-        <v>116.15</v>
+        <v>116.45</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5234,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>116</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5251,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C126" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D126" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E126" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F126" t="n">
-        <v>2095</v>
+        <v>9444.291800000001</v>
       </c>
       <c r="G126" t="n">
-        <v>116.15</v>
+        <v>116.45</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5275,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>116</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5304,10 +4820,10 @@
         <v>116</v>
       </c>
       <c r="F127" t="n">
-        <v>16905.9945</v>
+        <v>2095</v>
       </c>
       <c r="G127" t="n">
-        <v>116.1</v>
+        <v>116.45</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5316,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>116</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D128" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E128" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F128" t="n">
-        <v>3700.003</v>
+        <v>16905.9945</v>
       </c>
       <c r="G128" t="n">
-        <v>116.15</v>
+        <v>116.4666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5357,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>116</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5386,10 +4890,10 @@
         <v>117</v>
       </c>
       <c r="F129" t="n">
-        <v>1096.9999</v>
+        <v>3700.003</v>
       </c>
       <c r="G129" t="n">
-        <v>116.2</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5398,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>116</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5415,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C130" t="n">
         <v>117</v>
       </c>
       <c r="D130" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E130" t="n">
         <v>117</v>
       </c>
       <c r="F130" t="n">
-        <v>21664</v>
+        <v>1096.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>116.25</v>
+        <v>116.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5439,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>116</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5456,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C131" t="n">
         <v>117</v>
       </c>
       <c r="D131" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E131" t="n">
         <v>117</v>
       </c>
       <c r="F131" t="n">
-        <v>7530</v>
+        <v>21664</v>
       </c>
       <c r="G131" t="n">
-        <v>116.25</v>
+        <v>116.5166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5480,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>116</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5509,10 +4995,10 @@
         <v>117</v>
       </c>
       <c r="F132" t="n">
-        <v>2760.6354</v>
+        <v>7530</v>
       </c>
       <c r="G132" t="n">
-        <v>116.3</v>
+        <v>116.5166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5521,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>116</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5538,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C133" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D133" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E133" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F133" t="n">
-        <v>491.6354</v>
+        <v>2760.6354</v>
       </c>
       <c r="G133" t="n">
-        <v>116.4</v>
+        <v>116.5333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5562,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>116</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5591,10 +5065,10 @@
         <v>118</v>
       </c>
       <c r="F134" t="n">
-        <v>3278</v>
+        <v>491.6354</v>
       </c>
       <c r="G134" t="n">
-        <v>116.5</v>
+        <v>116.5666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5603,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>116</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5632,10 +5100,10 @@
         <v>118</v>
       </c>
       <c r="F135" t="n">
-        <v>1247</v>
+        <v>3278</v>
       </c>
       <c r="G135" t="n">
-        <v>116.6</v>
+        <v>116.5833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5644,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>116</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5661,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C136" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D136" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E136" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F136" t="n">
-        <v>2324</v>
+        <v>1247</v>
       </c>
       <c r="G136" t="n">
-        <v>116.7</v>
+        <v>116.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5685,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>116</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5705,19 +5161,19 @@
         <v>117</v>
       </c>
       <c r="C137" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D137" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E137" t="n">
         <v>117</v>
       </c>
       <c r="F137" t="n">
-        <v>1882.5681</v>
+        <v>2324</v>
       </c>
       <c r="G137" t="n">
-        <v>116.8</v>
+        <v>116.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5726,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>116</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5746,7 +5196,7 @@
         <v>117</v>
       </c>
       <c r="C138" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D138" t="n">
         <v>118</v>
@@ -5755,10 +5205,10 @@
         <v>117</v>
       </c>
       <c r="F138" t="n">
-        <v>8054.5216</v>
+        <v>1882.5681</v>
       </c>
       <c r="G138" t="n">
-        <v>116.9</v>
+        <v>116.6166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5767,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>116</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5796,10 +5240,10 @@
         <v>117</v>
       </c>
       <c r="F139" t="n">
-        <v>13524.3875</v>
+        <v>8054.5216</v>
       </c>
       <c r="G139" t="n">
-        <v>116.95</v>
+        <v>116.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5808,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>116</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5831,16 +5269,16 @@
         <v>117</v>
       </c>
       <c r="D140" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E140" t="n">
         <v>117</v>
       </c>
       <c r="F140" t="n">
-        <v>1810.0508</v>
+        <v>13524.3875</v>
       </c>
       <c r="G140" t="n">
-        <v>116.95</v>
+        <v>116.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5849,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>116</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5878,10 +5310,10 @@
         <v>117</v>
       </c>
       <c r="F141" t="n">
-        <v>3280.8156</v>
+        <v>1810.0508</v>
       </c>
       <c r="G141" t="n">
-        <v>117</v>
+        <v>116.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5890,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>116</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5907,7 +5333,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C142" t="n">
         <v>117</v>
@@ -5916,13 +5342,13 @@
         <v>117</v>
       </c>
       <c r="E142" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F142" t="n">
-        <v>2741.036</v>
+        <v>3280.8156</v>
       </c>
       <c r="G142" t="n">
-        <v>117</v>
+        <v>116.6166666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5931,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>116</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5948,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C143" t="n">
         <v>117</v>
       </c>
       <c r="D143" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E143" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F143" t="n">
-        <v>2899</v>
+        <v>2741.036</v>
       </c>
       <c r="G143" t="n">
-        <v>117.05</v>
+        <v>116.6333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5972,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>116</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5989,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C144" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D144" t="n">
         <v>118</v>
       </c>
       <c r="E144" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F144" t="n">
-        <v>1599</v>
+        <v>2899</v>
       </c>
       <c r="G144" t="n">
-        <v>117.1</v>
+        <v>116.6333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6013,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>116</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6042,10 +5450,10 @@
         <v>118</v>
       </c>
       <c r="F145" t="n">
-        <v>499</v>
+        <v>1599</v>
       </c>
       <c r="G145" t="n">
-        <v>117.15</v>
+        <v>116.65</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6054,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>116</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6086,7 +5488,7 @@
         <v>499</v>
       </c>
       <c r="G146" t="n">
-        <v>117.25</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6095,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>116</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6127,7 +5523,7 @@
         <v>499</v>
       </c>
       <c r="G147" t="n">
-        <v>117.35</v>
+        <v>116.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6136,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>116</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6165,10 +5555,10 @@
         <v>118</v>
       </c>
       <c r="F148" t="n">
-        <v>583.471</v>
+        <v>499</v>
       </c>
       <c r="G148" t="n">
-        <v>117.4</v>
+        <v>116.7166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6177,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>116</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6206,10 +5590,10 @@
         <v>118</v>
       </c>
       <c r="F149" t="n">
-        <v>1216.9999</v>
+        <v>583.471</v>
       </c>
       <c r="G149" t="n">
-        <v>117.45</v>
+        <v>116.7333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6218,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>116</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6247,10 +5625,10 @@
         <v>118</v>
       </c>
       <c r="F150" t="n">
-        <v>2092.2028</v>
+        <v>1216.9999</v>
       </c>
       <c r="G150" t="n">
-        <v>117.45</v>
+        <v>116.7666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6259,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>116</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6276,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C151" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D151" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E151" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F151" t="n">
-        <v>495</v>
+        <v>2092.2028</v>
       </c>
       <c r="G151" t="n">
-        <v>117.45</v>
+        <v>116.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6300,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>116</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6329,10 +5695,10 @@
         <v>117</v>
       </c>
       <c r="F152" t="n">
-        <v>3749</v>
+        <v>495</v>
       </c>
       <c r="G152" t="n">
-        <v>117.45</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6341,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>116</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6358,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C153" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D153" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E153" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F153" t="n">
-        <v>786</v>
+        <v>3749</v>
       </c>
       <c r="G153" t="n">
-        <v>117.45</v>
+        <v>116.8166666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6382,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>116</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6399,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C154" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D154" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E154" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F154" t="n">
-        <v>1285</v>
+        <v>786</v>
       </c>
       <c r="G154" t="n">
-        <v>117.4</v>
+        <v>116.8333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6423,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>116</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6446,16 +5794,16 @@
         <v>117</v>
       </c>
       <c r="D155" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E155" t="n">
         <v>117</v>
       </c>
       <c r="F155" t="n">
-        <v>6096.0111</v>
+        <v>1285</v>
       </c>
       <c r="G155" t="n">
-        <v>117.35</v>
+        <v>116.85</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6464,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>116</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6487,16 +5829,16 @@
         <v>117</v>
       </c>
       <c r="D156" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E156" t="n">
         <v>117</v>
       </c>
       <c r="F156" t="n">
-        <v>1996</v>
+        <v>6096.0111</v>
       </c>
       <c r="G156" t="n">
-        <v>117.35</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6505,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>116</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6534,10 +5870,10 @@
         <v>117</v>
       </c>
       <c r="F157" t="n">
-        <v>2695</v>
+        <v>1996</v>
       </c>
       <c r="G157" t="n">
-        <v>117.35</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6546,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>116</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6563,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C158" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D158" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E158" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F158" t="n">
-        <v>1299</v>
+        <v>2695</v>
       </c>
       <c r="G158" t="n">
-        <v>117.4</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6587,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>116</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6616,10 +5940,10 @@
         <v>118</v>
       </c>
       <c r="F159" t="n">
-        <v>920</v>
+        <v>1299</v>
       </c>
       <c r="G159" t="n">
-        <v>117.45</v>
+        <v>116.8833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6628,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>116</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6645,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C160" t="n">
         <v>118</v>
       </c>
       <c r="D160" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E160" t="n">
         <v>118</v>
       </c>
       <c r="F160" t="n">
-        <v>17425.4944</v>
+        <v>920</v>
       </c>
       <c r="G160" t="n">
-        <v>117.55</v>
+        <v>116.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6669,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>116</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6686,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C161" t="n">
         <v>118</v>
       </c>
       <c r="D161" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E161" t="n">
         <v>118</v>
       </c>
       <c r="F161" t="n">
-        <v>496</v>
+        <v>17425.4944</v>
       </c>
       <c r="G161" t="n">
-        <v>117.6</v>
+        <v>116.9333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6710,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>116</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6739,10 +6045,10 @@
         <v>118</v>
       </c>
       <c r="F162" t="n">
-        <v>4874</v>
+        <v>496</v>
       </c>
       <c r="G162" t="n">
-        <v>117.7</v>
+        <v>116.9666666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6751,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>116</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6780,10 +6080,10 @@
         <v>118</v>
       </c>
       <c r="F163" t="n">
-        <v>3065</v>
+        <v>4874</v>
       </c>
       <c r="G163" t="n">
-        <v>117.75</v>
+        <v>116.9833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6792,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>116</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6809,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C164" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D164" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E164" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F164" t="n">
-        <v>16653</v>
+        <v>3065</v>
       </c>
       <c r="G164" t="n">
-        <v>117.8</v>
+        <v>117.0166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6833,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>116</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6850,7 +6138,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C165" t="n">
         <v>120</v>
@@ -6859,13 +6147,13 @@
         <v>120</v>
       </c>
       <c r="E165" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F165" t="n">
-        <v>4900</v>
+        <v>16653</v>
       </c>
       <c r="G165" t="n">
-        <v>117.9</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6874,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>116</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6891,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C166" t="n">
         <v>120</v>
       </c>
       <c r="D166" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E166" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F166" t="n">
-        <v>16803</v>
+        <v>4900</v>
       </c>
       <c r="G166" t="n">
-        <v>117.95</v>
+        <v>117.15</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6915,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>116</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6935,19 +6211,19 @@
         <v>119</v>
       </c>
       <c r="C167" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D167" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E167" t="n">
         <v>119</v>
       </c>
       <c r="F167" t="n">
-        <v>12075.0015</v>
+        <v>16803</v>
       </c>
       <c r="G167" t="n">
-        <v>118</v>
+        <v>117.2166666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6956,16 +6232,10 @@
         <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>116</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>1.020862068965517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -6985,10 +6255,10 @@
         <v>119</v>
       </c>
       <c r="F168" t="n">
-        <v>1171</v>
+        <v>12075.0015</v>
       </c>
       <c r="G168" t="n">
-        <v>118.05</v>
+        <v>117.25</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7020,16 +6290,16 @@
         <v>119</v>
       </c>
       <c r="F169" t="n">
-        <v>7644</v>
+        <v>1171</v>
       </c>
       <c r="G169" t="n">
-        <v>118.1</v>
+        <v>117.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -7043,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C170" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D170" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E170" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F170" t="n">
-        <v>2506</v>
+        <v>7644</v>
       </c>
       <c r="G170" t="n">
-        <v>118.1</v>
+        <v>117.35</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7090,10 +6360,10 @@
         <v>118</v>
       </c>
       <c r="F171" t="n">
-        <v>4024</v>
+        <v>2506</v>
       </c>
       <c r="G171" t="n">
-        <v>118.15</v>
+        <v>117.3666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7125,10 +6395,10 @@
         <v>118</v>
       </c>
       <c r="F172" t="n">
-        <v>11.3389</v>
+        <v>4024</v>
       </c>
       <c r="G172" t="n">
-        <v>118.2</v>
+        <v>117.3833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7148,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C173" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D173" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E173" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F173" t="n">
-        <v>40349</v>
+        <v>11.3389</v>
       </c>
       <c r="G173" t="n">
-        <v>118.15</v>
+        <v>117.4166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7195,10 +6465,10 @@
         <v>117</v>
       </c>
       <c r="F174" t="n">
-        <v>9145.846100000001</v>
+        <v>40349</v>
       </c>
       <c r="G174" t="n">
-        <v>118.15</v>
+        <v>117.4333333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7218,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C175" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D175" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E175" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F175" t="n">
-        <v>10.15</v>
+        <v>9145.846100000001</v>
       </c>
       <c r="G175" t="n">
-        <v>118.2</v>
+        <v>117.45</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7253,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C176" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D176" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E176" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F176" t="n">
-        <v>3228.7981</v>
+        <v>10.15</v>
       </c>
       <c r="G176" t="n">
-        <v>118.2</v>
+        <v>117.4833333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7288,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C177" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D177" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E177" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F177" t="n">
-        <v>3774.4605</v>
+        <v>3228.7981</v>
       </c>
       <c r="G177" t="n">
-        <v>118.25</v>
+        <v>117.5166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7335,19 +6605,23 @@
         <v>118</v>
       </c>
       <c r="F178" t="n">
-        <v>5613</v>
+        <v>3774.4605</v>
       </c>
       <c r="G178" t="n">
-        <v>118.25</v>
+        <v>117.55</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>117</v>
+      </c>
+      <c r="K178" t="n">
+        <v>117</v>
+      </c>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
@@ -7358,32 +6632,40 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C179" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D179" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E179" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F179" t="n">
-        <v>12551.3878</v>
+        <v>5613</v>
       </c>
       <c r="G179" t="n">
-        <v>118.3</v>
+        <v>117.5833333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>118</v>
+      </c>
+      <c r="K179" t="n">
+        <v>117</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7405,10 +6687,10 @@
         <v>119</v>
       </c>
       <c r="F180" t="n">
-        <v>1855</v>
+        <v>12551.3878</v>
       </c>
       <c r="G180" t="n">
-        <v>118.3</v>
+        <v>117.6166666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7417,8 +6699,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>117</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7440,10 +6728,10 @@
         <v>119</v>
       </c>
       <c r="F181" t="n">
-        <v>1425</v>
+        <v>1855</v>
       </c>
       <c r="G181" t="n">
-        <v>118.35</v>
+        <v>117.65</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7466,19 +6754,19 @@
         <v>119</v>
       </c>
       <c r="C182" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D182" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E182" t="n">
         <v>119</v>
       </c>
       <c r="F182" t="n">
-        <v>1800</v>
+        <v>1425</v>
       </c>
       <c r="G182" t="n">
-        <v>118.4</v>
+        <v>117.6833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7498,7 +6786,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C183" t="n">
         <v>120</v>
@@ -7507,13 +6795,13 @@
         <v>120</v>
       </c>
       <c r="E183" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F183" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="G183" t="n">
-        <v>118.5</v>
+        <v>117.75</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7545,10 +6833,10 @@
         <v>120</v>
       </c>
       <c r="F184" t="n">
-        <v>6359</v>
+        <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>118.55</v>
+        <v>117.8166666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7568,22 +6856,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C185" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D185" t="n">
         <v>120</v>
       </c>
       <c r="E185" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F185" t="n">
-        <v>9458.1212</v>
+        <v>6359</v>
       </c>
       <c r="G185" t="n">
-        <v>118.5</v>
+        <v>117.8666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7603,22 +6891,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C186" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D186" t="n">
         <v>120</v>
       </c>
       <c r="E186" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F186" t="n">
-        <v>550</v>
+        <v>9458.1212</v>
       </c>
       <c r="G186" t="n">
-        <v>118.55</v>
+        <v>117.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7638,22 +6926,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C187" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D187" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E187" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F187" t="n">
-        <v>1505.7058</v>
+        <v>550</v>
       </c>
       <c r="G187" t="n">
-        <v>118.55</v>
+        <v>117.9666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7673,22 +6961,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C188" t="n">
         <v>118</v>
       </c>
       <c r="D188" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E188" t="n">
         <v>118</v>
       </c>
       <c r="F188" t="n">
-        <v>472</v>
+        <v>1505.7058</v>
       </c>
       <c r="G188" t="n">
-        <v>118.5</v>
+        <v>118</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7720,10 +7008,10 @@
         <v>118</v>
       </c>
       <c r="F189" t="n">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="G189" t="n">
-        <v>118.45</v>
+        <v>118.0166666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7743,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C190" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D190" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E190" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F190" t="n">
-        <v>308.713</v>
+        <v>527</v>
       </c>
       <c r="G190" t="n">
-        <v>118.5</v>
+        <v>118.0333333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7778,31 +7066,35 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C191" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D191" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E191" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F191" t="n">
-        <v>737.4609</v>
+        <v>308.713</v>
       </c>
       <c r="G191" t="n">
-        <v>118.65</v>
+        <v>118.0666666666667</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>118</v>
+      </c>
+      <c r="K191" t="n">
+        <v>118</v>
+      </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
@@ -7813,22 +7105,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C192" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D192" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E192" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F192" t="n">
-        <v>293.3855</v>
+        <v>737.4609</v>
       </c>
       <c r="G192" t="n">
-        <v>118.75</v>
+        <v>118.1333333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7837,8 +7129,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>118</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7848,22 +7146,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C193" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D193" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E193" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F193" t="n">
-        <v>5388</v>
+        <v>293.3855</v>
       </c>
       <c r="G193" t="n">
-        <v>118.85</v>
+        <v>118.1833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7872,8 +7170,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>118</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7883,22 +7187,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C194" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D194" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E194" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F194" t="n">
-        <v>555</v>
+        <v>5388</v>
       </c>
       <c r="G194" t="n">
-        <v>119</v>
+        <v>118.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7930,10 +7234,10 @@
         <v>120</v>
       </c>
       <c r="F195" t="n">
-        <v>144.841</v>
+        <v>555</v>
       </c>
       <c r="G195" t="n">
-        <v>119.1</v>
+        <v>118.2333333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7953,22 +7257,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C196" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D196" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E196" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F196" t="n">
-        <v>589</v>
+        <v>144.841</v>
       </c>
       <c r="G196" t="n">
-        <v>119.2</v>
+        <v>118.2666666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8000,10 +7304,10 @@
         <v>119</v>
       </c>
       <c r="F197" t="n">
-        <v>307.5398</v>
+        <v>589</v>
       </c>
       <c r="G197" t="n">
-        <v>119.25</v>
+        <v>118.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8035,10 +7339,10 @@
         <v>119</v>
       </c>
       <c r="F198" t="n">
-        <v>102.4602</v>
+        <v>307.5398</v>
       </c>
       <c r="G198" t="n">
-        <v>119.3</v>
+        <v>118.3166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8058,22 +7362,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C199" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D199" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E199" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F199" t="n">
-        <v>646</v>
+        <v>102.4602</v>
       </c>
       <c r="G199" t="n">
-        <v>119.25</v>
+        <v>118.35</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8093,22 +7397,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C200" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D200" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E200" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F200" t="n">
-        <v>4235</v>
+        <v>646</v>
       </c>
       <c r="G200" t="n">
-        <v>119.15</v>
+        <v>118.3666666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8140,10 +7444,10 @@
         <v>117</v>
       </c>
       <c r="F201" t="n">
-        <v>2244</v>
+        <v>4235</v>
       </c>
       <c r="G201" t="n">
-        <v>119.05</v>
+        <v>118.3666666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8163,22 +7467,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C202" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D202" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E202" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F202" t="n">
-        <v>10683</v>
+        <v>2244</v>
       </c>
       <c r="G202" t="n">
-        <v>119</v>
+        <v>118.3666666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8210,10 +7514,10 @@
         <v>118</v>
       </c>
       <c r="F203" t="n">
-        <v>1570.4661</v>
+        <v>10683</v>
       </c>
       <c r="G203" t="n">
-        <v>118.9</v>
+        <v>118.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8245,10 +7549,10 @@
         <v>118</v>
       </c>
       <c r="F204" t="n">
-        <v>1246</v>
+        <v>1570.4661</v>
       </c>
       <c r="G204" t="n">
-        <v>118.8</v>
+        <v>118.4333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8271,19 +7575,19 @@
         <v>118</v>
       </c>
       <c r="C205" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D205" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E205" t="n">
         <v>118</v>
       </c>
       <c r="F205" t="n">
-        <v>999</v>
+        <v>1246</v>
       </c>
       <c r="G205" t="n">
-        <v>118.75</v>
+        <v>118.45</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8306,19 +7610,19 @@
         <v>118</v>
       </c>
       <c r="C206" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D206" t="n">
         <v>118</v>
       </c>
       <c r="E206" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F206" t="n">
-        <v>3660</v>
+        <v>999</v>
       </c>
       <c r="G206" t="n">
-        <v>118.65</v>
+        <v>118.45</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8341,19 +7645,19 @@
         <v>118</v>
       </c>
       <c r="C207" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D207" t="n">
         <v>118</v>
       </c>
       <c r="E207" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F207" t="n">
-        <v>1009</v>
+        <v>3660</v>
       </c>
       <c r="G207" t="n">
-        <v>118.6</v>
+        <v>118.4333333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8385,10 +7689,10 @@
         <v>118</v>
       </c>
       <c r="F208" t="n">
-        <v>657</v>
+        <v>1009</v>
       </c>
       <c r="G208" t="n">
-        <v>118.6</v>
+        <v>118.4333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8403,6 +7707,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>118</v>
+      </c>
+      <c r="C209" t="n">
+        <v>118</v>
+      </c>
+      <c r="D209" t="n">
+        <v>118</v>
+      </c>
+      <c r="E209" t="n">
+        <v>118</v>
+      </c>
+      <c r="F209" t="n">
+        <v>657</v>
+      </c>
+      <c r="G209" t="n">
+        <v>118.4333333333333</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:N219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1950</v>
       </c>
       <c r="G2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H2" t="n">
         <v>120.3833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1932</v>
       </c>
       <c r="G3" t="n">
+        <v>119.9333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>120.3666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1949</v>
       </c>
       <c r="G4" t="n">
+        <v>119.8666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>120.35</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>9782.753699999999</v>
       </c>
       <c r="G5" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>120.3166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>4148.0908</v>
       </c>
       <c r="G6" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>120.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2840</v>
       </c>
       <c r="G7" t="n">
+        <v>119.7333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>120.2833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>10400.6609</v>
       </c>
       <c r="G8" t="n">
+        <v>119.6666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>120.25</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3045</v>
       </c>
       <c r="G9" t="n">
+        <v>119.7333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>120.2666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3703</v>
       </c>
       <c r="G10" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>120.25</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>5080.5126</v>
       </c>
       <c r="G11" t="n">
+        <v>119.5333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>120.2333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>6797</v>
       </c>
       <c r="G12" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="H12" t="n">
         <v>120.2333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10541.9998</v>
       </c>
       <c r="G13" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>120.2333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>26235.8442</v>
       </c>
       <c r="G14" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>120.2333333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>5000</v>
       </c>
       <c r="G15" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="H15" t="n">
         <v>120.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>8025.6609</v>
       </c>
       <c r="G16" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>120.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>5205</v>
       </c>
       <c r="G17" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>120.1833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>8306</v>
       </c>
       <c r="G18" t="n">
+        <v>119.3333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>120.1833333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
+        <v>119.4666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>120.1833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>7279</v>
       </c>
       <c r="G20" t="n">
+        <v>119.4666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>120.15</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1516</v>
       </c>
       <c r="G21" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="H21" t="n">
         <v>120.1166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>7069.7403</v>
       </c>
       <c r="G22" t="n">
+        <v>119.4666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>120.15</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1645.22</v>
       </c>
       <c r="G23" t="n">
+        <v>119.4666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>120.15</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1.0084</v>
       </c>
       <c r="G24" t="n">
+        <v>119.3333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>120.1666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>5818</v>
       </c>
       <c r="G25" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>120.15</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>498</v>
       </c>
       <c r="G26" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="H26" t="n">
         <v>120.1333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>3992</v>
       </c>
       <c r="G27" t="n">
+        <v>119.1333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>120.0833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>10549.1423</v>
       </c>
       <c r="G28" t="n">
+        <v>119.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>120.0333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>502</v>
       </c>
       <c r="G29" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>119.9666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>3447.2455</v>
       </c>
       <c r="G30" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>119.9166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4309</v>
       </c>
       <c r="G31" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>119.8333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>599.3935</v>
       </c>
       <c r="G32" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>119.7833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>23680.4873</v>
       </c>
       <c r="G33" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>119.7666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>4807</v>
       </c>
       <c r="G34" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H34" t="n">
         <v>119.7166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>23621.286</v>
       </c>
       <c r="G35" t="n">
+        <v>118.2666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>119.6666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>5000</v>
       </c>
       <c r="G36" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H36" t="n">
         <v>119.6166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>7426</v>
       </c>
       <c r="G37" t="n">
+        <v>118.1333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>119.5833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>99.84999999999999</v>
       </c>
       <c r="G38" t="n">
+        <v>118</v>
+      </c>
+      <c r="H38" t="n">
         <v>119.5166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>3007.9872</v>
       </c>
       <c r="G39" t="n">
+        <v>117.9333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>119.4666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>14555.6403</v>
       </c>
       <c r="G40" t="n">
+        <v>117.9333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>119.4</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>8745.234899999999</v>
       </c>
       <c r="G41" t="n">
+        <v>117.8666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>119.3333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>470.4266</v>
       </c>
       <c r="G42" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H42" t="n">
         <v>119.25</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>280.9258</v>
       </c>
       <c r="G43" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>119.1666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>168</v>
       </c>
       <c r="G44" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H44" t="n">
         <v>119.1</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2891</v>
       </c>
       <c r="G45" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H45" t="n">
         <v>119.0166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1592</v>
       </c>
       <c r="G46" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>118.9166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1503</v>
       </c>
       <c r="G47" t="n">
+        <v>117.3333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>118.8333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>3487</v>
       </c>
       <c r="G48" t="n">
+        <v>117.1333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>118.7666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1834.6413</v>
       </c>
       <c r="G49" t="n">
+        <v>117.0666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>118.7</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>3741.2271</v>
       </c>
       <c r="G50" t="n">
+        <v>117</v>
+      </c>
+      <c r="H50" t="n">
         <v>118.6333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>2557.7279</v>
       </c>
       <c r="G51" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>118.5666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>306.7918</v>
       </c>
       <c r="G52" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>118.5</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>9614.661</v>
       </c>
       <c r="G53" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>118.45</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>14300</v>
       </c>
       <c r="G54" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H54" t="n">
         <v>118.4</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1851.6168</v>
       </c>
       <c r="G55" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>118.3166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1009.0376</v>
       </c>
       <c r="G56" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H56" t="n">
         <v>118.25</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1677.0376</v>
       </c>
       <c r="G57" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>118.1666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>288.0277</v>
       </c>
       <c r="G58" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>118.0833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>4773</v>
       </c>
       <c r="G59" t="n">
-        <v>118</v>
+        <v>116.0666666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>3003</v>
       </c>
       <c r="G60" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>117.95</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>1100</v>
       </c>
       <c r="G61" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>117.9</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>621</v>
       </c>
       <c r="G62" t="n">
+        <v>116</v>
+      </c>
+      <c r="H62" t="n">
         <v>117.8333333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2720</v>
       </c>
       <c r="G63" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>117.7666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,25 @@
         <v>6509.0955</v>
       </c>
       <c r="G64" t="n">
+        <v>115.8666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>117.7</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>115</v>
+      </c>
+      <c r="L64" t="n">
+        <v>115</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2851,29 @@
         <v>9823</v>
       </c>
       <c r="G65" t="n">
+        <v>115.8666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>117.65</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>115</v>
+      </c>
+      <c r="L65" t="n">
+        <v>115</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2897,29 @@
         <v>23208.5848</v>
       </c>
       <c r="G66" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>117.6</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>116</v>
+      </c>
+      <c r="L66" t="n">
+        <v>115</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2943,21 @@
         <v>5397</v>
       </c>
       <c r="G67" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>117.55</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2981,21 @@
         <v>54978.8169</v>
       </c>
       <c r="G68" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H68" t="n">
         <v>117.4833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3019,21 @@
         <v>485.9859</v>
       </c>
       <c r="G69" t="n">
+        <v>115.7333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>117.4</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3057,21 @@
         <v>5000</v>
       </c>
       <c r="G70" t="n">
+        <v>115.7333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>117.35</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3095,21 @@
         <v>1956.5216</v>
       </c>
       <c r="G71" t="n">
+        <v>115.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>117.3</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3133,21 @@
         <v>301</v>
       </c>
       <c r="G72" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H72" t="n">
         <v>117.2666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3171,21 @@
         <v>2505</v>
       </c>
       <c r="G73" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H73" t="n">
         <v>117.2166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3209,21 @@
         <v>5698</v>
       </c>
       <c r="G74" t="n">
+        <v>115.8666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>117.1666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3247,21 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3285,21 @@
         <v>12315.2422</v>
       </c>
       <c r="G76" t="n">
+        <v>116</v>
+      </c>
+      <c r="H76" t="n">
         <v>117.0833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3323,21 @@
         <v>7919.0371</v>
       </c>
       <c r="G77" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>117.05</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3361,21 @@
         <v>11805</v>
       </c>
       <c r="G78" t="n">
-        <v>117</v>
+        <v>116.2666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3399,21 @@
         <v>12475.7139</v>
       </c>
       <c r="G79" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>116.95</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3437,21 @@
         <v>4865.7848</v>
       </c>
       <c r="G80" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>116.9166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3475,21 @@
         <v>674</v>
       </c>
       <c r="G81" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>116.8833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3513,21 @@
         <v>7855.7148</v>
       </c>
       <c r="G82" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>116.8166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3551,21 @@
         <v>8019</v>
       </c>
       <c r="G83" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>116.7666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3589,21 @@
         <v>8628.2322</v>
       </c>
       <c r="G84" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>116.7333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3627,21 @@
         <v>1838</v>
       </c>
       <c r="G85" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>116.7166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3665,21 @@
         <v>825.3034</v>
       </c>
       <c r="G86" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H86" t="n">
         <v>116.7</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3703,21 @@
         <v>7931</v>
       </c>
       <c r="G87" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>116.6666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3741,21 @@
         <v>152.0432</v>
       </c>
       <c r="G88" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>116.65</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3779,21 @@
         <v>3487.3581</v>
       </c>
       <c r="G89" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>116.65</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3817,21 @@
         <v>8472</v>
       </c>
       <c r="G90" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>116.6</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3855,21 @@
         <v>6595</v>
       </c>
       <c r="G91" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>116.5833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3893,21 @@
         <v>2244</v>
       </c>
       <c r="G92" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>116.5333333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3931,25 @@
         <v>1157</v>
       </c>
       <c r="G93" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>116.5</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>116</v>
+      </c>
+      <c r="L93" t="n">
+        <v>116</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3973,27 @@
         <v>1161</v>
       </c>
       <c r="G94" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H94" t="n">
         <v>116.5</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>116</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4017,27 @@
         <v>3722</v>
       </c>
       <c r="G95" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>116.4833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>116</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4061,21 @@
         <v>3000</v>
       </c>
       <c r="G96" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>116.45</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4099,21 @@
         <v>2941</v>
       </c>
       <c r="G97" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>116.4166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4137,21 @@
         <v>7500</v>
       </c>
       <c r="G98" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H98" t="n">
         <v>116.4166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4175,21 @@
         <v>530</v>
       </c>
       <c r="G99" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H99" t="n">
         <v>116.4</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4213,21 @@
         <v>16953.3616</v>
       </c>
       <c r="G100" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H100" t="n">
         <v>116.3833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4251,21 @@
         <v>1014</v>
       </c>
       <c r="G101" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>116.3666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4289,21 @@
         <v>945.5516</v>
       </c>
       <c r="G102" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>116.35</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4327,21 @@
         <v>1321.9999</v>
       </c>
       <c r="G103" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>116.35</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4365,21 @@
         <v>2888</v>
       </c>
       <c r="G104" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>116.3166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4403,21 @@
         <v>842</v>
       </c>
       <c r="G105" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>116.3166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4441,25 @@
         <v>644</v>
       </c>
       <c r="G106" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>116.3166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>116</v>
+      </c>
+      <c r="L106" t="n">
+        <v>116</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4483,29 @@
         <v>644</v>
       </c>
       <c r="G107" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>116.3166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>116</v>
+      </c>
+      <c r="L107" t="n">
+        <v>116</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4529,29 @@
         <v>21900</v>
       </c>
       <c r="G108" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>116</v>
+      </c>
+      <c r="L108" t="n">
+        <v>116</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4575,21 @@
         <v>6379</v>
       </c>
       <c r="G109" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H109" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4613,21 @@
         <v>5184</v>
       </c>
       <c r="G110" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H110" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4651,21 @@
         <v>1657</v>
       </c>
       <c r="G111" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>116.35</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4689,21 @@
         <v>1802</v>
       </c>
       <c r="G112" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>116.3666666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4727,21 @@
         <v>8762</v>
       </c>
       <c r="G113" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H113" t="n">
         <v>116.35</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4371,15 +4768,18 @@
         <v>116.3333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4803,25 @@
         <v>314</v>
       </c>
       <c r="G115" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>116</v>
+      </c>
+      <c r="L115" t="n">
+        <v>116</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4845,29 @@
         <v>16301.5436</v>
       </c>
       <c r="G116" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>116</v>
+      </c>
+      <c r="L116" t="n">
+        <v>116</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4891,27 @@
         <v>7202.7498</v>
       </c>
       <c r="G117" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H117" t="n">
         <v>116.3166666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>116</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4935,27 @@
         <v>863.6627</v>
       </c>
       <c r="G118" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>116.3166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>116</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4979,29 @@
         <v>4871</v>
       </c>
       <c r="G119" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>116</v>
+      </c>
+      <c r="L119" t="n">
+        <v>116</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5025,27 @@
         <v>5419</v>
       </c>
       <c r="G120" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H120" t="n">
         <v>116.35</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>116</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5069,27 @@
         <v>5000</v>
       </c>
       <c r="G121" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>116.3666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>116</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5113,29 @@
         <v>27300</v>
       </c>
       <c r="G122" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>116.4</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>117</v>
+      </c>
+      <c r="L122" t="n">
+        <v>116</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5159,27 @@
         <v>2398</v>
       </c>
       <c r="G123" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>116.4166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>116</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5203,29 @@
         <v>2041</v>
       </c>
       <c r="G124" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>116.4333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>116</v>
+      </c>
+      <c r="L124" t="n">
+        <v>116</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5249,29 @@
         <v>26</v>
       </c>
       <c r="G125" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>116.45</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>116</v>
+      </c>
+      <c r="L125" t="n">
+        <v>116</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5295,29 @@
         <v>9444.291800000001</v>
       </c>
       <c r="G126" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>116.45</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>117</v>
+      </c>
+      <c r="L126" t="n">
+        <v>116</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5341,27 @@
         <v>2095</v>
       </c>
       <c r="G127" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>116.45</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>116</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5385,29 @@
         <v>16905.9945</v>
       </c>
       <c r="G128" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>116.4666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>116</v>
+      </c>
+      <c r="L128" t="n">
+        <v>116</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5431,29 @@
         <v>3700.003</v>
       </c>
       <c r="G129" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>116.4833333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>116</v>
+      </c>
+      <c r="L129" t="n">
+        <v>116</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5477,29 @@
         <v>1096.9999</v>
       </c>
       <c r="G130" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H130" t="n">
         <v>116.5</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>117</v>
+      </c>
+      <c r="L130" t="n">
+        <v>116</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5523,27 @@
         <v>21664</v>
       </c>
       <c r="G131" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>116.5166666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>116</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5567,27 @@
         <v>7530</v>
       </c>
       <c r="G132" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="H132" t="n">
         <v>116.5166666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>116</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5611,27 @@
         <v>2760.6354</v>
       </c>
       <c r="G133" t="n">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>116.5333333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>116</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5655,27 @@
         <v>491.6354</v>
       </c>
       <c r="G134" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H134" t="n">
         <v>116.5666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>116</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5699,27 @@
         <v>3278</v>
       </c>
       <c r="G135" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>116.5833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>116</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5743,27 @@
         <v>1247</v>
       </c>
       <c r="G136" t="n">
+        <v>116.9333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>116.6</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>116</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5787,27 @@
         <v>2324</v>
       </c>
       <c r="G137" t="n">
+        <v>116.9333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>116.6</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>116</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5831,29 @@
         <v>1882.5681</v>
       </c>
       <c r="G138" t="n">
+        <v>117.0666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>116.6166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>117</v>
+      </c>
+      <c r="L138" t="n">
+        <v>116</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5877,29 @@
         <v>8054.5216</v>
       </c>
       <c r="G139" t="n">
+        <v>117.1333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>116.6</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>118</v>
+      </c>
+      <c r="L139" t="n">
+        <v>116</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5923,27 @@
         <v>13524.3875</v>
       </c>
       <c r="G140" t="n">
+        <v>117.1333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>116.6</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>116</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5967,29 @@
         <v>1810.0508</v>
       </c>
       <c r="G141" t="n">
+        <v>117.1333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>116.6</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>117</v>
+      </c>
+      <c r="L141" t="n">
+        <v>116</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6013,29 @@
         <v>3280.8156</v>
       </c>
       <c r="G142" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="H142" t="n">
         <v>116.6166666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>117</v>
+      </c>
+      <c r="L142" t="n">
+        <v>116</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6059,29 @@
         <v>2741.036</v>
       </c>
       <c r="G143" t="n">
+        <v>117.2666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>116.6333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>117</v>
+      </c>
+      <c r="L143" t="n">
+        <v>116</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6105,29 @@
         <v>2899</v>
       </c>
       <c r="G144" t="n">
+        <v>117.2666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>116.6333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>117</v>
+      </c>
+      <c r="L144" t="n">
+        <v>116</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6151,29 @@
         <v>1599</v>
       </c>
       <c r="G145" t="n">
+        <v>117.3333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>116.65</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>117</v>
+      </c>
+      <c r="L145" t="n">
+        <v>116</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6197,27 @@
         <v>499</v>
       </c>
       <c r="G146" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="H146" t="n">
         <v>116.6666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>116</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6241,27 @@
         <v>499</v>
       </c>
       <c r="G147" t="n">
+        <v>117.4666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>116.7</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>116</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6285,27 @@
         <v>499</v>
       </c>
       <c r="G148" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>116.7166666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>116</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6329,27 @@
         <v>583.471</v>
       </c>
       <c r="G149" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>116.7333333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>116</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6373,27 @@
         <v>1216.9999</v>
       </c>
       <c r="G150" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>116.7666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>116</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6417,27 @@
         <v>2092.2028</v>
       </c>
       <c r="G151" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>116.8</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>116</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6461,27 @@
         <v>495</v>
       </c>
       <c r="G152" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>116.8166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>116</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6505,27 @@
         <v>3749</v>
       </c>
       <c r="G153" t="n">
+        <v>117.4666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>116.8166666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>116</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6549,27 @@
         <v>786</v>
       </c>
       <c r="G154" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>116.8333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>116</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6593,27 @@
         <v>1285</v>
       </c>
       <c r="G155" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>116.85</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>116</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6637,27 @@
         <v>6096.0111</v>
       </c>
       <c r="G156" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>116.8666666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>116</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6681,27 @@
         <v>1996</v>
       </c>
       <c r="G157" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>116.8666666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>116</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6725,27 @@
         <v>2695</v>
       </c>
       <c r="G158" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>116.8666666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>116</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6769,27 @@
         <v>1299</v>
       </c>
       <c r="G159" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H159" t="n">
         <v>116.8833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>116</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6813,27 @@
         <v>920</v>
       </c>
       <c r="G160" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H160" t="n">
         <v>116.9</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>116</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6857,27 @@
         <v>17425.4944</v>
       </c>
       <c r="G161" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H161" t="n">
         <v>116.9333333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>116</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6901,27 @@
         <v>496</v>
       </c>
       <c r="G162" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H162" t="n">
         <v>116.9666666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>116</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6945,27 @@
         <v>4874</v>
       </c>
       <c r="G163" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H163" t="n">
         <v>116.9833333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>116</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6989,27 @@
         <v>3065</v>
       </c>
       <c r="G164" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H164" t="n">
         <v>117.0166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>116</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7033,27 @@
         <v>16653</v>
       </c>
       <c r="G165" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>117.0833333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>116</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7077,27 @@
         <v>4900</v>
       </c>
       <c r="G166" t="n">
+        <v>117.8666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>117.15</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>116</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7121,27 @@
         <v>16803</v>
       </c>
       <c r="G167" t="n">
+        <v>118.0666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>117.2166666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>116</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7165,27 @@
         <v>12075.0015</v>
       </c>
       <c r="G168" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H168" t="n">
         <v>117.25</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>116</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7209,27 @@
         <v>1171</v>
       </c>
       <c r="G169" t="n">
+        <v>118.2666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>117.3</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>116</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7253,27 @@
         <v>7644</v>
       </c>
       <c r="G170" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H170" t="n">
         <v>117.35</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>116</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7297,27 @@
         <v>2506</v>
       </c>
       <c r="G171" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>117.3666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>116</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7341,27 @@
         <v>4024</v>
       </c>
       <c r="G172" t="n">
+        <v>118.5333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>117.3833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>116</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7385,27 @@
         <v>11.3389</v>
       </c>
       <c r="G173" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="H173" t="n">
         <v>117.4166666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>116</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7429,27 @@
         <v>40349</v>
       </c>
       <c r="G174" t="n">
+        <v>118.5333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>117.4333333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>116</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7473,27 @@
         <v>9145.846100000001</v>
       </c>
       <c r="G175" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>117.45</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>116</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7517,27 @@
         <v>10.15</v>
       </c>
       <c r="G176" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>117.4833333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>116</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7561,27 @@
         <v>3228.7981</v>
       </c>
       <c r="G177" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H177" t="n">
         <v>117.5166666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>116</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,22 +7605,27 @@
         <v>3774.4605</v>
       </c>
       <c r="G178" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H178" t="n">
         <v>117.55</v>
       </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>117</v>
-      </c>
-      <c r="K178" t="n">
-        <v>117</v>
-      </c>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>116</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6647,26 +7649,27 @@
         <v>5613</v>
       </c>
       <c r="G179" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H179" t="n">
         <v>117.5833333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>118</v>
-      </c>
-      <c r="K179" t="n">
-        <v>117</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>116</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6690,24 +7693,27 @@
         <v>12551.3878</v>
       </c>
       <c r="G180" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>117.6166666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>117</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>116</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7737,27 @@
         <v>1855</v>
       </c>
       <c r="G181" t="n">
+        <v>118.2666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>117.65</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>116</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7781,27 @@
         <v>1425</v>
       </c>
       <c r="G182" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H182" t="n">
         <v>117.6833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>116</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7825,27 @@
         <v>1800</v>
       </c>
       <c r="G183" t="n">
+        <v>118.2666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>117.75</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>116</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7869,27 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>117.8166666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>116</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7913,27 @@
         <v>6359</v>
       </c>
       <c r="G185" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H185" t="n">
         <v>117.8666666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>116</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7957,27 @@
         <v>9458.1212</v>
       </c>
       <c r="G186" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>117.9</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>116</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +8001,27 @@
         <v>550</v>
       </c>
       <c r="G187" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="H187" t="n">
         <v>117.9666666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>116</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +8045,27 @@
         <v>1505.7058</v>
       </c>
       <c r="G188" t="n">
-        <v>118</v>
+        <v>118.6</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>116</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +8089,27 @@
         <v>472</v>
       </c>
       <c r="G189" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>118.0166666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>116</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +8133,27 @@
         <v>527</v>
       </c>
       <c r="G190" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>118.0333333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>116</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,22 +8177,27 @@
         <v>308.713</v>
       </c>
       <c r="G191" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="H191" t="n">
         <v>118.0666666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>118</v>
-      </c>
-      <c r="K191" t="n">
-        <v>118</v>
-      </c>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>116</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7120,24 +8221,27 @@
         <v>737.4609</v>
       </c>
       <c r="G192" t="n">
+        <v>119.0666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>118.1333333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>118</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>116</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7161,24 +8265,27 @@
         <v>293.3855</v>
       </c>
       <c r="G193" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="H193" t="n">
         <v>118.1833333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>118</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>116</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7202,18 +8309,27 @@
         <v>5388</v>
       </c>
       <c r="G194" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>118.2</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>116</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7237,18 +8353,27 @@
         <v>555</v>
       </c>
       <c r="G195" t="n">
+        <v>119.3333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>118.2333333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>116</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7272,19 +8397,28 @@
         <v>144.841</v>
       </c>
       <c r="G196" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="H196" t="n">
         <v>118.2666666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
+      <c r="L196" t="n">
+        <v>116</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1.02948275862069</v>
       </c>
     </row>
     <row r="197">
@@ -7307,18 +8441,21 @@
         <v>589</v>
       </c>
       <c r="G197" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="H197" t="n">
         <v>118.3</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,18 +8479,21 @@
         <v>307.5398</v>
       </c>
       <c r="G198" t="n">
+        <v>119.3333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>118.3166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,18 +8517,21 @@
         <v>102.4602</v>
       </c>
       <c r="G199" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>118.35</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7412,18 +8555,21 @@
         <v>646</v>
       </c>
       <c r="G200" t="n">
+        <v>119.1333333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>118.3666666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,18 +8593,21 @@
         <v>4235</v>
       </c>
       <c r="G201" t="n">
+        <v>119</v>
+      </c>
+      <c r="H201" t="n">
         <v>118.3666666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,18 +8631,21 @@
         <v>2244</v>
       </c>
       <c r="G202" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="H202" t="n">
         <v>118.3666666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7517,18 +8669,21 @@
         <v>10683</v>
       </c>
       <c r="G203" t="n">
+        <v>118.8666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>118.4</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7552,18 +8707,21 @@
         <v>1570.4661</v>
       </c>
       <c r="G204" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>118.4333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7587,18 +8745,21 @@
         <v>1246</v>
       </c>
       <c r="G205" t="n">
+        <v>119</v>
+      </c>
+      <c r="H205" t="n">
         <v>118.45</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7622,18 +8783,21 @@
         <v>999</v>
       </c>
       <c r="G206" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>118.45</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7657,18 +8821,21 @@
         <v>3660</v>
       </c>
       <c r="G207" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>118.4333333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7692,18 +8859,21 @@
         <v>1009</v>
       </c>
       <c r="G208" t="n">
+        <v>118.5333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>118.4333333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7727,18 +8897,429 @@
         <v>657</v>
       </c>
       <c r="G209" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>118.4333333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>117</v>
+      </c>
+      <c r="C210" t="n">
+        <v>117</v>
+      </c>
+      <c r="D210" t="n">
+        <v>117</v>
+      </c>
+      <c r="E210" t="n">
+        <v>117</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2485</v>
+      </c>
+      <c r="G210" t="n">
+        <v>118.2666666666667</v>
+      </c>
+      <c r="H210" t="n">
+        <v>118.4166666666667</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>117</v>
+      </c>
+      <c r="C211" t="n">
+        <v>117</v>
+      </c>
+      <c r="D211" t="n">
+        <v>117</v>
+      </c>
+      <c r="E211" t="n">
+        <v>117</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2.8868</v>
+      </c>
+      <c r="G211" t="n">
+        <v>118.0666666666667</v>
+      </c>
+      <c r="H211" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>117</v>
+      </c>
+      <c r="C212" t="n">
+        <v>117</v>
+      </c>
+      <c r="D212" t="n">
+        <v>117</v>
+      </c>
+      <c r="E212" t="n">
+        <v>117</v>
+      </c>
+      <c r="F212" t="n">
+        <v>10539.4298</v>
+      </c>
+      <c r="G212" t="n">
+        <v>117.9333333333333</v>
+      </c>
+      <c r="H212" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>117</v>
+      </c>
+      <c r="C213" t="n">
+        <v>117</v>
+      </c>
+      <c r="D213" t="n">
+        <v>117</v>
+      </c>
+      <c r="E213" t="n">
+        <v>117</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3913.8257</v>
+      </c>
+      <c r="G213" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H213" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>117</v>
+      </c>
+      <c r="C214" t="n">
+        <v>117</v>
+      </c>
+      <c r="D214" t="n">
+        <v>118</v>
+      </c>
+      <c r="E214" t="n">
+        <v>117</v>
+      </c>
+      <c r="F214" t="n">
+        <v>6597.9999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>117.6666666666667</v>
+      </c>
+      <c r="H214" t="n">
+        <v>118.3833333333333</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>117</v>
+      </c>
+      <c r="C215" t="n">
+        <v>117</v>
+      </c>
+      <c r="D215" t="n">
+        <v>117</v>
+      </c>
+      <c r="E215" t="n">
+        <v>117</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6297.8257</v>
+      </c>
+      <c r="G215" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H215" t="n">
+        <v>118.3833333333333</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>117</v>
+      </c>
+      <c r="L215" t="n">
+        <v>117</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>117</v>
+      </c>
+      <c r="C216" t="n">
+        <v>117</v>
+      </c>
+      <c r="D216" t="n">
+        <v>117</v>
+      </c>
+      <c r="E216" t="n">
+        <v>117</v>
+      </c>
+      <c r="F216" t="n">
+        <v>119.8461</v>
+      </c>
+      <c r="G216" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H216" t="n">
+        <v>118.3833333333333</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>117</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>117</v>
+      </c>
+      <c r="C217" t="n">
+        <v>118</v>
+      </c>
+      <c r="D217" t="n">
+        <v>118</v>
+      </c>
+      <c r="E217" t="n">
+        <v>117</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3212.9999</v>
+      </c>
+      <c r="G217" t="n">
+        <v>117.6666666666667</v>
+      </c>
+      <c r="H217" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>117</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>117</v>
+      </c>
+      <c r="C218" t="n">
+        <v>117</v>
+      </c>
+      <c r="D218" t="n">
+        <v>117</v>
+      </c>
+      <c r="E218" t="n">
+        <v>117</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3239.9998</v>
+      </c>
+      <c r="G218" t="n">
+        <v>117.5333333333333</v>
+      </c>
+      <c r="H218" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>117</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>117</v>
+      </c>
+      <c r="C219" t="n">
+        <v>117</v>
+      </c>
+      <c r="D219" t="n">
+        <v>117</v>
+      </c>
+      <c r="E219" t="n">
+        <v>117</v>
+      </c>
+      <c r="F219" t="n">
+        <v>974</v>
+      </c>
+      <c r="G219" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="H219" t="n">
+        <v>118.3833333333333</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>117</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M248"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="n">
-        <v>5790.2484</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>35165.43122305715</v>
+        <v>119.35</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,16 +486,16 @@
         <v>120</v>
       </c>
       <c r="F3" t="n">
-        <v>3700</v>
+        <v>8025.6609</v>
       </c>
       <c r="G3" t="n">
-        <v>35165.43122305715</v>
+        <v>119.35</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="n">
-        <v>2630.7833</v>
+        <v>5205</v>
       </c>
       <c r="G4" t="n">
-        <v>35165.43122305715</v>
+        <v>119.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F5" t="n">
-        <v>12797.3901</v>
+        <v>8306</v>
       </c>
       <c r="G5" t="n">
-        <v>47962.82132305716</v>
+        <v>119.25</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,16 +594,16 @@
         <v>121</v>
       </c>
       <c r="F6" t="n">
-        <v>9900.641600000001</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>47962.82132305716</v>
+        <v>119.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" t="n">
-        <v>434.1052</v>
+        <v>7279</v>
       </c>
       <c r="G7" t="n">
-        <v>47962.82132305716</v>
+        <v>119.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" t="n">
-        <v>56.2392</v>
+        <v>1516</v>
       </c>
       <c r="G8" t="n">
-        <v>47962.82132305716</v>
+        <v>119.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F9" t="n">
-        <v>9200</v>
+        <v>7069.7403</v>
       </c>
       <c r="G9" t="n">
-        <v>57162.82132305716</v>
+        <v>119.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" t="n">
-        <v>80.9091</v>
+        <v>1645.22</v>
       </c>
       <c r="G10" t="n">
-        <v>57081.91222305716</v>
+        <v>119.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D11" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F11" t="n">
-        <v>10217.5997</v>
+        <v>1.0084</v>
       </c>
       <c r="G11" t="n">
-        <v>67299.51192305716</v>
+        <v>119.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E12" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F12" t="n">
-        <v>8269.441199999999</v>
+        <v>5818</v>
       </c>
       <c r="G12" t="n">
-        <v>67299.51192305716</v>
+        <v>119.25</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C13" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D13" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E13" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F13" t="n">
-        <v>25386.4262</v>
+        <v>498</v>
       </c>
       <c r="G13" t="n">
-        <v>67299.51192305716</v>
+        <v>119.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E14" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" t="n">
-        <v>331.837</v>
+        <v>3992</v>
       </c>
       <c r="G14" t="n">
-        <v>66967.67492305716</v>
+        <v>119.15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C15" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D15" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E15" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F15" t="n">
-        <v>2.795</v>
+        <v>10549.1423</v>
       </c>
       <c r="G15" t="n">
-        <v>66970.46992305716</v>
+        <v>119.05</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D16" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E16" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F16" t="n">
-        <v>8029.8488</v>
+        <v>502</v>
       </c>
       <c r="G16" t="n">
-        <v>58940.62112305716</v>
+        <v>118.95</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" t="n">
-        <v>25322.9602</v>
+        <v>3447.2455</v>
       </c>
       <c r="G17" t="n">
-        <v>33617.66092305716</v>
+        <v>118.95</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C18" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F18" t="n">
-        <v>15610.6509</v>
+        <v>4309</v>
       </c>
       <c r="G18" t="n">
-        <v>33617.66092305716</v>
+        <v>118.85</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" t="n">
-        <v>9890.384099999999</v>
+        <v>599.3935</v>
       </c>
       <c r="G19" t="n">
-        <v>33617.66092305716</v>
+        <v>118.85</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" t="n">
-        <v>965.9058</v>
+        <v>23680.4873</v>
       </c>
       <c r="G20" t="n">
-        <v>33617.66092305716</v>
+        <v>118.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D21" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F21" t="n">
-        <v>2978</v>
+        <v>4807</v>
       </c>
       <c r="G21" t="n">
-        <v>33617.66092305716</v>
+        <v>118.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F22" t="n">
-        <v>8870.570100000001</v>
+        <v>23621.286</v>
       </c>
       <c r="G22" t="n">
-        <v>33617.66092305716</v>
+        <v>118.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C23" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" t="n">
-        <v>6850</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="n">
-        <v>33617.66092305716</v>
+        <v>118.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E24" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F24" t="n">
-        <v>9700.761</v>
+        <v>7426</v>
       </c>
       <c r="G24" t="n">
-        <v>43318.42192305715</v>
+        <v>118.45</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C25" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E25" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F25" t="n">
-        <v>331.236</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>42987.18592305716</v>
+        <v>118.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C26" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D26" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E26" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F26" t="n">
-        <v>1200</v>
+        <v>3007.9872</v>
       </c>
       <c r="G26" t="n">
-        <v>44187.18592305716</v>
+        <v>118.15</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C27" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E27" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F27" t="n">
-        <v>600</v>
+        <v>14555.6403</v>
       </c>
       <c r="G27" t="n">
-        <v>44187.18592305716</v>
+        <v>118.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C28" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E28" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F28" t="n">
-        <v>118.5083</v>
+        <v>8745.234899999999</v>
       </c>
       <c r="G28" t="n">
-        <v>44068.67762305716</v>
+        <v>118</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" t="n">
-        <v>680</v>
+        <v>470.4266</v>
       </c>
       <c r="G29" t="n">
-        <v>43388.67762305716</v>
+        <v>117.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C30" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E30" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30" t="n">
-        <v>8042</v>
+        <v>280.9258</v>
       </c>
       <c r="G30" t="n">
-        <v>43388.67762305716</v>
+        <v>117.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" t="n">
-        <v>1950</v>
+        <v>168</v>
       </c>
       <c r="G31" t="n">
-        <v>43388.67762305716</v>
+        <v>117.75</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D32" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E32" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F32" t="n">
-        <v>1932</v>
+        <v>2891</v>
       </c>
       <c r="G32" t="n">
-        <v>43388.67762305716</v>
+        <v>117.65</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E33" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F33" t="n">
-        <v>1949</v>
+        <v>1592</v>
       </c>
       <c r="G33" t="n">
-        <v>43388.67762305716</v>
+        <v>117.55</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E34" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34" t="n">
-        <v>9782.753699999999</v>
+        <v>1503</v>
       </c>
       <c r="G34" t="n">
-        <v>43388.67762305716</v>
+        <v>117.45</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D35" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E35" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F35" t="n">
-        <v>4148.0908</v>
+        <v>3487</v>
       </c>
       <c r="G35" t="n">
-        <v>47536.76842305715</v>
+        <v>117.35</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D36" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E36" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F36" t="n">
-        <v>2840</v>
+        <v>1834.6413</v>
       </c>
       <c r="G36" t="n">
-        <v>44696.76842305715</v>
+        <v>117.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C37" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E37" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F37" t="n">
-        <v>10400.6609</v>
+        <v>3741.2271</v>
       </c>
       <c r="G37" t="n">
-        <v>44696.76842305715</v>
+        <v>117.15</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D38" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E38" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F38" t="n">
-        <v>3045</v>
+        <v>2557.7279</v>
       </c>
       <c r="G38" t="n">
-        <v>47741.76842305715</v>
+        <v>117.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C39" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E39" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F39" t="n">
-        <v>3703</v>
+        <v>306.7918</v>
       </c>
       <c r="G39" t="n">
-        <v>44038.76842305715</v>
+        <v>116.95</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C40" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E40" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F40" t="n">
-        <v>5080.5126</v>
+        <v>9614.661</v>
       </c>
       <c r="G40" t="n">
-        <v>44038.76842305715</v>
+        <v>116.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E41" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" t="n">
-        <v>6797</v>
+        <v>14300</v>
       </c>
       <c r="G41" t="n">
-        <v>44038.76842305715</v>
+        <v>116.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C42" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D42" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E42" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F42" t="n">
-        <v>10541.9998</v>
+        <v>1851.6168</v>
       </c>
       <c r="G42" t="n">
-        <v>44038.76842305715</v>
+        <v>116.75</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F43" t="n">
-        <v>26235.8442</v>
+        <v>1009.0376</v>
       </c>
       <c r="G43" t="n">
-        <v>44038.76842305715</v>
+        <v>116.65</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D44" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E44" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>1677.0376</v>
       </c>
       <c r="G44" t="n">
-        <v>44038.76842305715</v>
+        <v>116.55</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C45" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D45" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E45" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F45" t="n">
-        <v>8025.6609</v>
+        <v>288.0277</v>
       </c>
       <c r="G45" t="n">
-        <v>52064.42932305716</v>
+        <v>116.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C46" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D46" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E46" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F46" t="n">
-        <v>5205</v>
+        <v>4773</v>
       </c>
       <c r="G46" t="n">
-        <v>46859.42932305716</v>
+        <v>116.35</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C47" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D47" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E47" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F47" t="n">
-        <v>8306</v>
+        <v>3003</v>
       </c>
       <c r="G47" t="n">
-        <v>55165.42932305716</v>
+        <v>116.25</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C48" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D48" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E48" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="G48" t="n">
-        <v>55166.42932305716</v>
+        <v>116.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C49" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D49" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E49" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F49" t="n">
-        <v>7279</v>
+        <v>621</v>
       </c>
       <c r="G49" t="n">
-        <v>47887.42932305716</v>
+        <v>116.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D50" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E50" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F50" t="n">
-        <v>1516</v>
+        <v>2720</v>
       </c>
       <c r="G50" t="n">
-        <v>47887.42932305716</v>
+        <v>116</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C51" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D51" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E51" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F51" t="n">
-        <v>7069.7403</v>
+        <v>6509.0955</v>
       </c>
       <c r="G51" t="n">
-        <v>54957.16962305715</v>
+        <v>115.85</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C52" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E52" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F52" t="n">
-        <v>1645.22</v>
+        <v>9823</v>
       </c>
       <c r="G52" t="n">
-        <v>53311.94962305715</v>
+        <v>115.85</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D53" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E53" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0084</v>
+        <v>23208.5848</v>
       </c>
       <c r="G53" t="n">
-        <v>53311.94962305715</v>
+        <v>115.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" t="n">
-        <v>5818</v>
+        <v>5397</v>
       </c>
       <c r="G54" t="n">
-        <v>47493.94962305715</v>
+        <v>115.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D55" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F55" t="n">
-        <v>498</v>
+        <v>54978.8169</v>
       </c>
       <c r="G55" t="n">
-        <v>47493.94962305715</v>
+        <v>115.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C56" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F56" t="n">
-        <v>3992</v>
+        <v>485.9859</v>
       </c>
       <c r="G56" t="n">
-        <v>47493.94962305715</v>
+        <v>115.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D57" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F57" t="n">
-        <v>10549.1423</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="n">
-        <v>47493.94962305715</v>
+        <v>115.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E58" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" t="n">
-        <v>502</v>
+        <v>1956.5216</v>
       </c>
       <c r="G58" t="n">
-        <v>46991.94962305715</v>
+        <v>115.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D59" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E59" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F59" t="n">
-        <v>3447.2455</v>
+        <v>301</v>
       </c>
       <c r="G59" t="n">
-        <v>50439.19512305715</v>
+        <v>115.95</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2466,19 +2529,19 @@
         <v>117</v>
       </c>
       <c r="C60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D60" t="n">
         <v>117</v>
       </c>
       <c r="E60" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" t="n">
-        <v>4309</v>
+        <v>2505</v>
       </c>
       <c r="G60" t="n">
-        <v>46130.19512305715</v>
+        <v>116</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C61" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D61" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E61" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="n">
-        <v>599.3935</v>
+        <v>5698</v>
       </c>
       <c r="G61" t="n">
-        <v>46729.58862305715</v>
+        <v>115.95</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D62" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E62" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="n">
-        <v>23680.4873</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>46729.58862305715</v>
+        <v>116</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2577,13 +2643,13 @@
         <v>117</v>
       </c>
       <c r="E63" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F63" t="n">
-        <v>4807</v>
+        <v>12315.2422</v>
       </c>
       <c r="G63" t="n">
-        <v>41922.58862305715</v>
+        <v>116.05</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2615,10 +2682,10 @@
         <v>117</v>
       </c>
       <c r="F64" t="n">
-        <v>23621.286</v>
+        <v>7919.0371</v>
       </c>
       <c r="G64" t="n">
-        <v>41922.58862305715</v>
+        <v>116.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>11805</v>
       </c>
       <c r="G65" t="n">
-        <v>46922.58862305715</v>
+        <v>116.15</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D66" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E66" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F66" t="n">
-        <v>7426</v>
+        <v>12475.7139</v>
       </c>
       <c r="G66" t="n">
-        <v>54348.58862305715</v>
+        <v>116.25</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,13 +2771,14 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" t="n">
         <v>117</v>
@@ -2717,13 +2787,13 @@
         <v>117</v>
       </c>
       <c r="E67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" t="n">
-        <v>99.84999999999999</v>
+        <v>4865.7848</v>
       </c>
       <c r="G67" t="n">
-        <v>54248.73862305715</v>
+        <v>116.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F68" t="n">
-        <v>3007.9872</v>
+        <v>674</v>
       </c>
       <c r="G68" t="n">
-        <v>57256.72582305715</v>
+        <v>116.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C69" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D69" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E69" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F69" t="n">
-        <v>14555.6403</v>
+        <v>7855.7148</v>
       </c>
       <c r="G69" t="n">
-        <v>57256.72582305715</v>
+        <v>116.35</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F70" t="n">
-        <v>8745.234899999999</v>
+        <v>8019</v>
       </c>
       <c r="G70" t="n">
-        <v>48511.49092305715</v>
+        <v>116.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2860,10 +2934,10 @@
         <v>117</v>
       </c>
       <c r="F71" t="n">
-        <v>470.4266</v>
+        <v>8628.2322</v>
       </c>
       <c r="G71" t="n">
-        <v>48511.49092305715</v>
+        <v>116.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,13 +2951,14 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" t="n">
         <v>117</v>
@@ -2892,13 +2967,13 @@
         <v>117</v>
       </c>
       <c r="E72" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F72" t="n">
-        <v>280.9258</v>
+        <v>1838</v>
       </c>
       <c r="G72" t="n">
-        <v>48511.49092305715</v>
+        <v>116.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C73" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D73" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E73" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F73" t="n">
-        <v>168</v>
+        <v>825.3034</v>
       </c>
       <c r="G73" t="n">
-        <v>48679.49092305715</v>
+        <v>116.45</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2965,10 +3042,10 @@
         <v>116</v>
       </c>
       <c r="F74" t="n">
-        <v>2891</v>
+        <v>7931</v>
       </c>
       <c r="G74" t="n">
-        <v>45788.49092305715</v>
+        <v>116.45</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2991,19 +3069,19 @@
         <v>116</v>
       </c>
       <c r="C75" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D75" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E75" t="n">
         <v>116</v>
       </c>
       <c r="F75" t="n">
-        <v>1592</v>
+        <v>152.0432</v>
       </c>
       <c r="G75" t="n">
-        <v>45788.49092305715</v>
+        <v>116.45</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3026,19 +3105,19 @@
         <v>116</v>
       </c>
       <c r="C76" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D76" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" t="n">
         <v>116</v>
       </c>
       <c r="F76" t="n">
-        <v>1503</v>
+        <v>3487.3581</v>
       </c>
       <c r="G76" t="n">
-        <v>45788.49092305715</v>
+        <v>116.45</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3070,10 +3150,10 @@
         <v>116</v>
       </c>
       <c r="F77" t="n">
-        <v>3487</v>
+        <v>8472</v>
       </c>
       <c r="G77" t="n">
-        <v>45788.49092305715</v>
+        <v>116.45</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3105,10 +3186,10 @@
         <v>116</v>
       </c>
       <c r="F78" t="n">
-        <v>1834.6413</v>
+        <v>6595</v>
       </c>
       <c r="G78" t="n">
-        <v>45788.49092305715</v>
+        <v>116.45</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3140,10 +3222,10 @@
         <v>116</v>
       </c>
       <c r="F79" t="n">
-        <v>3741.2271</v>
+        <v>2244</v>
       </c>
       <c r="G79" t="n">
-        <v>45788.49092305715</v>
+        <v>116.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C80" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D80" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F80" t="n">
-        <v>2557.7279</v>
+        <v>1157</v>
       </c>
       <c r="G80" t="n">
-        <v>45788.49092305715</v>
+        <v>116.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C81" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D81" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E81" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F81" t="n">
-        <v>306.7918</v>
+        <v>1161</v>
       </c>
       <c r="G81" t="n">
-        <v>45788.49092305715</v>
+        <v>116.45</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3236,19 +3321,19 @@
         <v>116</v>
       </c>
       <c r="C82" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E82" t="n">
         <v>116</v>
       </c>
       <c r="F82" t="n">
-        <v>9614.661</v>
+        <v>3722</v>
       </c>
       <c r="G82" t="n">
-        <v>55403.15192305715</v>
+        <v>116.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F83" t="n">
-        <v>14300</v>
+        <v>3000</v>
       </c>
       <c r="G83" t="n">
-        <v>55403.15192305715</v>
+        <v>116.35</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3306,19 +3393,19 @@
         <v>116</v>
       </c>
       <c r="C84" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D84" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" t="n">
         <v>116</v>
       </c>
       <c r="F84" t="n">
-        <v>1851.6168</v>
+        <v>2941</v>
       </c>
       <c r="G84" t="n">
-        <v>53551.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D85" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F85" t="n">
-        <v>1009.0376</v>
+        <v>7500</v>
       </c>
       <c r="G85" t="n">
-        <v>53551.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D86" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F86" t="n">
-        <v>1677.0376</v>
+        <v>530</v>
       </c>
       <c r="G86" t="n">
-        <v>53551.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D87" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F87" t="n">
-        <v>288.0277</v>
+        <v>16953.3616</v>
       </c>
       <c r="G87" t="n">
-        <v>53551.53512305715</v>
+        <v>116.35</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E88" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F88" t="n">
-        <v>4773</v>
+        <v>1014</v>
       </c>
       <c r="G88" t="n">
-        <v>48778.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3490,10 +3582,10 @@
         <v>116</v>
       </c>
       <c r="F89" t="n">
-        <v>3003</v>
+        <v>945.5516</v>
       </c>
       <c r="G89" t="n">
-        <v>51781.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F90" t="n">
-        <v>1100</v>
+        <v>1321.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>51781.53512305715</v>
+        <v>116.35</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C91" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D91" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E91" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F91" t="n">
-        <v>621</v>
+        <v>2888</v>
       </c>
       <c r="G91" t="n">
-        <v>51160.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D92" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E92" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F92" t="n">
-        <v>2720</v>
+        <v>842</v>
       </c>
       <c r="G92" t="n">
-        <v>51160.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C93" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D93" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F93" t="n">
-        <v>6509.0955</v>
+        <v>644</v>
       </c>
       <c r="G93" t="n">
-        <v>51160.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3665,10 +3762,10 @@
         <v>116</v>
       </c>
       <c r="F94" t="n">
-        <v>9823</v>
+        <v>644</v>
       </c>
       <c r="G94" t="n">
-        <v>60983.53512305715</v>
+        <v>116.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3700,10 +3798,10 @@
         <v>117</v>
       </c>
       <c r="F95" t="n">
-        <v>23208.5848</v>
+        <v>21900</v>
       </c>
       <c r="G95" t="n">
-        <v>84192.11992305715</v>
+        <v>116.35</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3735,10 +3834,10 @@
         <v>116</v>
       </c>
       <c r="F96" t="n">
-        <v>5397</v>
+        <v>6379</v>
       </c>
       <c r="G96" t="n">
-        <v>78795.11992305715</v>
+        <v>116.35</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3761,19 +3861,19 @@
         <v>116</v>
       </c>
       <c r="C97" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D97" t="n">
         <v>116</v>
       </c>
       <c r="E97" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F97" t="n">
-        <v>54978.8169</v>
+        <v>5184</v>
       </c>
       <c r="G97" t="n">
-        <v>23816.30302305715</v>
+        <v>116.35</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C98" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D98" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E98" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F98" t="n">
-        <v>485.9859</v>
+        <v>1657</v>
       </c>
       <c r="G98" t="n">
-        <v>24302.28892305715</v>
+        <v>116.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C99" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D99" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E99" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F99" t="n">
-        <v>5000</v>
+        <v>1802</v>
       </c>
       <c r="G99" t="n">
-        <v>24302.28892305715</v>
+        <v>116.45</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3875,10 +3978,10 @@
         <v>116</v>
       </c>
       <c r="F100" t="n">
-        <v>1956.5216</v>
+        <v>8762</v>
       </c>
       <c r="G100" t="n">
-        <v>24302.28892305715</v>
+        <v>116.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C101" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D101" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E101" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F101" t="n">
-        <v>301</v>
+        <v>13016</v>
       </c>
       <c r="G101" t="n">
-        <v>24603.28892305715</v>
+        <v>116.35</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" t="n">
         <v>116</v>
       </c>
       <c r="D102" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" t="n">
         <v>116</v>
       </c>
       <c r="F102" t="n">
-        <v>2505</v>
+        <v>314</v>
       </c>
       <c r="G102" t="n">
-        <v>22098.28892305715</v>
+        <v>116.35</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3974,16 +4080,16 @@
         <v>116</v>
       </c>
       <c r="D103" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E103" t="n">
         <v>116</v>
       </c>
       <c r="F103" t="n">
-        <v>5698</v>
+        <v>16301.5436</v>
       </c>
       <c r="G103" t="n">
-        <v>22098.28892305715</v>
+        <v>116.35</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C104" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D104" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E104" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>7202.7498</v>
       </c>
       <c r="G104" t="n">
-        <v>22099.28892305715</v>
+        <v>116.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C105" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D105" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E105" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F105" t="n">
-        <v>12315.2422</v>
+        <v>863.6627</v>
       </c>
       <c r="G105" t="n">
-        <v>22099.28892305715</v>
+        <v>116.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C106" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D106" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E106" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F106" t="n">
-        <v>7919.0371</v>
+        <v>4871</v>
       </c>
       <c r="G106" t="n">
-        <v>22099.28892305715</v>
+        <v>116.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,13 +4211,14 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" t="n">
         <v>117</v>
@@ -4117,13 +4227,13 @@
         <v>117</v>
       </c>
       <c r="E107" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F107" t="n">
-        <v>11805</v>
+        <v>5419</v>
       </c>
       <c r="G107" t="n">
-        <v>22099.28892305715</v>
+        <v>116.05</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,6 +4247,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4146,19 +4257,19 @@
         <v>117</v>
       </c>
       <c r="C108" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E108" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F108" t="n">
-        <v>12475.7139</v>
+        <v>5000</v>
       </c>
       <c r="G108" t="n">
-        <v>34575.00282305716</v>
+        <v>116.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4190,10 +4302,10 @@
         <v>116</v>
       </c>
       <c r="F109" t="n">
-        <v>4865.7848</v>
+        <v>27300</v>
       </c>
       <c r="G109" t="n">
-        <v>29709.21802305715</v>
+        <v>116.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E110" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F110" t="n">
-        <v>674</v>
+        <v>2398</v>
       </c>
       <c r="G110" t="n">
-        <v>29709.21802305715</v>
+        <v>116.05</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4254,16 +4368,16 @@
         <v>116</v>
       </c>
       <c r="D111" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E111" t="n">
         <v>116</v>
       </c>
       <c r="F111" t="n">
-        <v>7855.7148</v>
+        <v>2041</v>
       </c>
       <c r="G111" t="n">
-        <v>21853.50322305715</v>
+        <v>116.05</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D112" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E112" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F112" t="n">
-        <v>8019</v>
+        <v>26</v>
       </c>
       <c r="G112" t="n">
-        <v>21853.50322305715</v>
+        <v>116.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4330,10 +4446,10 @@
         <v>117</v>
       </c>
       <c r="F113" t="n">
-        <v>8628.2322</v>
+        <v>9444.291800000001</v>
       </c>
       <c r="G113" t="n">
-        <v>30481.73542305715</v>
+        <v>116.15</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4356,19 +4473,19 @@
         <v>116</v>
       </c>
       <c r="C114" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D114" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E114" t="n">
         <v>116</v>
       </c>
       <c r="F114" t="n">
-        <v>1838</v>
+        <v>2095</v>
       </c>
       <c r="G114" t="n">
-        <v>30481.73542305715</v>
+        <v>116.15</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,6 +4499,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4391,19 +4509,19 @@
         <v>116</v>
       </c>
       <c r="C115" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D115" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E115" t="n">
         <v>116</v>
       </c>
       <c r="F115" t="n">
-        <v>825.3034</v>
+        <v>16905.9945</v>
       </c>
       <c r="G115" t="n">
-        <v>30481.73542305715</v>
+        <v>116.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E116" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F116" t="n">
-        <v>7931</v>
+        <v>3700.003</v>
       </c>
       <c r="G116" t="n">
-        <v>22550.73542305715</v>
+        <v>116.15</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,13 +4571,14 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" t="n">
         <v>117</v>
@@ -4467,13 +4587,13 @@
         <v>117</v>
       </c>
       <c r="E117" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F117" t="n">
-        <v>152.0432</v>
+        <v>1096.9999</v>
       </c>
       <c r="G117" t="n">
-        <v>22702.77862305715</v>
+        <v>116.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C118" t="n">
         <v>117</v>
       </c>
       <c r="D118" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E118" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F118" t="n">
-        <v>3487.3581</v>
+        <v>21664</v>
       </c>
       <c r="G118" t="n">
-        <v>22702.77862305715</v>
+        <v>116.25</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D119" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E119" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F119" t="n">
-        <v>8472</v>
+        <v>7530</v>
       </c>
       <c r="G119" t="n">
-        <v>14230.77862305715</v>
+        <v>116.25</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C120" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D120" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E120" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F120" t="n">
-        <v>6595</v>
+        <v>2760.6354</v>
       </c>
       <c r="G120" t="n">
-        <v>14230.77862305715</v>
+        <v>116.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F121" t="n">
-        <v>2244</v>
+        <v>491.6354</v>
       </c>
       <c r="G121" t="n">
-        <v>14230.77862305715</v>
+        <v>116.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C122" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D122" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E122" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F122" t="n">
-        <v>1157</v>
+        <v>3278</v>
       </c>
       <c r="G122" t="n">
-        <v>15387.77862305715</v>
+        <v>116.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C123" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D123" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E123" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F123" t="n">
-        <v>1161</v>
+        <v>1247</v>
       </c>
       <c r="G123" t="n">
-        <v>15387.77862305715</v>
+        <v>116.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C124" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D124" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E124" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F124" t="n">
-        <v>3722</v>
+        <v>2324</v>
       </c>
       <c r="G124" t="n">
-        <v>11665.77862305715</v>
+        <v>116.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C125" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D125" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E125" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F125" t="n">
-        <v>3000</v>
+        <v>1882.5681</v>
       </c>
       <c r="G125" t="n">
-        <v>11665.77862305715</v>
+        <v>116.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C126" t="n">
         <v>117</v>
       </c>
       <c r="D126" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E126" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F126" t="n">
-        <v>2941</v>
+        <v>8054.5216</v>
       </c>
       <c r="G126" t="n">
-        <v>14606.77862305715</v>
+        <v>116.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,6 +4931,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4814,16 +4944,16 @@
         <v>117</v>
       </c>
       <c r="D127" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E127" t="n">
         <v>117</v>
       </c>
       <c r="F127" t="n">
-        <v>7500</v>
+        <v>13524.3875</v>
       </c>
       <c r="G127" t="n">
-        <v>14606.77862305715</v>
+        <v>116.95</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,6 +4967,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4855,10 +4986,10 @@
         <v>117</v>
       </c>
       <c r="F128" t="n">
-        <v>530</v>
+        <v>1810.0508</v>
       </c>
       <c r="G128" t="n">
-        <v>14606.77862305715</v>
+        <v>116.95</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,6 +5003,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4890,10 +5022,10 @@
         <v>117</v>
       </c>
       <c r="F129" t="n">
-        <v>16953.3616</v>
+        <v>3280.8156</v>
       </c>
       <c r="G129" t="n">
-        <v>14606.77862305715</v>
+        <v>117</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,6 +5039,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4916,19 +5049,19 @@
         <v>116</v>
       </c>
       <c r="C130" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E130" t="n">
         <v>116</v>
       </c>
       <c r="F130" t="n">
-        <v>1014</v>
+        <v>2741.036</v>
       </c>
       <c r="G130" t="n">
-        <v>13592.77862305715</v>
+        <v>117</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,63 +5075,71 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C131" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D131" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E131" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F131" t="n">
-        <v>945.5516</v>
+        <v>2899</v>
       </c>
       <c r="G131" t="n">
-        <v>13592.77862305715</v>
+        <v>117.05</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>117</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C132" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D132" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E132" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F132" t="n">
-        <v>1321.9999</v>
+        <v>1599</v>
       </c>
       <c r="G132" t="n">
-        <v>14914.77852305715</v>
+        <v>117.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,32 +5149,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C133" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D133" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E133" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F133" t="n">
-        <v>2888</v>
+        <v>499</v>
       </c>
       <c r="G133" t="n">
-        <v>12026.77852305715</v>
+        <v>117.15</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,32 +5189,37 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C134" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D134" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E134" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F134" t="n">
-        <v>842</v>
+        <v>499</v>
       </c>
       <c r="G134" t="n">
-        <v>12026.77852305715</v>
+        <v>117.25</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,32 +5229,37 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C135" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D135" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E135" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F135" t="n">
-        <v>644</v>
+        <v>499</v>
       </c>
       <c r="G135" t="n">
-        <v>12026.77852305715</v>
+        <v>117.35</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,32 +5269,37 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C136" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D136" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E136" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F136" t="n">
-        <v>644</v>
+        <v>583.471</v>
       </c>
       <c r="G136" t="n">
-        <v>12026.77852305715</v>
+        <v>117.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,32 +5309,37 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C137" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D137" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E137" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F137" t="n">
-        <v>21900</v>
+        <v>1216.9999</v>
       </c>
       <c r="G137" t="n">
-        <v>33926.77852305715</v>
+        <v>117.45</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5183,32 +5349,37 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C138" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D138" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E138" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F138" t="n">
-        <v>6379</v>
+        <v>2092.2028</v>
       </c>
       <c r="G138" t="n">
-        <v>27547.77852305715</v>
+        <v>117.45</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,32 +5389,37 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C139" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D139" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E139" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F139" t="n">
-        <v>5184</v>
+        <v>495</v>
       </c>
       <c r="G139" t="n">
-        <v>27547.77852305715</v>
+        <v>117.45</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5253,10 +5429,15 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5275,10 +5456,10 @@
         <v>117</v>
       </c>
       <c r="F140" t="n">
-        <v>1657</v>
+        <v>3749</v>
       </c>
       <c r="G140" t="n">
-        <v>29204.77852305715</v>
+        <v>117.45</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,67 +5469,79 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C141" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D141" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E141" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F141" t="n">
-        <v>1802</v>
+        <v>786</v>
       </c>
       <c r="G141" t="n">
-        <v>29204.77852305715</v>
+        <v>117.45</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>117</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C142" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D142" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E142" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F142" t="n">
-        <v>8762</v>
+        <v>1285</v>
       </c>
       <c r="G142" t="n">
-        <v>20442.77852305715</v>
+        <v>117.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,32 +5551,37 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C143" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D143" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E143" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F143" t="n">
-        <v>13016</v>
+        <v>6096.0111</v>
       </c>
       <c r="G143" t="n">
-        <v>20442.77852305715</v>
+        <v>117.35</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,32 +5591,37 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C144" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D144" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E144" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F144" t="n">
-        <v>314</v>
+        <v>1996</v>
       </c>
       <c r="G144" t="n">
-        <v>20442.77852305715</v>
+        <v>117.35</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,32 +5631,37 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C145" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D145" t="n">
         <v>117</v>
       </c>
       <c r="E145" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F145" t="n">
-        <v>16301.5436</v>
+        <v>2695</v>
       </c>
       <c r="G145" t="n">
-        <v>20442.77852305715</v>
+        <v>117.35</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,32 +5671,37 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C146" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D146" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E146" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F146" t="n">
-        <v>7202.7498</v>
+        <v>1299</v>
       </c>
       <c r="G146" t="n">
-        <v>13240.02872305715</v>
+        <v>117.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,32 +5711,37 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C147" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D147" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E147" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F147" t="n">
-        <v>863.6627</v>
+        <v>920</v>
       </c>
       <c r="G147" t="n">
-        <v>14103.69142305715</v>
+        <v>117.45</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,32 +5751,37 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C148" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D148" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E148" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F148" t="n">
-        <v>4871</v>
+        <v>17425.4944</v>
       </c>
       <c r="G148" t="n">
-        <v>14103.69142305715</v>
+        <v>117.55</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,32 +5791,37 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C149" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D149" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E149" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F149" t="n">
-        <v>5419</v>
+        <v>496</v>
       </c>
       <c r="G149" t="n">
-        <v>19522.69142305716</v>
+        <v>117.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,32 +5831,37 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C150" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D150" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E150" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F150" t="n">
-        <v>5000</v>
+        <v>4874</v>
       </c>
       <c r="G150" t="n">
-        <v>19522.69142305716</v>
+        <v>117.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,32 +5871,37 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C151" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D151" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E151" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F151" t="n">
-        <v>27300</v>
+        <v>3065</v>
       </c>
       <c r="G151" t="n">
-        <v>19522.69142305716</v>
+        <v>117.75</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,32 +5911,37 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C152" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D152" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E152" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F152" t="n">
-        <v>2398</v>
+        <v>16653</v>
       </c>
       <c r="G152" t="n">
-        <v>17124.69142305716</v>
+        <v>117.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,32 +5951,37 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C153" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D153" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E153" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F153" t="n">
-        <v>2041</v>
+        <v>4900</v>
       </c>
       <c r="G153" t="n">
-        <v>17124.69142305716</v>
+        <v>117.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,32 +5991,37 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C154" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D154" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E154" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F154" t="n">
-        <v>26</v>
+        <v>16803</v>
       </c>
       <c r="G154" t="n">
-        <v>17150.69142305716</v>
+        <v>117.95</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,32 +6031,37 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C155" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D155" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E155" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F155" t="n">
-        <v>9444.291800000001</v>
+        <v>12075.0015</v>
       </c>
       <c r="G155" t="n">
-        <v>17150.69142305716</v>
+        <v>118</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,32 +6071,37 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C156" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D156" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E156" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F156" t="n">
-        <v>2095</v>
+        <v>1171</v>
       </c>
       <c r="G156" t="n">
-        <v>15055.69142305716</v>
+        <v>118.05</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,32 +6111,37 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C157" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D157" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E157" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F157" t="n">
-        <v>16905.9945</v>
+        <v>7644</v>
       </c>
       <c r="G157" t="n">
-        <v>15055.69142305716</v>
+        <v>118.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,32 +6151,37 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C158" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D158" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E158" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F158" t="n">
-        <v>3700.003</v>
+        <v>2506</v>
       </c>
       <c r="G158" t="n">
-        <v>18755.69442305716</v>
+        <v>118.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,32 +6191,37 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C159" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D159" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E159" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F159" t="n">
-        <v>1096.9999</v>
+        <v>4024</v>
       </c>
       <c r="G159" t="n">
-        <v>18755.69442305716</v>
+        <v>118.15</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,10 +6231,15 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5966,19 +6249,19 @@
         <v>118</v>
       </c>
       <c r="C160" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D160" t="n">
         <v>118</v>
       </c>
       <c r="E160" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F160" t="n">
-        <v>21664</v>
+        <v>11.3389</v>
       </c>
       <c r="G160" t="n">
-        <v>18755.69442305716</v>
+        <v>118.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,10 +6271,15 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6004,16 +6292,16 @@
         <v>117</v>
       </c>
       <c r="D161" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E161" t="n">
         <v>117</v>
       </c>
       <c r="F161" t="n">
-        <v>7530</v>
+        <v>40349</v>
       </c>
       <c r="G161" t="n">
-        <v>18755.69442305716</v>
+        <v>118.15</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,10 +6311,15 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6039,16 +6332,16 @@
         <v>117</v>
       </c>
       <c r="D162" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E162" t="n">
         <v>117</v>
       </c>
       <c r="F162" t="n">
-        <v>2760.6354</v>
+        <v>9145.846100000001</v>
       </c>
       <c r="G162" t="n">
-        <v>18755.69442305716</v>
+        <v>118.15</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,10 +6351,15 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6080,10 +6378,10 @@
         <v>118</v>
       </c>
       <c r="F163" t="n">
-        <v>491.6354</v>
+        <v>10.15</v>
       </c>
       <c r="G163" t="n">
-        <v>19247.32982305716</v>
+        <v>118.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6093,32 +6391,37 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C164" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D164" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E164" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F164" t="n">
-        <v>3278</v>
+        <v>3228.7981</v>
       </c>
       <c r="G164" t="n">
-        <v>19247.32982305716</v>
+        <v>118.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6128,10 +6431,15 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6150,10 +6458,10 @@
         <v>118</v>
       </c>
       <c r="F165" t="n">
-        <v>1247</v>
+        <v>3774.4605</v>
       </c>
       <c r="G165" t="n">
-        <v>19247.32982305716</v>
+        <v>118.25</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6163,32 +6471,37 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C166" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D166" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E166" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F166" t="n">
-        <v>2324</v>
+        <v>5613</v>
       </c>
       <c r="G166" t="n">
-        <v>16923.32982305716</v>
+        <v>118.25</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6198,32 +6511,37 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C167" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D167" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E167" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F167" t="n">
-        <v>1882.5681</v>
+        <v>12551.3878</v>
       </c>
       <c r="G167" t="n">
-        <v>18805.89792305716</v>
+        <v>118.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6233,32 +6551,37 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C168" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D168" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E168" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F168" t="n">
-        <v>8054.5216</v>
+        <v>1855</v>
       </c>
       <c r="G168" t="n">
-        <v>10751.37632305716</v>
+        <v>118.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6268,32 +6591,37 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C169" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D169" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E169" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F169" t="n">
-        <v>13524.3875</v>
+        <v>1425</v>
       </c>
       <c r="G169" t="n">
-        <v>10751.37632305716</v>
+        <v>118.35</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6303,32 +6631,37 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C170" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D170" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E170" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F170" t="n">
-        <v>1810.0508</v>
+        <v>1800</v>
       </c>
       <c r="G170" t="n">
-        <v>10751.37632305716</v>
+        <v>118.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6338,32 +6671,37 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C171" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D171" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E171" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F171" t="n">
-        <v>3280.8156</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>10751.37632305716</v>
+        <v>118.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6373,32 +6711,37 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C172" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D172" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E172" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F172" t="n">
-        <v>2741.036</v>
+        <v>6359</v>
       </c>
       <c r="G172" t="n">
-        <v>10751.37632305716</v>
+        <v>118.55</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6408,32 +6751,37 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C173" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D173" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E173" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F173" t="n">
-        <v>2899</v>
+        <v>9458.1212</v>
       </c>
       <c r="G173" t="n">
-        <v>10751.37632305716</v>
+        <v>118.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6443,32 +6791,37 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C174" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D174" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E174" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F174" t="n">
-        <v>1599</v>
+        <v>550</v>
       </c>
       <c r="G174" t="n">
-        <v>12350.37632305716</v>
+        <v>118.55</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6478,32 +6831,37 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C175" t="n">
         <v>118</v>
       </c>
       <c r="D175" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E175" t="n">
         <v>118</v>
       </c>
       <c r="F175" t="n">
-        <v>499</v>
+        <v>1505.7058</v>
       </c>
       <c r="G175" t="n">
-        <v>12350.37632305716</v>
+        <v>118.55</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6513,10 +6871,15 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6535,10 +6898,10 @@
         <v>118</v>
       </c>
       <c r="F176" t="n">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G176" t="n">
-        <v>12350.37632305716</v>
+        <v>118.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6548,10 +6911,15 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6570,10 +6938,10 @@
         <v>118</v>
       </c>
       <c r="F177" t="n">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="G177" t="n">
-        <v>12350.37632305716</v>
+        <v>118.45</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6583,32 +6951,37 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C178" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D178" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E178" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F178" t="n">
-        <v>583.471</v>
+        <v>308.713</v>
       </c>
       <c r="G178" t="n">
-        <v>12350.37632305716</v>
+        <v>118.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6618,32 +6991,37 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C179" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D179" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E179" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F179" t="n">
-        <v>1216.9999</v>
+        <v>737.4609</v>
       </c>
       <c r="G179" t="n">
-        <v>12350.37632305716</v>
+        <v>118.65</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6653,32 +7031,37 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C180" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D180" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E180" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F180" t="n">
-        <v>2092.2028</v>
+        <v>293.3855</v>
       </c>
       <c r="G180" t="n">
-        <v>12350.37632305716</v>
+        <v>118.75</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6688,32 +7071,37 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C181" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D181" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E181" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F181" t="n">
-        <v>495</v>
+        <v>5388</v>
       </c>
       <c r="G181" t="n">
-        <v>11855.37632305716</v>
+        <v>118.85</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6723,32 +7111,37 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C182" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D182" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E182" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F182" t="n">
-        <v>3749</v>
+        <v>555</v>
       </c>
       <c r="G182" t="n">
-        <v>11855.37632305716</v>
+        <v>119</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6758,32 +7151,37 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C183" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D183" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E183" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F183" t="n">
-        <v>786</v>
+        <v>144.841</v>
       </c>
       <c r="G183" t="n">
-        <v>12641.37632305716</v>
+        <v>119.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6793,32 +7191,37 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C184" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D184" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E184" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F184" t="n">
-        <v>1285</v>
+        <v>589</v>
       </c>
       <c r="G184" t="n">
-        <v>11356.37632305716</v>
+        <v>119.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6828,32 +7231,37 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C185" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D185" t="n">
         <v>119</v>
       </c>
       <c r="E185" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F185" t="n">
-        <v>6096.0111</v>
+        <v>307.5398</v>
       </c>
       <c r="G185" t="n">
-        <v>11356.37632305716</v>
+        <v>119.25</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6863,32 +7271,37 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C186" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D186" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E186" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F186" t="n">
-        <v>1996</v>
+        <v>102.4602</v>
       </c>
       <c r="G186" t="n">
-        <v>11356.37632305716</v>
+        <v>119.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6898,32 +7311,37 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C187" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D187" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E187" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F187" t="n">
-        <v>2695</v>
+        <v>646</v>
       </c>
       <c r="G187" t="n">
-        <v>11356.37632305716</v>
+        <v>119.25</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6933,32 +7351,37 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C188" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D188" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E188" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F188" t="n">
-        <v>1299</v>
+        <v>4235</v>
       </c>
       <c r="G188" t="n">
-        <v>12655.37632305716</v>
+        <v>119.15</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6968,32 +7391,37 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C189" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D189" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E189" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F189" t="n">
-        <v>920</v>
+        <v>2244</v>
       </c>
       <c r="G189" t="n">
-        <v>12655.37632305716</v>
+        <v>119.05</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7003,20 +7431,25 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C190" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D190" t="n">
         <v>119</v>
@@ -7025,10 +7458,10 @@
         <v>118</v>
       </c>
       <c r="F190" t="n">
-        <v>17425.4944</v>
+        <v>10683</v>
       </c>
       <c r="G190" t="n">
-        <v>12655.37632305716</v>
+        <v>119</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7038,10 +7471,15 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7051,19 +7489,19 @@
         <v>118</v>
       </c>
       <c r="C191" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D191" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E191" t="n">
         <v>118</v>
       </c>
       <c r="F191" t="n">
-        <v>496</v>
+        <v>1570.4661</v>
       </c>
       <c r="G191" t="n">
-        <v>12655.37632305716</v>
+        <v>118.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7073,10 +7511,15 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7086,19 +7529,19 @@
         <v>118</v>
       </c>
       <c r="C192" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D192" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E192" t="n">
         <v>118</v>
       </c>
       <c r="F192" t="n">
-        <v>4874</v>
+        <v>1246</v>
       </c>
       <c r="G192" t="n">
-        <v>12655.37632305716</v>
+        <v>118.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7108,10 +7551,15 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7130,10 +7578,10 @@
         <v>118</v>
       </c>
       <c r="F193" t="n">
-        <v>3065</v>
+        <v>999</v>
       </c>
       <c r="G193" t="n">
-        <v>12655.37632305716</v>
+        <v>118.75</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7143,32 +7591,37 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C194" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D194" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E194" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F194" t="n">
-        <v>16653</v>
+        <v>3660</v>
       </c>
       <c r="G194" t="n">
-        <v>29308.37632305716</v>
+        <v>118.65</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7178,32 +7631,37 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C195" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D195" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E195" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F195" t="n">
-        <v>4900</v>
+        <v>1009</v>
       </c>
       <c r="G195" t="n">
-        <v>29308.37632305716</v>
+        <v>118.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7213,32 +7671,37 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C196" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D196" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E196" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F196" t="n">
-        <v>16803</v>
+        <v>657</v>
       </c>
       <c r="G196" t="n">
-        <v>29308.37632305716</v>
+        <v>118.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7248,32 +7711,37 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C197" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D197" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E197" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F197" t="n">
-        <v>12075.0015</v>
+        <v>2485</v>
       </c>
       <c r="G197" t="n">
-        <v>17233.37482305716</v>
+        <v>118.55</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7283,32 +7751,37 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C198" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D198" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E198" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F198" t="n">
-        <v>1171</v>
+        <v>2.8868</v>
       </c>
       <c r="G198" t="n">
-        <v>17233.37482305716</v>
+        <v>118.45</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7318,32 +7791,37 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C199" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D199" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E199" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F199" t="n">
-        <v>7644</v>
+        <v>10539.4298</v>
       </c>
       <c r="G199" t="n">
-        <v>17233.37482305716</v>
+        <v>118.25</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7353,115 +7831,141 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C200" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D200" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E200" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F200" t="n">
-        <v>2506</v>
+        <v>3913.8257</v>
       </c>
       <c r="G200" t="n">
-        <v>14727.37482305716</v>
+        <v>118.1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>117</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C201" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D201" t="n">
         <v>118</v>
       </c>
       <c r="E201" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F201" t="n">
-        <v>4024</v>
+        <v>6597.9999</v>
       </c>
       <c r="G201" t="n">
-        <v>14727.37482305716</v>
+        <v>118</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>117</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C202" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D202" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E202" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F202" t="n">
-        <v>11.3389</v>
+        <v>6297.8257</v>
       </c>
       <c r="G202" t="n">
-        <v>14727.37482305716</v>
+        <v>117.85</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>117</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7480,23 +7984,30 @@
         <v>117</v>
       </c>
       <c r="F203" t="n">
-        <v>40349</v>
+        <v>119.8461</v>
       </c>
       <c r="G203" t="n">
-        <v>-25621.62517694284</v>
+        <v>117.7</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>117</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7506,67 +8017,81 @@
         <v>117</v>
       </c>
       <c r="C204" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D204" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E204" t="n">
         <v>117</v>
       </c>
       <c r="F204" t="n">
-        <v>9145.846100000001</v>
+        <v>3212.9999</v>
       </c>
       <c r="G204" t="n">
-        <v>-25621.62517694284</v>
+        <v>117.6</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>117</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C205" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D205" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E205" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F205" t="n">
-        <v>10.15</v>
+        <v>3239.9998</v>
       </c>
       <c r="G205" t="n">
-        <v>-25611.47517694284</v>
+        <v>117.5</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>118</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7585,1525 +8110,30 @@
         <v>117</v>
       </c>
       <c r="F206" t="n">
-        <v>3228.7981</v>
+        <v>974</v>
       </c>
       <c r="G206" t="n">
-        <v>-28840.27327694284</v>
+        <v>117.4</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>117</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>118</v>
-      </c>
-      <c r="C207" t="n">
-        <v>118</v>
-      </c>
-      <c r="D207" t="n">
-        <v>118</v>
-      </c>
-      <c r="E207" t="n">
-        <v>118</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3774.4605</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-25065.81277694284</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>118</v>
-      </c>
-      <c r="C208" t="n">
-        <v>118</v>
-      </c>
-      <c r="D208" t="n">
-        <v>118</v>
-      </c>
-      <c r="E208" t="n">
-        <v>118</v>
-      </c>
-      <c r="F208" t="n">
-        <v>5613</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-25065.81277694284</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>119</v>
-      </c>
-      <c r="C209" t="n">
-        <v>119</v>
-      </c>
-      <c r="D209" t="n">
-        <v>119</v>
-      </c>
-      <c r="E209" t="n">
-        <v>119</v>
-      </c>
-      <c r="F209" t="n">
-        <v>12551.3878</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-12514.42497694284</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>119</v>
-      </c>
-      <c r="C210" t="n">
-        <v>119</v>
-      </c>
-      <c r="D210" t="n">
-        <v>119</v>
-      </c>
-      <c r="E210" t="n">
-        <v>119</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1855</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-12514.42497694284</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>119</v>
-      </c>
-      <c r="C211" t="n">
-        <v>119</v>
-      </c>
-      <c r="D211" t="n">
-        <v>119</v>
-      </c>
-      <c r="E211" t="n">
-        <v>119</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1425</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-12514.42497694284</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>119</v>
-      </c>
-      <c r="C212" t="n">
-        <v>120</v>
-      </c>
-      <c r="D212" t="n">
-        <v>120</v>
-      </c>
-      <c r="E212" t="n">
-        <v>119</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-10714.42497694284</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>120</v>
-      </c>
-      <c r="C213" t="n">
-        <v>120</v>
-      </c>
-      <c r="D213" t="n">
-        <v>120</v>
-      </c>
-      <c r="E213" t="n">
-        <v>120</v>
-      </c>
-      <c r="F213" t="n">
-        <v>10</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-10714.42497694284</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>120</v>
-      </c>
-      <c r="C214" t="n">
-        <v>120</v>
-      </c>
-      <c r="D214" t="n">
-        <v>120</v>
-      </c>
-      <c r="E214" t="n">
-        <v>120</v>
-      </c>
-      <c r="F214" t="n">
-        <v>6359</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-10714.42497694284</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>119</v>
-      </c>
-      <c r="C215" t="n">
-        <v>119</v>
-      </c>
-      <c r="D215" t="n">
-        <v>120</v>
-      </c>
-      <c r="E215" t="n">
-        <v>119</v>
-      </c>
-      <c r="F215" t="n">
-        <v>9458.1212</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-20172.54617694284</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>120</v>
-      </c>
-      <c r="C216" t="n">
-        <v>120</v>
-      </c>
-      <c r="D216" t="n">
-        <v>120</v>
-      </c>
-      <c r="E216" t="n">
-        <v>120</v>
-      </c>
-      <c r="F216" t="n">
-        <v>550</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-19622.54617694284</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>119</v>
-      </c>
-      <c r="C217" t="n">
-        <v>118</v>
-      </c>
-      <c r="D217" t="n">
-        <v>119</v>
-      </c>
-      <c r="E217" t="n">
-        <v>118</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1505.7058</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-21128.25197694284</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>118</v>
-      </c>
-      <c r="C218" t="n">
-        <v>118</v>
-      </c>
-      <c r="D218" t="n">
-        <v>118</v>
-      </c>
-      <c r="E218" t="n">
-        <v>118</v>
-      </c>
-      <c r="F218" t="n">
-        <v>472</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-21128.25197694284</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>118</v>
-      </c>
-      <c r="C219" t="n">
-        <v>118</v>
-      </c>
-      <c r="D219" t="n">
-        <v>118</v>
-      </c>
-      <c r="E219" t="n">
-        <v>118</v>
-      </c>
-      <c r="F219" t="n">
-        <v>527</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-21128.25197694284</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>119</v>
-      </c>
-      <c r="C220" t="n">
-        <v>119</v>
-      </c>
-      <c r="D220" t="n">
-        <v>119</v>
-      </c>
-      <c r="E220" t="n">
-        <v>119</v>
-      </c>
-      <c r="F220" t="n">
-        <v>308.713</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-20819.53897694284</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>121</v>
-      </c>
-      <c r="C221" t="n">
-        <v>121</v>
-      </c>
-      <c r="D221" t="n">
-        <v>121</v>
-      </c>
-      <c r="E221" t="n">
-        <v>121</v>
-      </c>
-      <c r="F221" t="n">
-        <v>737.4609</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-20082.07807694284</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>120</v>
-      </c>
-      <c r="C222" t="n">
-        <v>120</v>
-      </c>
-      <c r="D222" t="n">
-        <v>120</v>
-      </c>
-      <c r="E222" t="n">
-        <v>120</v>
-      </c>
-      <c r="F222" t="n">
-        <v>293.3855</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-20375.46357694284</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>119</v>
-      </c>
-      <c r="C223" t="n">
-        <v>119</v>
-      </c>
-      <c r="D223" t="n">
-        <v>119</v>
-      </c>
-      <c r="E223" t="n">
-        <v>119</v>
-      </c>
-      <c r="F223" t="n">
-        <v>5388</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-25763.46357694284</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>120</v>
-      </c>
-      <c r="C224" t="n">
-        <v>120</v>
-      </c>
-      <c r="D224" t="n">
-        <v>120</v>
-      </c>
-      <c r="E224" t="n">
-        <v>120</v>
-      </c>
-      <c r="F224" t="n">
-        <v>555</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-25208.46357694284</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>120</v>
-      </c>
-      <c r="C225" t="n">
-        <v>120</v>
-      </c>
-      <c r="D225" t="n">
-        <v>120</v>
-      </c>
-      <c r="E225" t="n">
-        <v>120</v>
-      </c>
-      <c r="F225" t="n">
-        <v>144.841</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-25208.46357694284</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>119</v>
-      </c>
-      <c r="C226" t="n">
-        <v>119</v>
-      </c>
-      <c r="D226" t="n">
-        <v>119</v>
-      </c>
-      <c r="E226" t="n">
-        <v>119</v>
-      </c>
-      <c r="F226" t="n">
-        <v>589</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-25797.46357694284</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>119</v>
-      </c>
-      <c r="C227" t="n">
-        <v>119</v>
-      </c>
-      <c r="D227" t="n">
-        <v>119</v>
-      </c>
-      <c r="E227" t="n">
-        <v>119</v>
-      </c>
-      <c r="F227" t="n">
-        <v>307.5398</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-25797.46357694284</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>119</v>
-      </c>
-      <c r="C228" t="n">
-        <v>119</v>
-      </c>
-      <c r="D228" t="n">
-        <v>119</v>
-      </c>
-      <c r="E228" t="n">
-        <v>119</v>
-      </c>
-      <c r="F228" t="n">
-        <v>102.4602</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-25797.46357694284</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>118</v>
-      </c>
-      <c r="C229" t="n">
-        <v>118</v>
-      </c>
-      <c r="D229" t="n">
-        <v>118</v>
-      </c>
-      <c r="E229" t="n">
-        <v>118</v>
-      </c>
-      <c r="F229" t="n">
-        <v>646</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-26443.46357694284</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>117</v>
-      </c>
-      <c r="C230" t="n">
-        <v>117</v>
-      </c>
-      <c r="D230" t="n">
-        <v>117</v>
-      </c>
-      <c r="E230" t="n">
-        <v>117</v>
-      </c>
-      <c r="F230" t="n">
-        <v>4235</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-30678.46357694284</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>117</v>
-      </c>
-      <c r="C231" t="n">
-        <v>117</v>
-      </c>
-      <c r="D231" t="n">
-        <v>117</v>
-      </c>
-      <c r="E231" t="n">
-        <v>117</v>
-      </c>
-      <c r="F231" t="n">
-        <v>2244</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-30678.46357694284</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>118</v>
-      </c>
-      <c r="C232" t="n">
-        <v>119</v>
-      </c>
-      <c r="D232" t="n">
-        <v>119</v>
-      </c>
-      <c r="E232" t="n">
-        <v>118</v>
-      </c>
-      <c r="F232" t="n">
-        <v>10683</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-19995.46357694284</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>118</v>
-      </c>
-      <c r="C233" t="n">
-        <v>119</v>
-      </c>
-      <c r="D233" t="n">
-        <v>119</v>
-      </c>
-      <c r="E233" t="n">
-        <v>118</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1570.4661</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-19995.46357694284</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>118</v>
-      </c>
-      <c r="C234" t="n">
-        <v>119</v>
-      </c>
-      <c r="D234" t="n">
-        <v>119</v>
-      </c>
-      <c r="E234" t="n">
-        <v>118</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1246</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-19995.46357694284</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>118</v>
-      </c>
-      <c r="C235" t="n">
-        <v>118</v>
-      </c>
-      <c r="D235" t="n">
-        <v>118</v>
-      </c>
-      <c r="E235" t="n">
-        <v>118</v>
-      </c>
-      <c r="F235" t="n">
-        <v>999</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-20994.46357694284</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>118</v>
-      </c>
-      <c r="C236" t="n">
-        <v>117</v>
-      </c>
-      <c r="D236" t="n">
-        <v>118</v>
-      </c>
-      <c r="E236" t="n">
-        <v>117</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3660</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-24654.46357694284</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>118</v>
-      </c>
-      <c r="C237" t="n">
-        <v>118</v>
-      </c>
-      <c r="D237" t="n">
-        <v>118</v>
-      </c>
-      <c r="E237" t="n">
-        <v>118</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1009</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-23645.46357694284</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>118</v>
-      </c>
-      <c r="C238" t="n">
-        <v>118</v>
-      </c>
-      <c r="D238" t="n">
-        <v>118</v>
-      </c>
-      <c r="E238" t="n">
-        <v>118</v>
-      </c>
-      <c r="F238" t="n">
-        <v>657</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-23645.46357694284</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>117</v>
-      </c>
-      <c r="C239" t="n">
-        <v>117</v>
-      </c>
-      <c r="D239" t="n">
-        <v>117</v>
-      </c>
-      <c r="E239" t="n">
-        <v>117</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2485</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>117</v>
-      </c>
-      <c r="C240" t="n">
-        <v>117</v>
-      </c>
-      <c r="D240" t="n">
-        <v>117</v>
-      </c>
-      <c r="E240" t="n">
-        <v>117</v>
-      </c>
-      <c r="F240" t="n">
-        <v>2.8868</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>117</v>
-      </c>
-      <c r="C241" t="n">
-        <v>117</v>
-      </c>
-      <c r="D241" t="n">
-        <v>117</v>
-      </c>
-      <c r="E241" t="n">
-        <v>117</v>
-      </c>
-      <c r="F241" t="n">
-        <v>10539.4298</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>117</v>
-      </c>
-      <c r="C242" t="n">
-        <v>117</v>
-      </c>
-      <c r="D242" t="n">
-        <v>117</v>
-      </c>
-      <c r="E242" t="n">
-        <v>117</v>
-      </c>
-      <c r="F242" t="n">
-        <v>3913.8257</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>117</v>
-      </c>
-      <c r="C243" t="n">
-        <v>117</v>
-      </c>
-      <c r="D243" t="n">
-        <v>118</v>
-      </c>
-      <c r="E243" t="n">
-        <v>117</v>
-      </c>
-      <c r="F243" t="n">
-        <v>6597.9999</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>117</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>117</v>
-      </c>
-      <c r="C244" t="n">
-        <v>117</v>
-      </c>
-      <c r="D244" t="n">
-        <v>117</v>
-      </c>
-      <c r="E244" t="n">
-        <v>117</v>
-      </c>
-      <c r="F244" t="n">
-        <v>6297.8257</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>117</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>117</v>
-      </c>
-      <c r="C245" t="n">
-        <v>117</v>
-      </c>
-      <c r="D245" t="n">
-        <v>117</v>
-      </c>
-      <c r="E245" t="n">
-        <v>117</v>
-      </c>
-      <c r="F245" t="n">
-        <v>119.8461</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>117</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>117</v>
-      </c>
-      <c r="C246" t="n">
-        <v>118</v>
-      </c>
-      <c r="D246" t="n">
-        <v>118</v>
-      </c>
-      <c r="E246" t="n">
-        <v>117</v>
-      </c>
-      <c r="F246" t="n">
-        <v>3212.9999</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-22917.46367694284</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
-        <v>117</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>117</v>
-      </c>
-      <c r="C247" t="n">
-        <v>117</v>
-      </c>
-      <c r="D247" t="n">
-        <v>117</v>
-      </c>
-      <c r="E247" t="n">
-        <v>117</v>
-      </c>
-      <c r="F247" t="n">
-        <v>3239.9998</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-26157.46347694284</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>117</v>
-      </c>
-      <c r="C248" t="n">
-        <v>117</v>
-      </c>
-      <c r="D248" t="n">
-        <v>117</v>
-      </c>
-      <c r="E248" t="n">
-        <v>117</v>
-      </c>
-      <c r="F248" t="n">
-        <v>974</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-26157.46347694284</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
+      <c r="N206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N206"/>
+  <dimension ref="A1:N277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>5295.0916</v>
       </c>
       <c r="G2" t="n">
-        <v>119.35</v>
+        <v>33953.47202305715</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -477,19 +477,19 @@
         <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3" t="n">
         <v>120</v>
       </c>
       <c r="F3" t="n">
-        <v>8025.6609</v>
+        <v>618.909</v>
       </c>
       <c r="G3" t="n">
-        <v>119.35</v>
+        <v>34572.38102305715</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F4" t="n">
-        <v>5205</v>
+        <v>88.33880000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>119.3</v>
+        <v>34572.38102305715</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -555,19 +555,19 @@
         <v>120</v>
       </c>
       <c r="E5" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5" t="n">
-        <v>8306</v>
+        <v>1899.6072</v>
       </c>
       <c r="G5" t="n">
-        <v>119.25</v>
+        <v>32672.77382305716</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,10 +594,10 @@
         <v>121</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>25026.628</v>
       </c>
       <c r="G6" t="n">
-        <v>119.3</v>
+        <v>57699.40182305715</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="n">
         <v>120</v>
       </c>
       <c r="E7" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F7" t="n">
-        <v>7279</v>
+        <v>4900</v>
       </c>
       <c r="G7" t="n">
-        <v>119.3</v>
+        <v>52799.40182305715</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" t="n">
-        <v>1516</v>
+        <v>3116.1666</v>
       </c>
       <c r="G8" t="n">
-        <v>119.3</v>
+        <v>52799.40182305715</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" t="n">
         <v>120</v>
@@ -699,13 +699,13 @@
         <v>120</v>
       </c>
       <c r="E9" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F9" t="n">
-        <v>7069.7403</v>
+        <v>4066.4384</v>
       </c>
       <c r="G9" t="n">
-        <v>119.3</v>
+        <v>52799.40182305715</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>119</v>
       </c>
       <c r="F10" t="n">
-        <v>1645.22</v>
+        <v>24964.0614</v>
       </c>
       <c r="G10" t="n">
-        <v>119.3</v>
+        <v>27835.34042305715</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>119</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0084</v>
+        <v>1628.6242</v>
       </c>
       <c r="G11" t="n">
-        <v>119.3</v>
+        <v>27835.34042305715</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F12" t="n">
-        <v>5818</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>119.25</v>
+        <v>27835.34042305715</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C13" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E13" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F13" t="n">
-        <v>498</v>
+        <v>56.3801</v>
       </c>
       <c r="G13" t="n">
-        <v>119.2</v>
+        <v>27891.72052305715</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D14" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E14" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F14" t="n">
-        <v>3992</v>
+        <v>229.9216</v>
       </c>
       <c r="G14" t="n">
-        <v>119.15</v>
+        <v>27661.79892305715</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D15" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E15" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>10549.1423</v>
+        <v>8000</v>
       </c>
       <c r="G15" t="n">
-        <v>119.05</v>
+        <v>27661.79892305715</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C16" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D16" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E16" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F16" t="n">
-        <v>502</v>
+        <v>12.8583</v>
       </c>
       <c r="G16" t="n">
-        <v>118.95</v>
+        <v>27661.79892305715</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E17" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
-        <v>3447.2455</v>
+        <v>10600</v>
       </c>
       <c r="G17" t="n">
-        <v>118.95</v>
+        <v>38261.79892305715</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C18" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D18" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E18" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F18" t="n">
-        <v>4309</v>
+        <v>623</v>
       </c>
       <c r="G18" t="n">
-        <v>118.85</v>
+        <v>38261.79892305715</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C19" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D19" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E19" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F19" t="n">
-        <v>599.3935</v>
+        <v>40023</v>
       </c>
       <c r="G19" t="n">
-        <v>118.85</v>
+        <v>38261.79892305715</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1089,25 +1089,25 @@
         <v>119</v>
       </c>
       <c r="C20" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="n">
         <v>119</v>
       </c>
       <c r="E20" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" t="n">
-        <v>23680.4873</v>
+        <v>3666.1007</v>
       </c>
       <c r="G20" t="n">
-        <v>118.8</v>
+        <v>34595.69822305715</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C21" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D21" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F21" t="n">
-        <v>4807</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>118.7</v>
+        <v>34596.69822305715</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" t="n">
-        <v>23621.286</v>
+        <v>1673.4544</v>
       </c>
       <c r="G22" t="n">
-        <v>118.6</v>
+        <v>32923.24382305715</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C23" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>196.7555</v>
       </c>
       <c r="G23" t="n">
-        <v>118.5</v>
+        <v>33119.99932305715</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" t="n">
         <v>119</v>
@@ -1239,13 +1239,13 @@
         <v>119</v>
       </c>
       <c r="E24" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" t="n">
-        <v>7426</v>
+        <v>47902.0893</v>
       </c>
       <c r="G24" t="n">
-        <v>118.45</v>
+        <v>33119.99932305715</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C25" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D25" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E25" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F25" t="n">
-        <v>99.84999999999999</v>
+        <v>600</v>
       </c>
       <c r="G25" t="n">
-        <v>118.3</v>
+        <v>33719.99932305715</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C26" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D26" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E26" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F26" t="n">
-        <v>3007.9872</v>
+        <v>10683.0407</v>
       </c>
       <c r="G26" t="n">
-        <v>118.15</v>
+        <v>33719.99932305715</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C27" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D27" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E27" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F27" t="n">
-        <v>14555.6403</v>
+        <v>651</v>
       </c>
       <c r="G27" t="n">
-        <v>118.1</v>
+        <v>33719.99932305715</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C28" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D28" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E28" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F28" t="n">
-        <v>8745.234899999999</v>
+        <v>7235.6803</v>
       </c>
       <c r="G28" t="n">
-        <v>118</v>
+        <v>40955.67962305715</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C29" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D29" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E29" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F29" t="n">
-        <v>470.4266</v>
+        <v>7834.0163</v>
       </c>
       <c r="G29" t="n">
-        <v>117.9</v>
+        <v>40955.67962305715</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C30" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D30" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E30" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F30" t="n">
-        <v>280.9258</v>
+        <v>119.3975</v>
       </c>
       <c r="G30" t="n">
-        <v>117.8</v>
+        <v>40955.67962305715</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D31" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E31" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F31" t="n">
-        <v>168</v>
+        <v>5790.2484</v>
       </c>
       <c r="G31" t="n">
-        <v>117.75</v>
+        <v>35165.43122305715</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C32" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D32" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E32" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F32" t="n">
-        <v>2891</v>
+        <v>3700</v>
       </c>
       <c r="G32" t="n">
-        <v>117.65</v>
+        <v>35165.43122305715</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C33" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D33" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E33" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F33" t="n">
-        <v>1592</v>
+        <v>2630.7833</v>
       </c>
       <c r="G33" t="n">
-        <v>117.55</v>
+        <v>35165.43122305715</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C34" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D34" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E34" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F34" t="n">
-        <v>1503</v>
+        <v>12797.3901</v>
       </c>
       <c r="G34" t="n">
-        <v>117.45</v>
+        <v>47962.82132305716</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C35" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D35" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E35" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F35" t="n">
-        <v>3487</v>
+        <v>9900.641600000001</v>
       </c>
       <c r="G35" t="n">
-        <v>117.35</v>
+        <v>47962.82132305716</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C36" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D36" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E36" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F36" t="n">
-        <v>1834.6413</v>
+        <v>434.1052</v>
       </c>
       <c r="G36" t="n">
-        <v>117.3</v>
+        <v>47962.82132305716</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C37" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D37" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E37" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F37" t="n">
-        <v>3741.2271</v>
+        <v>56.2392</v>
       </c>
       <c r="G37" t="n">
-        <v>117.15</v>
+        <v>47962.82132305716</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C38" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D38" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E38" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F38" t="n">
-        <v>2557.7279</v>
+        <v>9200</v>
       </c>
       <c r="G38" t="n">
-        <v>117.1</v>
+        <v>57162.82132305716</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C39" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D39" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E39" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F39" t="n">
-        <v>306.7918</v>
+        <v>80.9091</v>
       </c>
       <c r="G39" t="n">
-        <v>116.95</v>
+        <v>57081.91222305716</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C40" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D40" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E40" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F40" t="n">
-        <v>9614.661</v>
+        <v>10217.5997</v>
       </c>
       <c r="G40" t="n">
-        <v>116.8</v>
+        <v>67299.51192305716</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C41" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D41" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E41" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F41" t="n">
-        <v>14300</v>
+        <v>8269.441199999999</v>
       </c>
       <c r="G41" t="n">
-        <v>116.8</v>
+        <v>67299.51192305716</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C42" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D42" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E42" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F42" t="n">
-        <v>1851.6168</v>
+        <v>25386.4262</v>
       </c>
       <c r="G42" t="n">
-        <v>116.75</v>
+        <v>67299.51192305716</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C43" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D43" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E43" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F43" t="n">
-        <v>1009.0376</v>
+        <v>331.837</v>
       </c>
       <c r="G43" t="n">
-        <v>116.65</v>
+        <v>66967.67492305716</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C44" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D44" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E44" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F44" t="n">
-        <v>1677.0376</v>
+        <v>2.795</v>
       </c>
       <c r="G44" t="n">
-        <v>116.55</v>
+        <v>66970.46992305716</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C45" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D45" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E45" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F45" t="n">
-        <v>288.0277</v>
+        <v>8029.8488</v>
       </c>
       <c r="G45" t="n">
-        <v>116.5</v>
+        <v>58940.62112305716</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C46" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D46" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E46" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F46" t="n">
-        <v>4773</v>
+        <v>25322.9602</v>
       </c>
       <c r="G46" t="n">
-        <v>116.35</v>
+        <v>33617.66092305716</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C47" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D47" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E47" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F47" t="n">
-        <v>3003</v>
+        <v>15610.6509</v>
       </c>
       <c r="G47" t="n">
-        <v>116.25</v>
+        <v>33617.66092305716</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C48" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D48" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E48" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F48" t="n">
-        <v>1100</v>
+        <v>9890.384099999999</v>
       </c>
       <c r="G48" t="n">
-        <v>116.2</v>
+        <v>33617.66092305716</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C49" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D49" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E49" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>621</v>
+        <v>965.9058</v>
       </c>
       <c r="G49" t="n">
-        <v>116.1</v>
+        <v>33617.66092305716</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C50" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D50" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E50" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F50" t="n">
-        <v>2720</v>
+        <v>2978</v>
       </c>
       <c r="G50" t="n">
-        <v>116</v>
+        <v>33617.66092305716</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C51" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D51" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E51" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F51" t="n">
-        <v>6509.0955</v>
+        <v>8870.570100000001</v>
       </c>
       <c r="G51" t="n">
-        <v>115.85</v>
+        <v>33617.66092305716</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C52" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D52" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E52" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F52" t="n">
-        <v>9823</v>
+        <v>6850</v>
       </c>
       <c r="G52" t="n">
-        <v>115.85</v>
+        <v>33617.66092305716</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C53" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D53" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E53" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F53" t="n">
-        <v>23208.5848</v>
+        <v>9700.761</v>
       </c>
       <c r="G53" t="n">
-        <v>115.9</v>
+        <v>43318.42192305715</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C54" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D54" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E54" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F54" t="n">
-        <v>5397</v>
+        <v>331.236</v>
       </c>
       <c r="G54" t="n">
-        <v>115.9</v>
+        <v>42987.18592305716</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C55" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D55" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E55" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F55" t="n">
-        <v>54978.8169</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="n">
-        <v>115.9</v>
+        <v>44187.18592305716</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C56" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D56" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E56" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F56" t="n">
-        <v>485.9859</v>
+        <v>600</v>
       </c>
       <c r="G56" t="n">
-        <v>115.9</v>
+        <v>44187.18592305716</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C57" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D57" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E57" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>118.5083</v>
       </c>
       <c r="G57" t="n">
-        <v>115.9</v>
+        <v>44068.67762305716</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D58" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E58" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F58" t="n">
-        <v>1956.5216</v>
+        <v>680</v>
       </c>
       <c r="G58" t="n">
-        <v>115.9</v>
+        <v>43388.67762305716</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D59" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F59" t="n">
-        <v>301</v>
+        <v>8042</v>
       </c>
       <c r="G59" t="n">
-        <v>115.95</v>
+        <v>43388.67762305716</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C60" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D60" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F60" t="n">
-        <v>2505</v>
+        <v>1950</v>
       </c>
       <c r="G60" t="n">
-        <v>116</v>
+        <v>43388.67762305716</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C61" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D61" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E61" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F61" t="n">
-        <v>5698</v>
+        <v>1932</v>
       </c>
       <c r="G61" t="n">
-        <v>115.95</v>
+        <v>43388.67762305716</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C62" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D62" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E62" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>1949</v>
       </c>
       <c r="G62" t="n">
-        <v>116</v>
+        <v>43388.67762305716</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C63" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D63" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F63" t="n">
-        <v>12315.2422</v>
+        <v>9782.753699999999</v>
       </c>
       <c r="G63" t="n">
-        <v>116.05</v>
+        <v>43388.67762305716</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C64" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D64" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E64" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F64" t="n">
-        <v>7919.0371</v>
+        <v>4148.0908</v>
       </c>
       <c r="G64" t="n">
-        <v>116.1</v>
+        <v>47536.76842305715</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C65" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D65" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F65" t="n">
-        <v>11805</v>
+        <v>2840</v>
       </c>
       <c r="G65" t="n">
-        <v>116.15</v>
+        <v>44696.76842305715</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C66" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D66" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F66" t="n">
-        <v>12475.7139</v>
+        <v>10400.6609</v>
       </c>
       <c r="G66" t="n">
-        <v>116.25</v>
+        <v>44696.76842305715</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C67" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D67" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E67" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F67" t="n">
-        <v>4865.7848</v>
+        <v>3045</v>
       </c>
       <c r="G67" t="n">
-        <v>116.25</v>
+        <v>47741.76842305715</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C68" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D68" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E68" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F68" t="n">
-        <v>674</v>
+        <v>3703</v>
       </c>
       <c r="G68" t="n">
-        <v>116.3</v>
+        <v>44038.76842305715</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C69" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D69" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E69" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F69" t="n">
-        <v>7855.7148</v>
+        <v>5080.5126</v>
       </c>
       <c r="G69" t="n">
-        <v>116.35</v>
+        <v>44038.76842305715</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C70" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D70" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E70" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F70" t="n">
-        <v>8019</v>
+        <v>6797</v>
       </c>
       <c r="G70" t="n">
-        <v>116.4</v>
+        <v>44038.76842305715</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C71" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D71" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E71" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F71" t="n">
-        <v>8628.2322</v>
+        <v>10541.9998</v>
       </c>
       <c r="G71" t="n">
-        <v>116.5</v>
+        <v>44038.76842305715</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C72" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D72" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F72" t="n">
-        <v>1838</v>
+        <v>26235.8442</v>
       </c>
       <c r="G72" t="n">
-        <v>116.5</v>
+        <v>44038.76842305715</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C73" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D73" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F73" t="n">
-        <v>825.3034</v>
+        <v>5000</v>
       </c>
       <c r="G73" t="n">
-        <v>116.45</v>
+        <v>44038.76842305715</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C74" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D74" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E74" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F74" t="n">
-        <v>7931</v>
+        <v>8025.6609</v>
       </c>
       <c r="G74" t="n">
-        <v>116.45</v>
+        <v>52064.42932305716</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C75" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D75" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F75" t="n">
-        <v>152.0432</v>
+        <v>5205</v>
       </c>
       <c r="G75" t="n">
-        <v>116.45</v>
+        <v>46859.42932305716</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C76" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D76" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E76" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F76" t="n">
-        <v>3487.3581</v>
+        <v>8306</v>
       </c>
       <c r="G76" t="n">
-        <v>116.45</v>
+        <v>55165.42932305716</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C77" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D77" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E77" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F77" t="n">
-        <v>8472</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>116.45</v>
+        <v>55166.42932305716</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C78" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D78" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E78" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F78" t="n">
-        <v>6595</v>
+        <v>7279</v>
       </c>
       <c r="G78" t="n">
-        <v>116.45</v>
+        <v>47887.42932305716</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C79" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D79" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E79" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F79" t="n">
-        <v>2244</v>
+        <v>1516</v>
       </c>
       <c r="G79" t="n">
-        <v>116.4</v>
+        <v>47887.42932305716</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C80" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D80" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E80" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F80" t="n">
-        <v>1157</v>
+        <v>7069.7403</v>
       </c>
       <c r="G80" t="n">
-        <v>116.4</v>
+        <v>54957.16962305715</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C81" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D81" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F81" t="n">
-        <v>1161</v>
+        <v>1645.22</v>
       </c>
       <c r="G81" t="n">
-        <v>116.45</v>
+        <v>53311.94962305715</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C82" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D82" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E82" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F82" t="n">
-        <v>3722</v>
+        <v>1.0084</v>
       </c>
       <c r="G82" t="n">
-        <v>116.4</v>
+        <v>53311.94962305715</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C83" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D83" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E83" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F83" t="n">
-        <v>3000</v>
+        <v>5818</v>
       </c>
       <c r="G83" t="n">
-        <v>116.35</v>
+        <v>47493.94962305715</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C84" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D84" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F84" t="n">
-        <v>2941</v>
+        <v>498</v>
       </c>
       <c r="G84" t="n">
-        <v>116.3</v>
+        <v>47493.94962305715</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D85" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F85" t="n">
-        <v>7500</v>
+        <v>3992</v>
       </c>
       <c r="G85" t="n">
-        <v>116.3</v>
+        <v>47493.94962305715</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D86" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F86" t="n">
-        <v>530</v>
+        <v>10549.1423</v>
       </c>
       <c r="G86" t="n">
-        <v>116.3</v>
+        <v>47493.94962305715</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>117</v>
       </c>
       <c r="F87" t="n">
-        <v>16953.3616</v>
+        <v>502</v>
       </c>
       <c r="G87" t="n">
-        <v>116.35</v>
+        <v>46991.94962305715</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C88" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D88" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E88" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F88" t="n">
-        <v>1014</v>
+        <v>3447.2455</v>
       </c>
       <c r="G88" t="n">
-        <v>116.3</v>
+        <v>50439.19512305715</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C89" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D89" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F89" t="n">
-        <v>945.5516</v>
+        <v>4309</v>
       </c>
       <c r="G89" t="n">
-        <v>116.3</v>
+        <v>46130.19512305715</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C90" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D90" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F90" t="n">
-        <v>1321.9999</v>
+        <v>599.3935</v>
       </c>
       <c r="G90" t="n">
-        <v>116.35</v>
+        <v>46729.58862305715</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C91" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D91" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E91" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F91" t="n">
-        <v>2888</v>
+        <v>23680.4873</v>
       </c>
       <c r="G91" t="n">
-        <v>116.3</v>
+        <v>46729.58862305715</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D92" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E92" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F92" t="n">
-        <v>842</v>
+        <v>4807</v>
       </c>
       <c r="G92" t="n">
-        <v>116.3</v>
+        <v>41922.58862305715</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C93" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D93" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E93" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F93" t="n">
-        <v>644</v>
+        <v>23621.286</v>
       </c>
       <c r="G93" t="n">
-        <v>116.3</v>
+        <v>41922.58862305715</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C94" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D94" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F94" t="n">
-        <v>644</v>
+        <v>5000</v>
       </c>
       <c r="G94" t="n">
-        <v>116.3</v>
+        <v>46922.58862305715</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D95" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F95" t="n">
-        <v>21900</v>
+        <v>7426</v>
       </c>
       <c r="G95" t="n">
-        <v>116.35</v>
+        <v>54348.58862305715</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C96" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D96" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E96" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F96" t="n">
-        <v>6379</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>116.35</v>
+        <v>54248.73862305715</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C97" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D97" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F97" t="n">
-        <v>5184</v>
+        <v>3007.9872</v>
       </c>
       <c r="G97" t="n">
-        <v>116.35</v>
+        <v>57256.72582305715</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E98" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F98" t="n">
-        <v>1657</v>
+        <v>14555.6403</v>
       </c>
       <c r="G98" t="n">
-        <v>116.4</v>
+        <v>57256.72582305715</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>117</v>
       </c>
       <c r="F99" t="n">
-        <v>1802</v>
+        <v>8745.234899999999</v>
       </c>
       <c r="G99" t="n">
-        <v>116.45</v>
+        <v>48511.49092305715</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E100" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F100" t="n">
-        <v>8762</v>
+        <v>470.4266</v>
       </c>
       <c r="G100" t="n">
-        <v>116.4</v>
+        <v>48511.49092305715</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D101" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E101" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F101" t="n">
-        <v>13016</v>
+        <v>280.9258</v>
       </c>
       <c r="G101" t="n">
-        <v>116.35</v>
+        <v>48511.49092305715</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C102" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D102" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E102" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F102" t="n">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="G102" t="n">
-        <v>116.35</v>
+        <v>48679.49092305715</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4080,16 +4080,16 @@
         <v>116</v>
       </c>
       <c r="D103" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E103" t="n">
         <v>116</v>
       </c>
       <c r="F103" t="n">
-        <v>16301.5436</v>
+        <v>2891</v>
       </c>
       <c r="G103" t="n">
-        <v>116.35</v>
+        <v>45788.49092305715</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C104" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D104" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E104" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F104" t="n">
-        <v>7202.7498</v>
+        <v>1592</v>
       </c>
       <c r="G104" t="n">
-        <v>116.3</v>
+        <v>45788.49092305715</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C105" t="n">
         <v>116</v>
@@ -4155,13 +4155,13 @@
         <v>116</v>
       </c>
       <c r="E105" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F105" t="n">
-        <v>863.6627</v>
+        <v>1503</v>
       </c>
       <c r="G105" t="n">
-        <v>116.2</v>
+        <v>45788.49092305715</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106" t="n">
         <v>116</v>
@@ -4191,13 +4191,13 @@
         <v>116</v>
       </c>
       <c r="E106" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F106" t="n">
-        <v>4871</v>
+        <v>3487</v>
       </c>
       <c r="G106" t="n">
-        <v>116.1</v>
+        <v>45788.49092305715</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4221,19 +4221,19 @@
         <v>116</v>
       </c>
       <c r="C107" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E107" t="n">
         <v>116</v>
       </c>
       <c r="F107" t="n">
-        <v>5419</v>
+        <v>1834.6413</v>
       </c>
       <c r="G107" t="n">
-        <v>116.05</v>
+        <v>45788.49092305715</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D108" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E108" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F108" t="n">
-        <v>5000</v>
+        <v>3741.2271</v>
       </c>
       <c r="G108" t="n">
-        <v>116.1</v>
+        <v>45788.49092305715</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4293,19 +4293,19 @@
         <v>116</v>
       </c>
       <c r="C109" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D109" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" t="n">
         <v>116</v>
       </c>
       <c r="F109" t="n">
-        <v>27300</v>
+        <v>2557.7279</v>
       </c>
       <c r="G109" t="n">
-        <v>116.1</v>
+        <v>45788.49092305715</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4338,10 +4338,10 @@
         <v>116</v>
       </c>
       <c r="F110" t="n">
-        <v>2398</v>
+        <v>306.7918</v>
       </c>
       <c r="G110" t="n">
-        <v>116.05</v>
+        <v>45788.49092305715</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4365,19 +4365,19 @@
         <v>116</v>
       </c>
       <c r="C111" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D111" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E111" t="n">
         <v>116</v>
       </c>
       <c r="F111" t="n">
-        <v>2041</v>
+        <v>9614.661</v>
       </c>
       <c r="G111" t="n">
-        <v>116.05</v>
+        <v>55403.15192305715</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4410,10 +4410,10 @@
         <v>117</v>
       </c>
       <c r="F112" t="n">
-        <v>26</v>
+        <v>14300</v>
       </c>
       <c r="G112" t="n">
-        <v>116.1</v>
+        <v>55403.15192305715</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D113" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E113" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F113" t="n">
-        <v>9444.291800000001</v>
+        <v>1851.6168</v>
       </c>
       <c r="G113" t="n">
-        <v>116.15</v>
+        <v>53551.53512305715</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4476,16 +4476,16 @@
         <v>116</v>
       </c>
       <c r="D114" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E114" t="n">
         <v>116</v>
       </c>
       <c r="F114" t="n">
-        <v>2095</v>
+        <v>1009.0376</v>
       </c>
       <c r="G114" t="n">
-        <v>116.15</v>
+        <v>53551.53512305715</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4518,10 +4518,10 @@
         <v>116</v>
       </c>
       <c r="F115" t="n">
-        <v>16905.9945</v>
+        <v>1677.0376</v>
       </c>
       <c r="G115" t="n">
-        <v>116.1</v>
+        <v>53551.53512305715</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E116" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F116" t="n">
-        <v>3700.003</v>
+        <v>288.0277</v>
       </c>
       <c r="G116" t="n">
-        <v>116.15</v>
+        <v>53551.53512305715</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D117" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E117" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F117" t="n">
-        <v>1096.9999</v>
+        <v>4773</v>
       </c>
       <c r="G117" t="n">
-        <v>116.2</v>
+        <v>48778.53512305715</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E118" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F118" t="n">
-        <v>21664</v>
+        <v>3003</v>
       </c>
       <c r="G118" t="n">
-        <v>116.25</v>
+        <v>51781.53512305715</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E119" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F119" t="n">
-        <v>7530</v>
+        <v>1100</v>
       </c>
       <c r="G119" t="n">
-        <v>116.25</v>
+        <v>51781.53512305715</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C120" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D120" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E120" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F120" t="n">
-        <v>2760.6354</v>
+        <v>621</v>
       </c>
       <c r="G120" t="n">
-        <v>116.3</v>
+        <v>51160.53512305715</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C121" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D121" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E121" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F121" t="n">
-        <v>491.6354</v>
+        <v>2720</v>
       </c>
       <c r="G121" t="n">
-        <v>116.4</v>
+        <v>51160.53512305715</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C122" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D122" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E122" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F122" t="n">
-        <v>3278</v>
+        <v>6509.0955</v>
       </c>
       <c r="G122" t="n">
-        <v>116.5</v>
+        <v>51160.53512305715</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C123" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D123" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E123" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F123" t="n">
-        <v>1247</v>
+        <v>9823</v>
       </c>
       <c r="G123" t="n">
-        <v>116.6</v>
+        <v>60983.53512305715</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4842,10 +4842,10 @@
         <v>117</v>
       </c>
       <c r="F124" t="n">
-        <v>2324</v>
+        <v>23208.5848</v>
       </c>
       <c r="G124" t="n">
-        <v>116.7</v>
+        <v>84192.11992305715</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D125" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E125" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F125" t="n">
-        <v>1882.5681</v>
+        <v>5397</v>
       </c>
       <c r="G125" t="n">
-        <v>116.8</v>
+        <v>78795.11992305715</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D126" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E126" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F126" t="n">
-        <v>8054.5216</v>
+        <v>54978.8169</v>
       </c>
       <c r="G126" t="n">
-        <v>116.9</v>
+        <v>23816.30302305715</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C127" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D127" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E127" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F127" t="n">
-        <v>13524.3875</v>
+        <v>485.9859</v>
       </c>
       <c r="G127" t="n">
-        <v>116.95</v>
+        <v>24302.28892305715</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D128" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E128" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F128" t="n">
-        <v>1810.0508</v>
+        <v>5000</v>
       </c>
       <c r="G128" t="n">
-        <v>116.95</v>
+        <v>24302.28892305715</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C129" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D129" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E129" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F129" t="n">
-        <v>3280.8156</v>
+        <v>1956.5216</v>
       </c>
       <c r="G129" t="n">
-        <v>117</v>
+        <v>24302.28892305715</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C130" t="n">
         <v>117</v>
@@ -5055,13 +5055,13 @@
         <v>117</v>
       </c>
       <c r="E130" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F130" t="n">
-        <v>2741.036</v>
+        <v>301</v>
       </c>
       <c r="G130" t="n">
-        <v>117</v>
+        <v>24603.28892305715</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5085,35 +5085,29 @@
         <v>117</v>
       </c>
       <c r="C131" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D131" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E131" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F131" t="n">
-        <v>2899</v>
+        <v>2505</v>
       </c>
       <c r="G131" t="n">
-        <v>117.05</v>
+        <v>22098.28892305715</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>117</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5124,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C132" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D132" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E132" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F132" t="n">
-        <v>1599</v>
+        <v>5698</v>
       </c>
       <c r="G132" t="n">
-        <v>117.1</v>
+        <v>22098.28892305715</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5149,11 +5143,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5164,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C133" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D133" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E133" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F133" t="n">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>117.15</v>
+        <v>22099.28892305715</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5189,11 +5179,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5204,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C134" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D134" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E134" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F134" t="n">
-        <v>499</v>
+        <v>12315.2422</v>
       </c>
       <c r="G134" t="n">
-        <v>117.25</v>
+        <v>22099.28892305715</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5229,11 +5215,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5244,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C135" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D135" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E135" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F135" t="n">
-        <v>499</v>
+        <v>7919.0371</v>
       </c>
       <c r="G135" t="n">
-        <v>117.35</v>
+        <v>22099.28892305715</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5269,11 +5251,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5284,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C136" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D136" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E136" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F136" t="n">
-        <v>583.471</v>
+        <v>11805</v>
       </c>
       <c r="G136" t="n">
-        <v>117.4</v>
+        <v>22099.28892305715</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5309,11 +5287,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5324,7 +5298,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C137" t="n">
         <v>118</v>
@@ -5333,13 +5307,13 @@
         <v>118</v>
       </c>
       <c r="E137" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F137" t="n">
-        <v>1216.9999</v>
+        <v>12475.7139</v>
       </c>
       <c r="G137" t="n">
-        <v>117.45</v>
+        <v>34575.00282305716</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5349,11 +5323,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5364,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C138" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D138" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E138" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F138" t="n">
-        <v>2092.2028</v>
+        <v>4865.7848</v>
       </c>
       <c r="G138" t="n">
-        <v>117.45</v>
+        <v>29709.21802305715</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5389,11 +5359,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5416,10 +5382,10 @@
         <v>117</v>
       </c>
       <c r="F139" t="n">
-        <v>495</v>
+        <v>674</v>
       </c>
       <c r="G139" t="n">
-        <v>117.45</v>
+        <v>29709.21802305715</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5429,11 +5395,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5444,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C140" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D140" t="n">
         <v>117</v>
       </c>
       <c r="E140" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F140" t="n">
-        <v>3749</v>
+        <v>7855.7148</v>
       </c>
       <c r="G140" t="n">
-        <v>117.45</v>
+        <v>21853.50322305715</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5469,11 +5431,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5484,38 +5442,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C141" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D141" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E141" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F141" t="n">
-        <v>786</v>
+        <v>8019</v>
       </c>
       <c r="G141" t="n">
-        <v>117.45</v>
+        <v>21853.50322305715</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>117</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5538,10 +5490,10 @@
         <v>117</v>
       </c>
       <c r="F142" t="n">
-        <v>1285</v>
+        <v>8628.2322</v>
       </c>
       <c r="G142" t="n">
-        <v>117.4</v>
+        <v>30481.73542305715</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5551,11 +5503,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5566,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C143" t="n">
         <v>117</v>
       </c>
       <c r="D143" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E143" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F143" t="n">
-        <v>6096.0111</v>
+        <v>1838</v>
       </c>
       <c r="G143" t="n">
-        <v>117.35</v>
+        <v>30481.73542305715</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5591,11 +5539,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5606,7 +5550,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C144" t="n">
         <v>117</v>
@@ -5615,13 +5559,13 @@
         <v>117</v>
       </c>
       <c r="E144" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F144" t="n">
-        <v>1996</v>
+        <v>825.3034</v>
       </c>
       <c r="G144" t="n">
-        <v>117.35</v>
+        <v>30481.73542305715</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5631,11 +5575,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5646,22 +5586,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C145" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D145" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E145" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F145" t="n">
-        <v>2695</v>
+        <v>7931</v>
       </c>
       <c r="G145" t="n">
-        <v>117.35</v>
+        <v>22550.73542305715</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5671,11 +5611,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5686,22 +5622,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C146" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D146" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E146" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F146" t="n">
-        <v>1299</v>
+        <v>152.0432</v>
       </c>
       <c r="G146" t="n">
-        <v>117.4</v>
+        <v>22702.77862305715</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5711,11 +5647,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5726,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C147" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D147" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E147" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F147" t="n">
-        <v>920</v>
+        <v>3487.3581</v>
       </c>
       <c r="G147" t="n">
-        <v>117.45</v>
+        <v>22702.77862305715</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5751,11 +5683,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5766,22 +5694,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C148" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D148" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E148" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F148" t="n">
-        <v>17425.4944</v>
+        <v>8472</v>
       </c>
       <c r="G148" t="n">
-        <v>117.55</v>
+        <v>14230.77862305715</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5791,11 +5719,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5806,22 +5730,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C149" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D149" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E149" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F149" t="n">
-        <v>496</v>
+        <v>6595</v>
       </c>
       <c r="G149" t="n">
-        <v>117.6</v>
+        <v>14230.77862305715</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5831,11 +5755,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5846,22 +5766,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C150" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D150" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E150" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F150" t="n">
-        <v>4874</v>
+        <v>2244</v>
       </c>
       <c r="G150" t="n">
-        <v>117.7</v>
+        <v>14230.77862305715</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5871,11 +5791,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5886,22 +5802,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C151" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D151" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E151" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F151" t="n">
-        <v>3065</v>
+        <v>1157</v>
       </c>
       <c r="G151" t="n">
-        <v>117.75</v>
+        <v>15387.77862305715</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5911,11 +5827,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5926,22 +5838,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C152" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D152" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E152" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F152" t="n">
-        <v>16653</v>
+        <v>1161</v>
       </c>
       <c r="G152" t="n">
-        <v>117.8</v>
+        <v>15387.77862305715</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5951,11 +5863,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5966,22 +5874,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C153" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D153" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E153" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F153" t="n">
-        <v>4900</v>
+        <v>3722</v>
       </c>
       <c r="G153" t="n">
-        <v>117.9</v>
+        <v>11665.77862305715</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5991,11 +5899,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6006,36 +5910,36 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C154" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D154" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E154" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F154" t="n">
-        <v>16803</v>
+        <v>3000</v>
       </c>
       <c r="G154" t="n">
-        <v>117.95</v>
+        <v>11665.77862305715</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="n">
+        <v>116</v>
+      </c>
+      <c r="K154" t="n">
+        <v>116</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6046,22 +5950,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C155" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D155" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E155" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F155" t="n">
-        <v>12075.0015</v>
+        <v>2941</v>
       </c>
       <c r="G155" t="n">
-        <v>118</v>
+        <v>14606.77862305715</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6070,10 +5974,12 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>116</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -6086,31 +5992,35 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C156" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D156" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E156" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F156" t="n">
-        <v>1171</v>
+        <v>7500</v>
       </c>
       <c r="G156" t="n">
-        <v>118.05</v>
+        <v>14606.77862305715</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>117</v>
+      </c>
+      <c r="K156" t="n">
+        <v>116</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,31 +6036,35 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C157" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D157" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E157" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F157" t="n">
-        <v>7644</v>
+        <v>530</v>
       </c>
       <c r="G157" t="n">
-        <v>118.1</v>
+        <v>14606.77862305715</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>117</v>
+      </c>
+      <c r="K157" t="n">
+        <v>116</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,31 +6080,35 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C158" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D158" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E158" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F158" t="n">
-        <v>2506</v>
+        <v>16953.3616</v>
       </c>
       <c r="G158" t="n">
-        <v>118.1</v>
+        <v>14606.77862305715</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>117</v>
+      </c>
+      <c r="K158" t="n">
+        <v>116</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,22 +6124,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C159" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D159" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E159" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F159" t="n">
-        <v>4024</v>
+        <v>1014</v>
       </c>
       <c r="G159" t="n">
-        <v>118.15</v>
+        <v>13592.77862305715</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6230,7 +6148,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>116</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6246,31 +6166,35 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C160" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D160" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E160" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F160" t="n">
-        <v>11.3389</v>
+        <v>945.5516</v>
       </c>
       <c r="G160" t="n">
-        <v>118.2</v>
+        <v>13592.77862305715</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>116</v>
+      </c>
+      <c r="K160" t="n">
+        <v>116</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6298,10 +6222,10 @@
         <v>117</v>
       </c>
       <c r="F161" t="n">
-        <v>40349</v>
+        <v>1321.9999</v>
       </c>
       <c r="G161" t="n">
-        <v>118.15</v>
+        <v>14914.77852305715</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6310,7 +6234,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>116</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,31 +6252,35 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C162" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D162" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E162" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F162" t="n">
-        <v>9145.846100000001</v>
+        <v>2888</v>
       </c>
       <c r="G162" t="n">
-        <v>118.15</v>
+        <v>12026.77852305715</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>117</v>
+      </c>
+      <c r="K162" t="n">
+        <v>116</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6366,31 +6296,35 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C163" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D163" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E163" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F163" t="n">
-        <v>10.15</v>
+        <v>842</v>
       </c>
       <c r="G163" t="n">
-        <v>118.2</v>
+        <v>12026.77852305715</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>116</v>
+      </c>
+      <c r="K163" t="n">
+        <v>116</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6406,31 +6340,35 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C164" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D164" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E164" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F164" t="n">
-        <v>3228.7981</v>
+        <v>644</v>
       </c>
       <c r="G164" t="n">
-        <v>118.2</v>
+        <v>12026.77852305715</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>116</v>
+      </c>
+      <c r="K164" t="n">
+        <v>116</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6446,31 +6384,35 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C165" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D165" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E165" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F165" t="n">
-        <v>3774.4605</v>
+        <v>644</v>
       </c>
       <c r="G165" t="n">
-        <v>118.25</v>
+        <v>12026.77852305715</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>116</v>
+      </c>
+      <c r="K165" t="n">
+        <v>116</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6486,31 +6428,35 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C166" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D166" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E166" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F166" t="n">
-        <v>5613</v>
+        <v>21900</v>
       </c>
       <c r="G166" t="n">
-        <v>118.25</v>
+        <v>33926.77852305715</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>116</v>
+      </c>
+      <c r="K166" t="n">
+        <v>116</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6526,31 +6472,35 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C167" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D167" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E167" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F167" t="n">
-        <v>12551.3878</v>
+        <v>6379</v>
       </c>
       <c r="G167" t="n">
-        <v>118.3</v>
+        <v>27547.77852305715</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>117</v>
+      </c>
+      <c r="K167" t="n">
+        <v>116</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6566,22 +6516,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C168" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D168" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E168" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F168" t="n">
-        <v>1855</v>
+        <v>5184</v>
       </c>
       <c r="G168" t="n">
-        <v>118.3</v>
+        <v>27547.77852305715</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6590,7 +6540,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>116</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6606,31 +6558,35 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C169" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D169" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E169" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F169" t="n">
-        <v>1425</v>
+        <v>1657</v>
       </c>
       <c r="G169" t="n">
-        <v>118.35</v>
+        <v>29204.77852305715</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>116</v>
+      </c>
+      <c r="K169" t="n">
+        <v>116</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6646,22 +6602,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C170" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D170" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E170" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F170" t="n">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="G170" t="n">
-        <v>118.4</v>
+        <v>29204.77852305715</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6670,7 +6626,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>116</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6686,22 +6644,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C171" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D171" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E171" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F171" t="n">
-        <v>10</v>
+        <v>8762</v>
       </c>
       <c r="G171" t="n">
-        <v>118.5</v>
+        <v>20442.77852305715</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6710,7 +6668,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>116</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6726,22 +6686,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C172" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D172" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E172" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F172" t="n">
-        <v>6359</v>
+        <v>13016</v>
       </c>
       <c r="G172" t="n">
-        <v>118.55</v>
+        <v>20442.77852305715</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6750,7 +6710,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>116</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6766,22 +6728,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C173" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D173" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E173" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F173" t="n">
-        <v>9458.1212</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
-        <v>118.5</v>
+        <v>20442.77852305715</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6790,7 +6752,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>116</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6806,22 +6770,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C174" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D174" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E174" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F174" t="n">
-        <v>550</v>
+        <v>16301.5436</v>
       </c>
       <c r="G174" t="n">
-        <v>118.55</v>
+        <v>20442.77852305715</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6830,7 +6794,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>116</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,22 +6812,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C175" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D175" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E175" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F175" t="n">
-        <v>1505.7058</v>
+        <v>7202.7498</v>
       </c>
       <c r="G175" t="n">
-        <v>118.55</v>
+        <v>13240.02872305715</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6870,7 +6836,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>116</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,22 +6854,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C176" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D176" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E176" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F176" t="n">
-        <v>472</v>
+        <v>863.6627</v>
       </c>
       <c r="G176" t="n">
-        <v>118.5</v>
+        <v>14103.69142305715</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6910,7 +6878,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>116</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6926,22 +6896,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C177" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D177" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E177" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F177" t="n">
-        <v>527</v>
+        <v>4871</v>
       </c>
       <c r="G177" t="n">
-        <v>118.45</v>
+        <v>14103.69142305715</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6950,7 +6920,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>116</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6966,22 +6938,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C178" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D178" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E178" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F178" t="n">
-        <v>308.713</v>
+        <v>5419</v>
       </c>
       <c r="G178" t="n">
-        <v>118.5</v>
+        <v>19522.69142305716</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6990,7 +6962,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>116</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7006,22 +6980,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C179" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D179" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E179" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F179" t="n">
-        <v>737.4609</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="n">
-        <v>118.65</v>
+        <v>19522.69142305716</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7030,7 +7004,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>116</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7046,22 +7022,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C180" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D180" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E180" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F180" t="n">
-        <v>293.3855</v>
+        <v>27300</v>
       </c>
       <c r="G180" t="n">
-        <v>118.75</v>
+        <v>19522.69142305716</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7070,7 +7046,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>116</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7086,22 +7064,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C181" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D181" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E181" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F181" t="n">
-        <v>5388</v>
+        <v>2398</v>
       </c>
       <c r="G181" t="n">
-        <v>118.85</v>
+        <v>17124.69142305716</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7110,7 +7088,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>116</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,22 +7106,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C182" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D182" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E182" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F182" t="n">
-        <v>555</v>
+        <v>2041</v>
       </c>
       <c r="G182" t="n">
-        <v>119</v>
+        <v>17124.69142305716</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7150,7 +7130,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>116</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,22 +7148,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C183" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D183" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E183" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F183" t="n">
-        <v>144.841</v>
+        <v>26</v>
       </c>
       <c r="G183" t="n">
-        <v>119.1</v>
+        <v>17150.69142305716</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7190,7 +7172,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>116</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,22 +7190,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C184" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D184" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E184" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F184" t="n">
-        <v>589</v>
+        <v>9444.291800000001</v>
       </c>
       <c r="G184" t="n">
-        <v>119.2</v>
+        <v>17150.69142305716</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7230,7 +7214,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>116</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7246,22 +7232,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C185" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D185" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E185" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F185" t="n">
-        <v>307.5398</v>
+        <v>2095</v>
       </c>
       <c r="G185" t="n">
-        <v>119.25</v>
+        <v>15055.69142305716</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7270,7 +7256,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>116</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,22 +7274,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C186" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D186" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E186" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F186" t="n">
-        <v>102.4602</v>
+        <v>16905.9945</v>
       </c>
       <c r="G186" t="n">
-        <v>119.3</v>
+        <v>15055.69142305716</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7310,7 +7298,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>116</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,22 +7316,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C187" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D187" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E187" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F187" t="n">
-        <v>646</v>
+        <v>3700.003</v>
       </c>
       <c r="G187" t="n">
-        <v>119.25</v>
+        <v>18755.69442305716</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7350,7 +7340,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>116</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7378,10 +7370,10 @@
         <v>117</v>
       </c>
       <c r="F188" t="n">
-        <v>4235</v>
+        <v>1096.9999</v>
       </c>
       <c r="G188" t="n">
-        <v>119.15</v>
+        <v>18755.69442305716</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7390,7 +7382,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>116</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7406,22 +7400,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C189" t="n">
         <v>117</v>
       </c>
       <c r="D189" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E189" t="n">
         <v>117</v>
       </c>
       <c r="F189" t="n">
-        <v>2244</v>
+        <v>21664</v>
       </c>
       <c r="G189" t="n">
-        <v>119.05</v>
+        <v>18755.69442305716</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7430,7 +7424,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>116</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7446,22 +7442,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C190" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D190" t="n">
         <v>119</v>
       </c>
       <c r="E190" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F190" t="n">
-        <v>10683</v>
+        <v>7530</v>
       </c>
       <c r="G190" t="n">
-        <v>119</v>
+        <v>18755.69442305716</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7470,7 +7466,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>116</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7486,22 +7484,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C191" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D191" t="n">
         <v>119</v>
       </c>
       <c r="E191" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F191" t="n">
-        <v>1570.4661</v>
+        <v>2760.6354</v>
       </c>
       <c r="G191" t="n">
-        <v>118.9</v>
+        <v>18755.69442305716</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7510,7 +7508,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>116</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7529,19 +7529,19 @@
         <v>118</v>
       </c>
       <c r="C192" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D192" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E192" t="n">
         <v>118</v>
       </c>
       <c r="F192" t="n">
-        <v>1246</v>
+        <v>491.6354</v>
       </c>
       <c r="G192" t="n">
-        <v>118.8</v>
+        <v>19247.32982305716</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7550,7 +7550,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>116</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,10 +7580,10 @@
         <v>118</v>
       </c>
       <c r="F193" t="n">
-        <v>999</v>
+        <v>3278</v>
       </c>
       <c r="G193" t="n">
-        <v>118.75</v>
+        <v>19247.32982305716</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7590,7 +7592,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>116</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7609,19 +7613,19 @@
         <v>118</v>
       </c>
       <c r="C194" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D194" t="n">
         <v>118</v>
       </c>
       <c r="E194" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F194" t="n">
-        <v>3660</v>
+        <v>1247</v>
       </c>
       <c r="G194" t="n">
-        <v>118.65</v>
+        <v>19247.32982305716</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7630,7 +7634,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>116</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7646,22 +7652,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C195" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D195" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E195" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F195" t="n">
-        <v>1009</v>
+        <v>2324</v>
       </c>
       <c r="G195" t="n">
-        <v>118.6</v>
+        <v>16923.32982305716</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7670,7 +7676,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>116</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7686,7 +7694,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C196" t="n">
         <v>118</v>
@@ -7695,13 +7703,13 @@
         <v>118</v>
       </c>
       <c r="E196" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F196" t="n">
-        <v>657</v>
+        <v>1882.5681</v>
       </c>
       <c r="G196" t="n">
-        <v>118.6</v>
+        <v>18805.89792305716</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7710,7 +7718,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>116</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7732,16 +7742,16 @@
         <v>117</v>
       </c>
       <c r="D197" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E197" t="n">
         <v>117</v>
       </c>
       <c r="F197" t="n">
-        <v>2485</v>
+        <v>8054.5216</v>
       </c>
       <c r="G197" t="n">
-        <v>118.55</v>
+        <v>10751.37632305716</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7750,7 +7760,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>116</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7772,16 +7784,16 @@
         <v>117</v>
       </c>
       <c r="D198" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E198" t="n">
         <v>117</v>
       </c>
       <c r="F198" t="n">
-        <v>2.8868</v>
+        <v>13524.3875</v>
       </c>
       <c r="G198" t="n">
-        <v>118.45</v>
+        <v>10751.37632305716</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7790,7 +7802,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>116</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7818,10 +7832,10 @@
         <v>117</v>
       </c>
       <c r="F199" t="n">
-        <v>10539.4298</v>
+        <v>1810.0508</v>
       </c>
       <c r="G199" t="n">
-        <v>118.25</v>
+        <v>10751.37632305716</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7830,7 +7844,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>116</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7858,21 +7874,21 @@
         <v>117</v>
       </c>
       <c r="F200" t="n">
-        <v>3913.8257</v>
+        <v>3280.8156</v>
       </c>
       <c r="G200" t="n">
-        <v>118.1</v>
+        <v>10751.37632305716</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>117</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>116</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7888,33 +7904,33 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C201" t="n">
         <v>117</v>
       </c>
       <c r="D201" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E201" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F201" t="n">
-        <v>6597.9999</v>
+        <v>2741.036</v>
       </c>
       <c r="G201" t="n">
-        <v>118</v>
+        <v>10751.37632305716</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>117</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>116</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7936,16 +7952,16 @@
         <v>117</v>
       </c>
       <c r="D202" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E202" t="n">
         <v>117</v>
       </c>
       <c r="F202" t="n">
-        <v>6297.8257</v>
+        <v>2899</v>
       </c>
       <c r="G202" t="n">
-        <v>117.85</v>
+        <v>10751.37632305716</v>
       </c>
       <c r="H202" t="n">
         <v>1</v>
@@ -7956,7 +7972,9 @@
       <c r="J202" t="n">
         <v>117</v>
       </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>116</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,33 +7990,33 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C203" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D203" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E203" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F203" t="n">
-        <v>119.8461</v>
+        <v>1599</v>
       </c>
       <c r="G203" t="n">
-        <v>117.7</v>
+        <v>12350.37632305716</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>117</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>116</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8014,7 +8032,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C204" t="n">
         <v>118</v>
@@ -8023,24 +8041,24 @@
         <v>118</v>
       </c>
       <c r="E204" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F204" t="n">
-        <v>3212.9999</v>
+        <v>499</v>
       </c>
       <c r="G204" t="n">
-        <v>117.6</v>
+        <v>12350.37632305716</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>117</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>116</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8056,33 +8074,33 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C205" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D205" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E205" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F205" t="n">
-        <v>3239.9998</v>
+        <v>499</v>
       </c>
       <c r="G205" t="n">
-        <v>117.5</v>
+        <v>12350.37632305716</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>118</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>116</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8098,42 +8116,3026 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C206" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D206" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E206" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F206" t="n">
+        <v>499</v>
+      </c>
+      <c r="G206" t="n">
+        <v>12350.37632305716</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>116</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>118</v>
+      </c>
+      <c r="C207" t="n">
+        <v>118</v>
+      </c>
+      <c r="D207" t="n">
+        <v>118</v>
+      </c>
+      <c r="E207" t="n">
+        <v>118</v>
+      </c>
+      <c r="F207" t="n">
+        <v>583.471</v>
+      </c>
+      <c r="G207" t="n">
+        <v>12350.37632305716</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>116</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>118</v>
+      </c>
+      <c r="C208" t="n">
+        <v>118</v>
+      </c>
+      <c r="D208" t="n">
+        <v>118</v>
+      </c>
+      <c r="E208" t="n">
+        <v>118</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1216.9999</v>
+      </c>
+      <c r="G208" t="n">
+        <v>12350.37632305716</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>116</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>118</v>
+      </c>
+      <c r="C209" t="n">
+        <v>118</v>
+      </c>
+      <c r="D209" t="n">
+        <v>118</v>
+      </c>
+      <c r="E209" t="n">
+        <v>118</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2092.2028</v>
+      </c>
+      <c r="G209" t="n">
+        <v>12350.37632305716</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>116</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>117</v>
+      </c>
+      <c r="C210" t="n">
+        <v>117</v>
+      </c>
+      <c r="D210" t="n">
+        <v>117</v>
+      </c>
+      <c r="E210" t="n">
+        <v>117</v>
+      </c>
+      <c r="F210" t="n">
+        <v>495</v>
+      </c>
+      <c r="G210" t="n">
+        <v>11855.37632305716</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>116</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>117</v>
+      </c>
+      <c r="C211" t="n">
+        <v>117</v>
+      </c>
+      <c r="D211" t="n">
+        <v>117</v>
+      </c>
+      <c r="E211" t="n">
+        <v>117</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3749</v>
+      </c>
+      <c r="G211" t="n">
+        <v>11855.37632305716</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>116</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>118</v>
+      </c>
+      <c r="C212" t="n">
+        <v>118</v>
+      </c>
+      <c r="D212" t="n">
+        <v>118</v>
+      </c>
+      <c r="E212" t="n">
+        <v>118</v>
+      </c>
+      <c r="F212" t="n">
+        <v>786</v>
+      </c>
+      <c r="G212" t="n">
+        <v>12641.37632305716</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>117</v>
+      </c>
+      <c r="K212" t="n">
+        <v>116</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>117</v>
+      </c>
+      <c r="C213" t="n">
+        <v>117</v>
+      </c>
+      <c r="D213" t="n">
+        <v>117</v>
+      </c>
+      <c r="E213" t="n">
+        <v>117</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1285</v>
+      </c>
+      <c r="G213" t="n">
+        <v>11356.37632305716</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>116</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>117</v>
+      </c>
+      <c r="C214" t="n">
+        <v>117</v>
+      </c>
+      <c r="D214" t="n">
+        <v>119</v>
+      </c>
+      <c r="E214" t="n">
+        <v>117</v>
+      </c>
+      <c r="F214" t="n">
+        <v>6096.0111</v>
+      </c>
+      <c r="G214" t="n">
+        <v>11356.37632305716</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>116</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>117</v>
+      </c>
+      <c r="C215" t="n">
+        <v>117</v>
+      </c>
+      <c r="D215" t="n">
+        <v>117</v>
+      </c>
+      <c r="E215" t="n">
+        <v>117</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G215" t="n">
+        <v>11356.37632305716</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>116</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>117</v>
+      </c>
+      <c r="C216" t="n">
+        <v>117</v>
+      </c>
+      <c r="D216" t="n">
+        <v>117</v>
+      </c>
+      <c r="E216" t="n">
+        <v>117</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2695</v>
+      </c>
+      <c r="G216" t="n">
+        <v>11356.37632305716</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>116</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>118</v>
+      </c>
+      <c r="C217" t="n">
+        <v>118</v>
+      </c>
+      <c r="D217" t="n">
+        <v>118</v>
+      </c>
+      <c r="E217" t="n">
+        <v>118</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1299</v>
+      </c>
+      <c r="G217" t="n">
+        <v>12655.37632305716</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>116</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>118</v>
+      </c>
+      <c r="C218" t="n">
+        <v>118</v>
+      </c>
+      <c r="D218" t="n">
+        <v>118</v>
+      </c>
+      <c r="E218" t="n">
+        <v>118</v>
+      </c>
+      <c r="F218" t="n">
+        <v>920</v>
+      </c>
+      <c r="G218" t="n">
+        <v>12655.37632305716</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>116</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>119</v>
+      </c>
+      <c r="C219" t="n">
+        <v>118</v>
+      </c>
+      <c r="D219" t="n">
+        <v>119</v>
+      </c>
+      <c r="E219" t="n">
+        <v>118</v>
+      </c>
+      <c r="F219" t="n">
+        <v>17425.4944</v>
+      </c>
+      <c r="G219" t="n">
+        <v>12655.37632305716</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>116</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>118</v>
+      </c>
+      <c r="C220" t="n">
+        <v>118</v>
+      </c>
+      <c r="D220" t="n">
+        <v>118</v>
+      </c>
+      <c r="E220" t="n">
+        <v>118</v>
+      </c>
+      <c r="F220" t="n">
+        <v>496</v>
+      </c>
+      <c r="G220" t="n">
+        <v>12655.37632305716</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>116</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>118</v>
+      </c>
+      <c r="C221" t="n">
+        <v>118</v>
+      </c>
+      <c r="D221" t="n">
+        <v>118</v>
+      </c>
+      <c r="E221" t="n">
+        <v>118</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4874</v>
+      </c>
+      <c r="G221" t="n">
+        <v>12655.37632305716</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>116</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>118</v>
+      </c>
+      <c r="C222" t="n">
+        <v>118</v>
+      </c>
+      <c r="D222" t="n">
+        <v>118</v>
+      </c>
+      <c r="E222" t="n">
+        <v>118</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3065</v>
+      </c>
+      <c r="G222" t="n">
+        <v>12655.37632305716</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>116</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>119</v>
+      </c>
+      <c r="C223" t="n">
+        <v>120</v>
+      </c>
+      <c r="D223" t="n">
+        <v>120</v>
+      </c>
+      <c r="E223" t="n">
+        <v>119</v>
+      </c>
+      <c r="F223" t="n">
+        <v>16653</v>
+      </c>
+      <c r="G223" t="n">
+        <v>29308.37632305716</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>116</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>120</v>
+      </c>
+      <c r="C224" t="n">
+        <v>120</v>
+      </c>
+      <c r="D224" t="n">
+        <v>120</v>
+      </c>
+      <c r="E224" t="n">
+        <v>120</v>
+      </c>
+      <c r="F224" t="n">
+        <v>4900</v>
+      </c>
+      <c r="G224" t="n">
+        <v>29308.37632305716</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>116</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>119</v>
+      </c>
+      <c r="C225" t="n">
+        <v>120</v>
+      </c>
+      <c r="D225" t="n">
+        <v>121</v>
+      </c>
+      <c r="E225" t="n">
+        <v>119</v>
+      </c>
+      <c r="F225" t="n">
+        <v>16803</v>
+      </c>
+      <c r="G225" t="n">
+        <v>29308.37632305716</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>116</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>119</v>
+      </c>
+      <c r="C226" t="n">
+        <v>119</v>
+      </c>
+      <c r="D226" t="n">
+        <v>119</v>
+      </c>
+      <c r="E226" t="n">
+        <v>119</v>
+      </c>
+      <c r="F226" t="n">
+        <v>12075.0015</v>
+      </c>
+      <c r="G226" t="n">
+        <v>17233.37482305716</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>116</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>119</v>
+      </c>
+      <c r="C227" t="n">
+        <v>119</v>
+      </c>
+      <c r="D227" t="n">
+        <v>119</v>
+      </c>
+      <c r="E227" t="n">
+        <v>119</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1171</v>
+      </c>
+      <c r="G227" t="n">
+        <v>17233.37482305716</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>116</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>119</v>
+      </c>
+      <c r="C228" t="n">
+        <v>119</v>
+      </c>
+      <c r="D228" t="n">
+        <v>119</v>
+      </c>
+      <c r="E228" t="n">
+        <v>119</v>
+      </c>
+      <c r="F228" t="n">
+        <v>7644</v>
+      </c>
+      <c r="G228" t="n">
+        <v>17233.37482305716</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>116</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>118</v>
+      </c>
+      <c r="C229" t="n">
+        <v>118</v>
+      </c>
+      <c r="D229" t="n">
+        <v>118</v>
+      </c>
+      <c r="E229" t="n">
+        <v>118</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2506</v>
+      </c>
+      <c r="G229" t="n">
+        <v>14727.37482305716</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>116</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>118</v>
+      </c>
+      <c r="C230" t="n">
+        <v>118</v>
+      </c>
+      <c r="D230" t="n">
+        <v>118</v>
+      </c>
+      <c r="E230" t="n">
+        <v>118</v>
+      </c>
+      <c r="F230" t="n">
+        <v>4024</v>
+      </c>
+      <c r="G230" t="n">
+        <v>14727.37482305716</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>116</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>118</v>
+      </c>
+      <c r="C231" t="n">
+        <v>118</v>
+      </c>
+      <c r="D231" t="n">
+        <v>118</v>
+      </c>
+      <c r="E231" t="n">
+        <v>118</v>
+      </c>
+      <c r="F231" t="n">
+        <v>11.3389</v>
+      </c>
+      <c r="G231" t="n">
+        <v>14727.37482305716</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>116</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>117</v>
+      </c>
+      <c r="C232" t="n">
+        <v>117</v>
+      </c>
+      <c r="D232" t="n">
+        <v>117</v>
+      </c>
+      <c r="E232" t="n">
+        <v>117</v>
+      </c>
+      <c r="F232" t="n">
+        <v>40349</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-25621.62517694284</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>116</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>117</v>
+      </c>
+      <c r="C233" t="n">
+        <v>117</v>
+      </c>
+      <c r="D233" t="n">
+        <v>117</v>
+      </c>
+      <c r="E233" t="n">
+        <v>117</v>
+      </c>
+      <c r="F233" t="n">
+        <v>9145.846100000001</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-25621.62517694284</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>116</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>118</v>
+      </c>
+      <c r="C234" t="n">
+        <v>118</v>
+      </c>
+      <c r="D234" t="n">
+        <v>118</v>
+      </c>
+      <c r="E234" t="n">
+        <v>118</v>
+      </c>
+      <c r="F234" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-25611.47517694284</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>116</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>117</v>
+      </c>
+      <c r="C235" t="n">
+        <v>117</v>
+      </c>
+      <c r="D235" t="n">
+        <v>117</v>
+      </c>
+      <c r="E235" t="n">
+        <v>117</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3228.7981</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-28840.27327694284</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>116</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>118</v>
+      </c>
+      <c r="C236" t="n">
+        <v>118</v>
+      </c>
+      <c r="D236" t="n">
+        <v>118</v>
+      </c>
+      <c r="E236" t="n">
+        <v>118</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3774.4605</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-25065.81277694284</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>116</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>118</v>
+      </c>
+      <c r="C237" t="n">
+        <v>118</v>
+      </c>
+      <c r="D237" t="n">
+        <v>118</v>
+      </c>
+      <c r="E237" t="n">
+        <v>118</v>
+      </c>
+      <c r="F237" t="n">
+        <v>5613</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-25065.81277694284</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>116</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>119</v>
+      </c>
+      <c r="C238" t="n">
+        <v>119</v>
+      </c>
+      <c r="D238" t="n">
+        <v>119</v>
+      </c>
+      <c r="E238" t="n">
+        <v>119</v>
+      </c>
+      <c r="F238" t="n">
+        <v>12551.3878</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-12514.42497694284</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>116</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>119</v>
+      </c>
+      <c r="C239" t="n">
+        <v>119</v>
+      </c>
+      <c r="D239" t="n">
+        <v>119</v>
+      </c>
+      <c r="E239" t="n">
+        <v>119</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1855</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-12514.42497694284</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>116</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>119</v>
+      </c>
+      <c r="C240" t="n">
+        <v>119</v>
+      </c>
+      <c r="D240" t="n">
+        <v>119</v>
+      </c>
+      <c r="E240" t="n">
+        <v>119</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1425</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-12514.42497694284</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>116</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>119</v>
+      </c>
+      <c r="C241" t="n">
+        <v>120</v>
+      </c>
+      <c r="D241" t="n">
+        <v>120</v>
+      </c>
+      <c r="E241" t="n">
+        <v>119</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-10714.42497694284</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>116</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>120</v>
+      </c>
+      <c r="C242" t="n">
+        <v>120</v>
+      </c>
+      <c r="D242" t="n">
+        <v>120</v>
+      </c>
+      <c r="E242" t="n">
+        <v>120</v>
+      </c>
+      <c r="F242" t="n">
+        <v>10</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-10714.42497694284</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>116</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>120</v>
+      </c>
+      <c r="C243" t="n">
+        <v>120</v>
+      </c>
+      <c r="D243" t="n">
+        <v>120</v>
+      </c>
+      <c r="E243" t="n">
+        <v>120</v>
+      </c>
+      <c r="F243" t="n">
+        <v>6359</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-10714.42497694284</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>116</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>119</v>
+      </c>
+      <c r="C244" t="n">
+        <v>119</v>
+      </c>
+      <c r="D244" t="n">
+        <v>120</v>
+      </c>
+      <c r="E244" t="n">
+        <v>119</v>
+      </c>
+      <c r="F244" t="n">
+        <v>9458.1212</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-20172.54617694284</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>116</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>120</v>
+      </c>
+      <c r="C245" t="n">
+        <v>120</v>
+      </c>
+      <c r="D245" t="n">
+        <v>120</v>
+      </c>
+      <c r="E245" t="n">
+        <v>120</v>
+      </c>
+      <c r="F245" t="n">
+        <v>550</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-19622.54617694284</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>116</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>119</v>
+      </c>
+      <c r="C246" t="n">
+        <v>118</v>
+      </c>
+      <c r="D246" t="n">
+        <v>119</v>
+      </c>
+      <c r="E246" t="n">
+        <v>118</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1505.7058</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-21128.25197694284</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>116</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>118</v>
+      </c>
+      <c r="C247" t="n">
+        <v>118</v>
+      </c>
+      <c r="D247" t="n">
+        <v>118</v>
+      </c>
+      <c r="E247" t="n">
+        <v>118</v>
+      </c>
+      <c r="F247" t="n">
+        <v>472</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-21128.25197694284</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>116</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>118</v>
+      </c>
+      <c r="C248" t="n">
+        <v>118</v>
+      </c>
+      <c r="D248" t="n">
+        <v>118</v>
+      </c>
+      <c r="E248" t="n">
+        <v>118</v>
+      </c>
+      <c r="F248" t="n">
+        <v>527</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-21128.25197694284</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>116</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>119</v>
+      </c>
+      <c r="C249" t="n">
+        <v>119</v>
+      </c>
+      <c r="D249" t="n">
+        <v>119</v>
+      </c>
+      <c r="E249" t="n">
+        <v>119</v>
+      </c>
+      <c r="F249" t="n">
+        <v>308.713</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-20819.53897694284</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>116</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>121</v>
+      </c>
+      <c r="C250" t="n">
+        <v>121</v>
+      </c>
+      <c r="D250" t="n">
+        <v>121</v>
+      </c>
+      <c r="E250" t="n">
+        <v>121</v>
+      </c>
+      <c r="F250" t="n">
+        <v>737.4609</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-20082.07807694284</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>116</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>120</v>
+      </c>
+      <c r="C251" t="n">
+        <v>120</v>
+      </c>
+      <c r="D251" t="n">
+        <v>120</v>
+      </c>
+      <c r="E251" t="n">
+        <v>120</v>
+      </c>
+      <c r="F251" t="n">
+        <v>293.3855</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-20375.46357694284</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>116</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>119</v>
+      </c>
+      <c r="C252" t="n">
+        <v>119</v>
+      </c>
+      <c r="D252" t="n">
+        <v>119</v>
+      </c>
+      <c r="E252" t="n">
+        <v>119</v>
+      </c>
+      <c r="F252" t="n">
+        <v>5388</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-25763.46357694284</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>116</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>120</v>
+      </c>
+      <c r="C253" t="n">
+        <v>120</v>
+      </c>
+      <c r="D253" t="n">
+        <v>120</v>
+      </c>
+      <c r="E253" t="n">
+        <v>120</v>
+      </c>
+      <c r="F253" t="n">
+        <v>555</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-25208.46357694284</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>116</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>120</v>
+      </c>
+      <c r="C254" t="n">
+        <v>120</v>
+      </c>
+      <c r="D254" t="n">
+        <v>120</v>
+      </c>
+      <c r="E254" t="n">
+        <v>120</v>
+      </c>
+      <c r="F254" t="n">
+        <v>144.841</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-25208.46357694284</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>116</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>119</v>
+      </c>
+      <c r="C255" t="n">
+        <v>119</v>
+      </c>
+      <c r="D255" t="n">
+        <v>119</v>
+      </c>
+      <c r="E255" t="n">
+        <v>119</v>
+      </c>
+      <c r="F255" t="n">
+        <v>589</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-25797.46357694284</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>116</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>119</v>
+      </c>
+      <c r="C256" t="n">
+        <v>119</v>
+      </c>
+      <c r="D256" t="n">
+        <v>119</v>
+      </c>
+      <c r="E256" t="n">
+        <v>119</v>
+      </c>
+      <c r="F256" t="n">
+        <v>307.5398</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-25797.46357694284</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>116</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>119</v>
+      </c>
+      <c r="C257" t="n">
+        <v>119</v>
+      </c>
+      <c r="D257" t="n">
+        <v>119</v>
+      </c>
+      <c r="E257" t="n">
+        <v>119</v>
+      </c>
+      <c r="F257" t="n">
+        <v>102.4602</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-25797.46357694284</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>116</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>118</v>
+      </c>
+      <c r="C258" t="n">
+        <v>118</v>
+      </c>
+      <c r="D258" t="n">
+        <v>118</v>
+      </c>
+      <c r="E258" t="n">
+        <v>118</v>
+      </c>
+      <c r="F258" t="n">
+        <v>646</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-26443.46357694284</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>116</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>117</v>
+      </c>
+      <c r="C259" t="n">
+        <v>117</v>
+      </c>
+      <c r="D259" t="n">
+        <v>117</v>
+      </c>
+      <c r="E259" t="n">
+        <v>117</v>
+      </c>
+      <c r="F259" t="n">
+        <v>4235</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-30678.46357694284</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>116</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>117</v>
+      </c>
+      <c r="C260" t="n">
+        <v>117</v>
+      </c>
+      <c r="D260" t="n">
+        <v>117</v>
+      </c>
+      <c r="E260" t="n">
+        <v>117</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2244</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-30678.46357694284</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>116</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>118</v>
+      </c>
+      <c r="C261" t="n">
+        <v>119</v>
+      </c>
+      <c r="D261" t="n">
+        <v>119</v>
+      </c>
+      <c r="E261" t="n">
+        <v>118</v>
+      </c>
+      <c r="F261" t="n">
+        <v>10683</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-19995.46357694284</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>116</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>118</v>
+      </c>
+      <c r="C262" t="n">
+        <v>119</v>
+      </c>
+      <c r="D262" t="n">
+        <v>119</v>
+      </c>
+      <c r="E262" t="n">
+        <v>118</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1570.4661</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-19995.46357694284</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>116</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>118</v>
+      </c>
+      <c r="C263" t="n">
+        <v>119</v>
+      </c>
+      <c r="D263" t="n">
+        <v>119</v>
+      </c>
+      <c r="E263" t="n">
+        <v>118</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1246</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-19995.46357694284</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>116</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>118</v>
+      </c>
+      <c r="C264" t="n">
+        <v>118</v>
+      </c>
+      <c r="D264" t="n">
+        <v>118</v>
+      </c>
+      <c r="E264" t="n">
+        <v>118</v>
+      </c>
+      <c r="F264" t="n">
+        <v>999</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-20994.46357694284</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>116</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>118</v>
+      </c>
+      <c r="C265" t="n">
+        <v>117</v>
+      </c>
+      <c r="D265" t="n">
+        <v>118</v>
+      </c>
+      <c r="E265" t="n">
+        <v>117</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3660</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-24654.46357694284</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>116</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>118</v>
+      </c>
+      <c r="C266" t="n">
+        <v>118</v>
+      </c>
+      <c r="D266" t="n">
+        <v>118</v>
+      </c>
+      <c r="E266" t="n">
+        <v>118</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-23645.46357694284</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>116</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>118</v>
+      </c>
+      <c r="C267" t="n">
+        <v>118</v>
+      </c>
+      <c r="D267" t="n">
+        <v>118</v>
+      </c>
+      <c r="E267" t="n">
+        <v>118</v>
+      </c>
+      <c r="F267" t="n">
+        <v>657</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-23645.46357694284</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>116</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>117</v>
+      </c>
+      <c r="C268" t="n">
+        <v>117</v>
+      </c>
+      <c r="D268" t="n">
+        <v>117</v>
+      </c>
+      <c r="E268" t="n">
+        <v>117</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2485</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>116</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>117</v>
+      </c>
+      <c r="C269" t="n">
+        <v>117</v>
+      </c>
+      <c r="D269" t="n">
+        <v>117</v>
+      </c>
+      <c r="E269" t="n">
+        <v>117</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2.8868</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>116</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>117</v>
+      </c>
+      <c r="C270" t="n">
+        <v>117</v>
+      </c>
+      <c r="D270" t="n">
+        <v>117</v>
+      </c>
+      <c r="E270" t="n">
+        <v>117</v>
+      </c>
+      <c r="F270" t="n">
+        <v>10539.4298</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>116</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>117</v>
+      </c>
+      <c r="C271" t="n">
+        <v>117</v>
+      </c>
+      <c r="D271" t="n">
+        <v>117</v>
+      </c>
+      <c r="E271" t="n">
+        <v>117</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3913.8257</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>116</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>117</v>
+      </c>
+      <c r="C272" t="n">
+        <v>117</v>
+      </c>
+      <c r="D272" t="n">
+        <v>118</v>
+      </c>
+      <c r="E272" t="n">
+        <v>117</v>
+      </c>
+      <c r="F272" t="n">
+        <v>6597.9999</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>116</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>117</v>
+      </c>
+      <c r="C273" t="n">
+        <v>117</v>
+      </c>
+      <c r="D273" t="n">
+        <v>117</v>
+      </c>
+      <c r="E273" t="n">
+        <v>117</v>
+      </c>
+      <c r="F273" t="n">
+        <v>6297.8257</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>116</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>117</v>
+      </c>
+      <c r="C274" t="n">
+        <v>117</v>
+      </c>
+      <c r="D274" t="n">
+        <v>117</v>
+      </c>
+      <c r="E274" t="n">
+        <v>117</v>
+      </c>
+      <c r="F274" t="n">
+        <v>119.8461</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>116</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>117</v>
+      </c>
+      <c r="C275" t="n">
+        <v>118</v>
+      </c>
+      <c r="D275" t="n">
+        <v>118</v>
+      </c>
+      <c r="E275" t="n">
+        <v>117</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3212.9999</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-22917.46367694284</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>116</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>117</v>
+      </c>
+      <c r="C276" t="n">
+        <v>117</v>
+      </c>
+      <c r="D276" t="n">
+        <v>117</v>
+      </c>
+      <c r="E276" t="n">
+        <v>117</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3239.9998</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-26157.46347694284</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>116</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>117</v>
+      </c>
+      <c r="C277" t="n">
+        <v>117</v>
+      </c>
+      <c r="D277" t="n">
+        <v>117</v>
+      </c>
+      <c r="E277" t="n">
+        <v>117</v>
+      </c>
+      <c r="F277" t="n">
         <v>974</v>
       </c>
-      <c r="G206" t="n">
-        <v>117.4</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>117</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>-26157.46347694284</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>116</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>33953.47202305715</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>32672.77382305716</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>57699.40182305715</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>27891.72052305715</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>27661.79892305715</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>27661.79892305715</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>27661.79892305715</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>34595.69822305715</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>34596.69822305715</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>32923.24382305715</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>33119.99932305715</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>33719.99932305715</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>40955.67962305715</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>35165.43122305715</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>35165.43122305715</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>35165.43122305715</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>47962.82132305716</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>47962.82132305716</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>47962.82132305716</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>57081.91222305716</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>66967.67492305716</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>66970.46992305716</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>43318.42192305715</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>42987.18592305716</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>44187.18592305716</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>44187.18592305716</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>47536.76842305715</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>44696.76842305715</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>44696.76842305715</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>47741.76842305715</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>44038.76842305715</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>44038.76842305715</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>44038.76842305715</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>52064.42932305716</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>46859.42932305716</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>55166.42932305716</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>47887.42932305716</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>47887.42932305716</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>54957.16962305715</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>53311.94962305715</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>47493.94962305715</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -5368,14 +5368,10 @@
         <v>15387.77862305715</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>116</v>
-      </c>
-      <c r="J151" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5408,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>116</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5447,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>116</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5582,14 +5566,10 @@
         <v>14606.77862305715</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>117</v>
-      </c>
-      <c r="J157" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5619,19 +5599,11 @@
         <v>14606.77862305715</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>117</v>
-      </c>
-      <c r="J158" t="n">
-        <v>117</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5660,19 +5632,11 @@
         <v>13592.77862305715</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>117</v>
-      </c>
-      <c r="J159" t="n">
-        <v>117</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5701,14 +5665,10 @@
         <v>13592.77862305715</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>116</v>
-      </c>
-      <c r="J160" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
@@ -5738,19 +5698,11 @@
         <v>14914.77852305715</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>116</v>
-      </c>
-      <c r="J161" t="n">
-        <v>116</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5779,19 +5731,11 @@
         <v>12026.77852305715</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>117</v>
-      </c>
-      <c r="J162" t="n">
-        <v>116</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5820,14 +5764,10 @@
         <v>12026.77852305715</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>116</v>
-      </c>
-      <c r="J163" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5857,19 +5797,11 @@
         <v>12026.77852305715</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>116</v>
-      </c>
-      <c r="J164" t="n">
-        <v>116</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5901,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>116</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5937,14 +5863,10 @@
         <v>33926.77852305715</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>116</v>
-      </c>
-      <c r="J166" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
@@ -5974,19 +5896,11 @@
         <v>27547.77852305715</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>117</v>
-      </c>
-      <c r="J167" t="n">
-        <v>116</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6015,19 +5929,11 @@
         <v>27547.77852305715</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>116</v>
-      </c>
-      <c r="J168" t="n">
-        <v>116</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6056,14 +5962,10 @@
         <v>29204.77852305715</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>116</v>
-      </c>
-      <c r="J169" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
@@ -6096,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>116</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6135,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>116</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6237,17 +6127,11 @@
         <v>20442.77852305715</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6276,17 +6160,11 @@
         <v>13240.02872305715</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6315,17 +6193,11 @@
         <v>14103.69142305715</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6395,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6432,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6469,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6543,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6576,15 +6424,15 @@
         <v>17150.69142305716</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>116</v>
+      </c>
+      <c r="J183" t="n">
+        <v>116</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6616,10 +6464,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>116</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6653,10 +6503,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>116</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6687,15 +6539,15 @@
         <v>15055.69142305716</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>116</v>
+      </c>
+      <c r="J186" t="n">
+        <v>116</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6727,10 +6579,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>116</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L187" t="n">
@@ -6764,10 +6618,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>116</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -6802,11 +6658,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6839,11 +6691,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6876,11 +6724,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6913,11 +6757,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +6790,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6987,11 +6823,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7024,11 +6856,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7061,11 +6889,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7098,11 +6922,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7135,11 +6955,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7172,11 +6988,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +7021,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +7054,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7279,17 +7083,11 @@
         <v>10751.37632305716</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7318,17 +7116,11 @@
         <v>12350.37632305716</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7361,11 +7153,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7398,11 +7186,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7435,11 +7219,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7472,11 +7252,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7509,11 +7285,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7318,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7583,11 +7351,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7616,17 +7380,11 @@
         <v>11855.37632305716</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7655,17 +7413,11 @@
         <v>12641.37632305716</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7694,17 +7446,11 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7733,17 +7479,11 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7772,17 +7512,11 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7811,17 +7545,11 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7850,17 +7578,11 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7889,17 +7611,11 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7932,11 +7648,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7969,11 +7681,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8006,11 +7714,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8043,11 +7747,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8076,17 +7776,11 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8119,11 +7813,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8156,11 +7846,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8193,11 +7879,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8230,11 +7912,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8267,11 +7945,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8304,11 +7978,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8341,11 +8011,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8378,11 +8044,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8415,11 +8077,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8452,11 +8110,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8489,11 +8143,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8526,11 +8176,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8563,11 +8209,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8600,11 +8242,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8637,11 +8275,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8674,11 +8308,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8711,11 +8341,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8748,11 +8374,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8781,16 +8403,14 @@
         <v>-10714.42497694284</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
       <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
@@ -8849,7 +8469,7 @@
         <v>-20172.54617694284</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8915,7 +8535,7 @@
         <v>-21128.25197694284</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9410,10 +9030,14 @@
         <v>-19995.46357694284</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>117</v>
+      </c>
+      <c r="J261" t="n">
+        <v>117</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
@@ -9446,8 +9070,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>117</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9479,8 +9109,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>117</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9674,10 +9310,14 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>117</v>
+      </c>
+      <c r="J269" t="n">
+        <v>117</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9707,11 +9347,19 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>117</v>
+      </c>
+      <c r="J270" t="n">
+        <v>117</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9740,11 +9388,19 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>117</v>
+      </c>
+      <c r="J271" t="n">
+        <v>117</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9773,11 +9429,19 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>117</v>
+      </c>
+      <c r="J272" t="n">
+        <v>117</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +9470,19 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>117</v>
+      </c>
+      <c r="J273" t="n">
+        <v>117</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9839,11 +9511,19 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>117</v>
+      </c>
+      <c r="J274" t="n">
+        <v>117</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9872,11 +9552,19 @@
         <v>-22917.46367694284</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>117</v>
+      </c>
+      <c r="J275" t="n">
+        <v>117</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9905,11 +9593,19 @@
         <v>-26157.46347694284</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>118</v>
+      </c>
+      <c r="J276" t="n">
+        <v>117</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9938,17 +9634,25 @@
         <v>-26157.46347694284</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>117</v>
+      </c>
+      <c r="J277" t="n">
+        <v>117</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
       <c r="M277" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>33953.47202305715</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>32672.77382305716</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>57699.40182305715</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>27891.72052305715</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>27661.79892305715</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>34595.69822305715</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>34596.69822305715</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>32923.24382305715</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>33119.99932305715</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>40955.67962305715</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>35165.43122305715</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>35165.43122305715</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>35165.43122305715</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>47962.82132305716</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>47962.82132305716</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>47962.82132305716</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>57081.91222305716</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>66967.67492305716</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>43318.42192305715</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>42987.18592305716</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>44187.18592305716</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>44187.18592305716</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>43388.67762305716</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>47536.76842305715</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>44696.76842305715</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>44696.76842305715</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>47741.76842305715</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>44038.76842305715</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>44038.76842305715</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>44038.76842305715</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>52064.42932305716</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>46859.42932305716</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>55166.42932305716</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>47887.42932305716</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>47887.42932305716</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>54957.16962305715</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>53311.94962305715</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>47493.94962305715</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -6424,14 +6424,10 @@
         <v>17150.69142305716</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>116</v>
-      </c>
-      <c r="J183" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6464,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>116</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>116</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6539,14 +6523,10 @@
         <v>15055.69142305716</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>116</v>
-      </c>
-      <c r="J186" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
@@ -6579,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>116</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6618,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>116</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +7777,7 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7842,7 +7810,7 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7875,7 +7843,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7908,7 +7876,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7941,7 +7909,7 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7974,7 +7942,7 @@
         <v>14727.37482305716</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8601,7 +8569,7 @@
         <v>-21128.25197694284</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8634,7 +8602,7 @@
         <v>-20819.53897694284</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8667,7 +8635,7 @@
         <v>-20082.07807694284</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8700,7 +8668,7 @@
         <v>-20375.46357694284</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8733,7 +8701,7 @@
         <v>-25763.46357694284</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8766,7 +8734,7 @@
         <v>-25208.46357694284</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9030,14 +8998,10 @@
         <v>-19995.46357694284</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>117</v>
-      </c>
-      <c r="J261" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
@@ -9070,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>117</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>117</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9178,7 +9130,7 @@
         <v>-24654.46357694284</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9211,7 +9163,7 @@
         <v>-23645.46357694284</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9310,14 +9262,10 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>117</v>
-      </c>
-      <c r="J269" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9347,19 +9295,11 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>117</v>
-      </c>
-      <c r="J270" t="n">
-        <v>117</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9388,19 +9328,11 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>117</v>
-      </c>
-      <c r="J271" t="n">
-        <v>117</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9429,142 +9361,120 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>117</v>
-      </c>
-      <c r="J272" t="n">
-        <v>117</v>
-      </c>
-      <c r="K272" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>117</v>
+      </c>
+      <c r="C273" t="n">
+        <v>117</v>
+      </c>
+      <c r="D273" t="n">
+        <v>117</v>
+      </c>
+      <c r="E273" t="n">
+        <v>117</v>
+      </c>
+      <c r="F273" t="n">
+        <v>6297.8257</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>117</v>
+      </c>
+      <c r="C274" t="n">
+        <v>117</v>
+      </c>
+      <c r="D274" t="n">
+        <v>117</v>
+      </c>
+      <c r="E274" t="n">
+        <v>117</v>
+      </c>
+      <c r="F274" t="n">
+        <v>119.8461</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-26130.46357694284</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>117</v>
+      </c>
+      <c r="J274" t="n">
+        <v>117</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>117</v>
+      </c>
+      <c r="C275" t="n">
+        <v>118</v>
+      </c>
+      <c r="D275" t="n">
+        <v>118</v>
+      </c>
+      <c r="E275" t="n">
+        <v>117</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3212.9999</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-22917.46367694284</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>117</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>117</v>
-      </c>
-      <c r="C273" t="n">
-        <v>117</v>
-      </c>
-      <c r="D273" t="n">
-        <v>117</v>
-      </c>
-      <c r="E273" t="n">
-        <v>117</v>
-      </c>
-      <c r="F273" t="n">
-        <v>6297.8257</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>117</v>
-      </c>
-      <c r="J273" t="n">
-        <v>117</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>117</v>
-      </c>
-      <c r="C274" t="n">
-        <v>117</v>
-      </c>
-      <c r="D274" t="n">
-        <v>117</v>
-      </c>
-      <c r="E274" t="n">
-        <v>117</v>
-      </c>
-      <c r="F274" t="n">
-        <v>119.8461</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>117</v>
-      </c>
-      <c r="J274" t="n">
-        <v>117</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>117</v>
-      </c>
-      <c r="C275" t="n">
-        <v>118</v>
-      </c>
-      <c r="D275" t="n">
-        <v>118</v>
-      </c>
-      <c r="E275" t="n">
-        <v>117</v>
-      </c>
-      <c r="F275" t="n">
-        <v>3212.9999</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-22917.46367694284</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>117</v>
-      </c>
-      <c r="J275" t="n">
-        <v>117</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9593,11 +9503,9 @@
         <v>-26157.46347694284</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
         <v>117</v>
       </c>
@@ -9653,6 +9561,6 @@
       <c r="M277" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -484,7 +484,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>34572.38102305715</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>32672.77382305716</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>57699.40182305715</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>52799.40182305715</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>27835.34042305715</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>27891.72052305715</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>38261.79892305715</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>34595.69822305715</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>67299.51192305716</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>33617.66092305716</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>47887.42932305716</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>47887.42932305716</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -7018,11 +7018,17 @@
         <v>10751.37632305716</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>117</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7057,17 @@
         <v>10751.37632305716</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>117</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7096,17 @@
         <v>12350.37632305716</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>117</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7139,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7176,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7213,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7250,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7283,17 @@
         <v>12350.37632305716</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>118</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7326,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7363,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7396,17 @@
         <v>11855.37632305716</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>117</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7435,17 @@
         <v>12641.37632305716</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>117</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7474,17 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>118</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7513,17 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>117</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7556,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7589,17 @@
         <v>11356.37632305716</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>117</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7628,17 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>117</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7667,17 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>118</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7710,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7743,17 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>118</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7782,17 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>118</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7821,17 @@
         <v>12655.37632305716</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>118</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7860,17 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>118</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7899,15 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7936,15 @@
         <v>29308.37632305716</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7973,15 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8010,15 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8047,15 @@
         <v>17233.37482305716</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8084,15 @@
         <v>14727.37482305716</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8125,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8162,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8199,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8236,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8273,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8310,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8347,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8384,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8417,17 @@
         <v>-12514.42497694284</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>118</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8460,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8497,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8534,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8571,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8608,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8645,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8682,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8719,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8756,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8789,15 @@
         <v>-21128.25197694284</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8826,15 @@
         <v>-20819.53897694284</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8863,15 @@
         <v>-20082.07807694284</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8900,15 @@
         <v>-20375.46357694284</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8937,15 @@
         <v>-25763.46357694284</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8974,15 @@
         <v>-25208.46357694284</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9015,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9052,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9089,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9126,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9163,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9200,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9237,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9270,17 @@
         <v>-19995.46357694284</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>117</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9313,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9350,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9387,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9420,17 @@
         <v>-24654.46357694284</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>118</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9459,17 @@
         <v>-23645.46357694284</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>117</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9498,17 @@
         <v>-23645.46357694284</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>118</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9541,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9574,17 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>117</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9613,17 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>117</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9656,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9689,17 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>117</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9728,17 @@
         <v>-26130.46357694284</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>117</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9432,10 +9772,12 @@
       <c r="I274" t="n">
         <v>117</v>
       </c>
-      <c r="J274" t="n">
-        <v>117</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,15 +9806,15 @@
         <v>-22917.46367694284</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>117</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>117</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9503,12 +9845,12 @@
         <v>-26157.46347694284</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>117</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>118</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9547,9 +9889,7 @@
       <c r="I277" t="n">
         <v>117</v>
       </c>
-      <c r="J277" t="n">
-        <v>117</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-30 BackTest THETA.xlsx
+++ b/BackTest/2019-10-30 BackTest THETA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M277"/>
+  <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5295.0916</v>
       </c>
       <c r="G2" t="n">
-        <v>33953.47202305715</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>618.909</v>
       </c>
       <c r="G3" t="n">
-        <v>34572.38102305715</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>88.33880000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>34572.38102305715</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1899.6072</v>
       </c>
       <c r="G5" t="n">
-        <v>32672.77382305716</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>25026.628</v>
       </c>
       <c r="G6" t="n">
-        <v>57699.40182305715</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4900</v>
       </c>
       <c r="G7" t="n">
-        <v>52799.40182305715</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3116.1666</v>
       </c>
       <c r="G8" t="n">
-        <v>52799.40182305715</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>4066.4384</v>
       </c>
       <c r="G9" t="n">
-        <v>52799.40182305715</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>24964.0614</v>
       </c>
       <c r="G10" t="n">
-        <v>27835.34042305715</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1628.6242</v>
       </c>
       <c r="G11" t="n">
-        <v>27835.34042305715</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>27835.34042305715</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>56.3801</v>
       </c>
       <c r="G13" t="n">
-        <v>27891.72052305715</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>229.9216</v>
       </c>
       <c r="G14" t="n">
-        <v>27661.79892305715</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>8000</v>
       </c>
       <c r="G15" t="n">
-        <v>27661.79892305715</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>12.8583</v>
       </c>
       <c r="G16" t="n">
-        <v>27661.79892305715</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>10600</v>
       </c>
       <c r="G17" t="n">
-        <v>38261.79892305715</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>623</v>
       </c>
       <c r="G18" t="n">
-        <v>38261.79892305715</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>40023</v>
       </c>
       <c r="G19" t="n">
-        <v>38261.79892305715</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3666.1007</v>
       </c>
       <c r="G20" t="n">
-        <v>34595.69822305715</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>34596.69822305715</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1673.4544</v>
       </c>
       <c r="G22" t="n">
-        <v>32923.24382305715</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>196.7555</v>
       </c>
       <c r="G23" t="n">
-        <v>33119.99932305715</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>47902.0893</v>
       </c>
       <c r="G24" t="n">
-        <v>33119.99932305715</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>600</v>
       </c>
       <c r="G25" t="n">
-        <v>33719.99932305715</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10683.0407</v>
       </c>
       <c r="G26" t="n">
-        <v>33719.99932305715</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>651</v>
       </c>
       <c r="G27" t="n">
-        <v>33719.99932305715</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7235.6803</v>
       </c>
       <c r="G28" t="n">
-        <v>40955.67962305715</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>7834.0163</v>
       </c>
       <c r="G29" t="n">
-        <v>40955.67962305715</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>119.3975</v>
       </c>
       <c r="G30" t="n">
-        <v>40955.67962305715</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5790.2484</v>
       </c>
       <c r="G31" t="n">
-        <v>35165.43122305715</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3700</v>
       </c>
       <c r="G32" t="n">
-        <v>35165.43122305715</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2630.7833</v>
       </c>
       <c r="G33" t="n">
-        <v>35165.43122305715</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>12797.3901</v>
       </c>
       <c r="G34" t="n">
-        <v>47962.82132305716</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>9900.641600000001</v>
       </c>
       <c r="G35" t="n">
-        <v>47962.82132305716</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>434.1052</v>
       </c>
       <c r="G36" t="n">
-        <v>47962.82132305716</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>56.2392</v>
       </c>
       <c r="G37" t="n">
-        <v>47962.82132305716</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>9200</v>
       </c>
       <c r="G38" t="n">
-        <v>57162.82132305716</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>80.9091</v>
       </c>
       <c r="G39" t="n">
-        <v>57081.91222305716</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>10217.5997</v>
       </c>
       <c r="G40" t="n">
-        <v>67299.51192305716</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>8269.441199999999</v>
       </c>
       <c r="G41" t="n">
-        <v>67299.51192305716</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>25386.4262</v>
       </c>
       <c r="G42" t="n">
-        <v>67299.51192305716</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>331.837</v>
       </c>
       <c r="G43" t="n">
-        <v>66967.67492305716</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2.795</v>
       </c>
       <c r="G44" t="n">
-        <v>66970.46992305716</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>8029.8488</v>
       </c>
       <c r="G45" t="n">
-        <v>58940.62112305716</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>25322.9602</v>
       </c>
       <c r="G46" t="n">
-        <v>33617.66092305716</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>15610.6509</v>
       </c>
       <c r="G47" t="n">
-        <v>33617.66092305716</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>9890.384099999999</v>
       </c>
       <c r="G48" t="n">
-        <v>33617.66092305716</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>965.9058</v>
       </c>
       <c r="G49" t="n">
-        <v>33617.66092305716</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2978</v>
       </c>
       <c r="G50" t="n">
-        <v>33617.66092305716</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>8870.570100000001</v>
       </c>
       <c r="G51" t="n">
-        <v>33617.66092305716</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>6850</v>
       </c>
       <c r="G52" t="n">
-        <v>33617.66092305716</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>9700.761</v>
       </c>
       <c r="G53" t="n">
-        <v>43318.42192305715</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>331.236</v>
       </c>
       <c r="G54" t="n">
-        <v>42987.18592305716</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1200</v>
       </c>
       <c r="G55" t="n">
-        <v>44187.18592305716</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>600</v>
       </c>
       <c r="G56" t="n">
-        <v>44187.18592305716</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>118.5083</v>
       </c>
       <c r="G57" t="n">
-        <v>44068.67762305716</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>680</v>
       </c>
       <c r="G58" t="n">
-        <v>43388.67762305716</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>8042</v>
       </c>
       <c r="G59" t="n">
-        <v>43388.67762305716</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1950</v>
       </c>
       <c r="G60" t="n">
-        <v>43388.67762305716</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1932</v>
       </c>
       <c r="G61" t="n">
-        <v>43388.67762305716</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1949</v>
       </c>
       <c r="G62" t="n">
-        <v>43388.67762305716</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>9782.753699999999</v>
       </c>
       <c r="G63" t="n">
-        <v>43388.67762305716</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>4148.0908</v>
       </c>
       <c r="G64" t="n">
-        <v>47536.76842305715</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2840</v>
       </c>
       <c r="G65" t="n">
-        <v>44696.76842305715</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>10400.6609</v>
       </c>
       <c r="G66" t="n">
-        <v>44696.76842305715</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>3045</v>
       </c>
       <c r="G67" t="n">
-        <v>47741.76842305715</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3703</v>
       </c>
       <c r="G68" t="n">
-        <v>44038.76842305715</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>5080.5126</v>
       </c>
       <c r="G69" t="n">
-        <v>44038.76842305715</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>6797</v>
       </c>
       <c r="G70" t="n">
-        <v>44038.76842305715</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>10541.9998</v>
       </c>
       <c r="G71" t="n">
-        <v>44038.76842305715</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>26235.8442</v>
       </c>
       <c r="G72" t="n">
-        <v>44038.76842305715</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>5000</v>
       </c>
       <c r="G73" t="n">
-        <v>44038.76842305715</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>8025.6609</v>
       </c>
       <c r="G74" t="n">
-        <v>52064.42932305716</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>5205</v>
       </c>
       <c r="G75" t="n">
-        <v>46859.42932305716</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>8306</v>
       </c>
       <c r="G76" t="n">
-        <v>55165.42932305716</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>55166.42932305716</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>7279</v>
       </c>
       <c r="G78" t="n">
-        <v>47887.42932305716</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1516</v>
       </c>
       <c r="G79" t="n">
-        <v>47887.42932305716</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>7069.7403</v>
       </c>
       <c r="G80" t="n">
-        <v>54957.16962305715</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1645.22</v>
       </c>
       <c r="G81" t="n">
-        <v>53311.94962305715</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1.0084</v>
       </c>
       <c r="G82" t="n">
-        <v>53311.94962305715</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>5818</v>
       </c>
       <c r="G83" t="n">
-        <v>47493.94962305715</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>498</v>
       </c>
       <c r="G84" t="n">
-        <v>47493.94962305715</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>3992</v>
       </c>
       <c r="G85" t="n">
-        <v>47493.94962305715</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>10549.1423</v>
       </c>
       <c r="G86" t="n">
-        <v>47493.94962305715</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>502</v>
       </c>
       <c r="G87" t="n">
-        <v>46991.94962305715</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>3447.2455</v>
       </c>
       <c r="G88" t="n">
-        <v>50439.19512305715</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>4309</v>
       </c>
       <c r="G89" t="n">
-        <v>46130.19512305715</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>599.3935</v>
       </c>
       <c r="G90" t="n">
-        <v>46729.58862305715</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>23680.4873</v>
       </c>
       <c r="G91" t="n">
-        <v>46729.58862305715</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>4807</v>
       </c>
       <c r="G92" t="n">
-        <v>41922.58862305715</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>23621.286</v>
       </c>
       <c r="G93" t="n">
-        <v>41922.58862305715</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>5000</v>
       </c>
       <c r="G94" t="n">
-        <v>46922.58862305715</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>7426</v>
       </c>
       <c r="G95" t="n">
-        <v>54348.58862305715</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>99.84999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>54248.73862305715</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>3007.9872</v>
       </c>
       <c r="G97" t="n">
-        <v>57256.72582305715</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>14555.6403</v>
       </c>
       <c r="G98" t="n">
-        <v>57256.72582305715</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>8745.234899999999</v>
       </c>
       <c r="G99" t="n">
-        <v>48511.49092305715</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>470.4266</v>
       </c>
       <c r="G100" t="n">
-        <v>48511.49092305715</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>280.9258</v>
       </c>
       <c r="G101" t="n">
-        <v>48511.49092305715</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>168</v>
       </c>
       <c r="G102" t="n">
-        <v>48679.49092305715</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2891</v>
       </c>
       <c r="G103" t="n">
-        <v>45788.49092305715</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1592</v>
       </c>
       <c r="G104" t="n">
-        <v>45788.49092305715</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1503</v>
       </c>
       <c r="G105" t="n">
-        <v>45788.49092305715</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>3487</v>
       </c>
       <c r="G106" t="n">
-        <v>45788.49092305715</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1834.6413</v>
       </c>
       <c r="G107" t="n">
-        <v>45788.49092305715</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>3741.2271</v>
       </c>
       <c r="G108" t="n">
-        <v>45788.49092305715</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>2557.7279</v>
       </c>
       <c r="G109" t="n">
-        <v>45788.49092305715</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>306.7918</v>
       </c>
       <c r="G110" t="n">
-        <v>45788.49092305715</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>9614.661</v>
       </c>
       <c r="G111" t="n">
-        <v>55403.15192305715</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>14300</v>
       </c>
       <c r="G112" t="n">
-        <v>55403.15192305715</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>1851.6168</v>
       </c>
       <c r="G113" t="n">
-        <v>53551.53512305715</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1009.0376</v>
       </c>
       <c r="G114" t="n">
-        <v>53551.53512305715</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1677.0376</v>
       </c>
       <c r="G115" t="n">
-        <v>53551.53512305715</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>288.0277</v>
       </c>
       <c r="G116" t="n">
-        <v>53551.53512305715</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>4773</v>
       </c>
       <c r="G117" t="n">
-        <v>48778.53512305715</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>3003</v>
       </c>
       <c r="G118" t="n">
-        <v>51781.53512305715</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1100</v>
       </c>
       <c r="G119" t="n">
-        <v>51781.53512305715</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>621</v>
       </c>
       <c r="G120" t="n">
-        <v>51160.53512305715</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>2720</v>
       </c>
       <c r="G121" t="n">
-        <v>51160.53512305715</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>6509.0955</v>
       </c>
       <c r="G122" t="n">
-        <v>51160.53512305715</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,19 @@
         <v>9823</v>
       </c>
       <c r="G123" t="n">
-        <v>60983.53512305715</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I123" t="n">
+        <v>115</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4107,23 @@
         <v>23208.5848</v>
       </c>
       <c r="G124" t="n">
-        <v>84192.11992305715</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I124" t="n">
+        <v>115</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4145,23 @@
         <v>5397</v>
       </c>
       <c r="G125" t="n">
-        <v>78795.11992305715</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I125" t="n">
+        <v>115</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4183,15 @@
         <v>54978.8169</v>
       </c>
       <c r="G126" t="n">
-        <v>23816.30302305715</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4213,19 @@
         <v>485.9859</v>
       </c>
       <c r="G127" t="n">
-        <v>24302.28892305715</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I127" t="n">
+        <v>115</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4247,23 @@
         <v>5000</v>
       </c>
       <c r="G128" t="n">
-        <v>24302.28892305715</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I128" t="n">
+        <v>115</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4285,21 @@
         <v>1956.5216</v>
       </c>
       <c r="G129" t="n">
-        <v>24302.28892305715</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>115</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4321,15 @@
         <v>301</v>
       </c>
       <c r="G130" t="n">
-        <v>24603.28892305715</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4351,15 @@
         <v>2505</v>
       </c>
       <c r="G131" t="n">
-        <v>22098.28892305715</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4381,15 @@
         <v>5698</v>
       </c>
       <c r="G132" t="n">
-        <v>22098.28892305715</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4411,15 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>22099.28892305715</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4441,15 @@
         <v>12315.2422</v>
       </c>
       <c r="G134" t="n">
-        <v>22099.28892305715</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4471,15 @@
         <v>7919.0371</v>
       </c>
       <c r="G135" t="n">
-        <v>22099.28892305715</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4501,15 @@
         <v>11805</v>
       </c>
       <c r="G136" t="n">
-        <v>22099.28892305715</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4531,15 @@
         <v>12475.7139</v>
       </c>
       <c r="G137" t="n">
-        <v>34575.00282305716</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4561,15 @@
         <v>4865.7848</v>
       </c>
       <c r="G138" t="n">
-        <v>29709.21802305715</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4591,15 @@
         <v>674</v>
       </c>
       <c r="G139" t="n">
-        <v>29709.21802305715</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4621,15 @@
         <v>7855.7148</v>
       </c>
       <c r="G140" t="n">
-        <v>21853.50322305715</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4651,15 @@
         <v>8019</v>
       </c>
       <c r="G141" t="n">
-        <v>21853.50322305715</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4681,15 @@
         <v>8628.2322</v>
       </c>
       <c r="G142" t="n">
-        <v>30481.73542305715</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4711,15 @@
         <v>1838</v>
       </c>
       <c r="G143" t="n">
-        <v>30481.73542305715</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4741,15 @@
         <v>825.3034</v>
       </c>
       <c r="G144" t="n">
-        <v>30481.73542305715</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4771,15 @@
         <v>7931</v>
       </c>
       <c r="G145" t="n">
-        <v>22550.73542305715</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4801,15 @@
         <v>152.0432</v>
       </c>
       <c r="G146" t="n">
-        <v>22702.77862305715</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4831,15 @@
         <v>3487.3581</v>
       </c>
       <c r="G147" t="n">
-        <v>22702.77862305715</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4861,15 @@
         <v>8472</v>
       </c>
       <c r="G148" t="n">
-        <v>14230.77862305715</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4891,15 @@
         <v>6595</v>
       </c>
       <c r="G149" t="n">
-        <v>14230.77862305715</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4921,15 @@
         <v>2244</v>
       </c>
       <c r="G150" t="n">
-        <v>14230.77862305715</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4951,15 @@
         <v>1157</v>
       </c>
       <c r="G151" t="n">
-        <v>15387.77862305715</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4981,15 @@
         <v>1161</v>
       </c>
       <c r="G152" t="n">
-        <v>15387.77862305715</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5011,15 @@
         <v>3722</v>
       </c>
       <c r="G153" t="n">
-        <v>11665.77862305715</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5041,15 @@
         <v>3000</v>
       </c>
       <c r="G154" t="n">
-        <v>11665.77862305715</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5071,15 @@
         <v>2941</v>
       </c>
       <c r="G155" t="n">
-        <v>14606.77862305715</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5101,15 @@
         <v>7500</v>
       </c>
       <c r="G156" t="n">
-        <v>14606.77862305715</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5131,15 @@
         <v>530</v>
       </c>
       <c r="G157" t="n">
-        <v>14606.77862305715</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5161,15 @@
         <v>16953.3616</v>
       </c>
       <c r="G158" t="n">
-        <v>14606.77862305715</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5191,15 @@
         <v>1014</v>
       </c>
       <c r="G159" t="n">
-        <v>13592.77862305715</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5221,15 @@
         <v>945.5516</v>
       </c>
       <c r="G160" t="n">
-        <v>13592.77862305715</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5251,15 @@
         <v>1321.9999</v>
       </c>
       <c r="G161" t="n">
-        <v>14914.77852305715</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5281,15 @@
         <v>2888</v>
       </c>
       <c r="G162" t="n">
-        <v>12026.77852305715</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5311,15 @@
         <v>842</v>
       </c>
       <c r="G163" t="n">
-        <v>12026.77852305715</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5341,15 @@
         <v>644</v>
       </c>
       <c r="G164" t="n">
-        <v>12026.77852305715</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5371,15 @@
         <v>644</v>
       </c>
       <c r="G165" t="n">
-        <v>12026.77852305715</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5401,15 @@
         <v>21900</v>
       </c>
       <c r="G166" t="n">
-        <v>33926.77852305715</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5431,15 @@
         <v>6379</v>
       </c>
       <c r="G167" t="n">
-        <v>27547.77852305715</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5461,15 @@
         <v>5184</v>
       </c>
       <c r="G168" t="n">
-        <v>27547.77852305715</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5491,15 @@
         <v>1657</v>
       </c>
       <c r="G169" t="n">
-        <v>29204.77852305715</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5521,15 @@
         <v>1802</v>
       </c>
       <c r="G170" t="n">
-        <v>29204.77852305715</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5551,15 @@
         <v>8762</v>
       </c>
       <c r="G171" t="n">
-        <v>20442.77852305715</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5581,15 @@
         <v>13016</v>
       </c>
       <c r="G172" t="n">
-        <v>20442.77852305715</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5611,15 @@
         <v>314</v>
       </c>
       <c r="G173" t="n">
-        <v>20442.77852305715</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5641,15 @@
         <v>16301.5436</v>
       </c>
       <c r="G174" t="n">
-        <v>20442.77852305715</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5671,15 @@
         <v>7202.7498</v>
       </c>
       <c r="G175" t="n">
-        <v>13240.02872305715</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5701,15 @@
         <v>863.6627</v>
       </c>
       <c r="G176" t="n">
-        <v>14103.69142305715</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5731,15 @@
         <v>4871</v>
       </c>
       <c r="G177" t="n">
-        <v>14103.69142305715</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5761,15 @@
         <v>5419</v>
       </c>
       <c r="G178" t="n">
-        <v>19522.69142305716</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5791,15 @@
         <v>5000</v>
       </c>
       <c r="G179" t="n">
-        <v>19522.69142305716</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5821,15 @@
         <v>27300</v>
       </c>
       <c r="G180" t="n">
-        <v>19522.69142305716</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5851,15 @@
         <v>2398</v>
       </c>
       <c r="G181" t="n">
-        <v>17124.69142305716</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5881,15 @@
         <v>2041</v>
       </c>
       <c r="G182" t="n">
-        <v>17124.69142305716</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5911,15 @@
         <v>26</v>
       </c>
       <c r="G183" t="n">
-        <v>17150.69142305716</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5941,15 @@
         <v>9444.291800000001</v>
       </c>
       <c r="G184" t="n">
-        <v>17150.69142305716</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5971,15 @@
         <v>2095</v>
       </c>
       <c r="G185" t="n">
-        <v>15055.69142305716</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6001,15 @@
         <v>16905.9945</v>
       </c>
       <c r="G186" t="n">
-        <v>15055.69142305716</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6031,15 @@
         <v>3700.003</v>
       </c>
       <c r="G187" t="n">
-        <v>18755.69442305716</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6061,15 @@
         <v>1096.9999</v>
       </c>
       <c r="G188" t="n">
-        <v>18755.69442305716</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6091,15 @@
         <v>21664</v>
       </c>
       <c r="G189" t="n">
-        <v>18755.69442305716</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6121,15 @@
         <v>7530</v>
       </c>
       <c r="G190" t="n">
-        <v>18755.69442305716</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6151,15 @@
         <v>2760.6354</v>
       </c>
       <c r="G191" t="n">
-        <v>18755.69442305716</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6181,15 @@
         <v>491.6354</v>
       </c>
       <c r="G192" t="n">
-        <v>19247.32982305716</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6211,15 @@
         <v>3278</v>
       </c>
       <c r="G193" t="n">
-        <v>19247.32982305716</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6241,15 @@
         <v>1247</v>
       </c>
       <c r="G194" t="n">
-        <v>19247.32982305716</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6271,15 @@
         <v>2324</v>
       </c>
       <c r="G195" t="n">
-        <v>16923.32982305716</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6301,15 @@
         <v>1882.5681</v>
       </c>
       <c r="G196" t="n">
-        <v>18805.89792305716</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6331,15 @@
         <v>8054.5216</v>
       </c>
       <c r="G197" t="n">
-        <v>10751.37632305716</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6361,15 @@
         <v>13524.3875</v>
       </c>
       <c r="G198" t="n">
-        <v>10751.37632305716</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6391,15 @@
         <v>1810.0508</v>
       </c>
       <c r="G199" t="n">
-        <v>10751.37632305716</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6421,15 @@
         <v>3280.8156</v>
       </c>
       <c r="G200" t="n">
-        <v>10751.37632305716</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,24 +6451,15 @@
         <v>2741.036</v>
       </c>
       <c r="G201" t="n">
-        <v>10751.37632305716</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7054,24 +6481,15 @@
         <v>2899</v>
       </c>
       <c r="G202" t="n">
-        <v>10751.37632305716</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7093,24 +6511,15 @@
         <v>1599</v>
       </c>
       <c r="G203" t="n">
-        <v>12350.37632305716</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7132,22 +6541,15 @@
         <v>499</v>
       </c>
       <c r="G204" t="n">
-        <v>12350.37632305716</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7169,22 +6571,15 @@
         <v>499</v>
       </c>
       <c r="G205" t="n">
-        <v>12350.37632305716</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7206,22 +6601,15 @@
         <v>499</v>
       </c>
       <c r="G206" t="n">
-        <v>12350.37632305716</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7243,22 +6631,15 @@
         <v>583.471</v>
       </c>
       <c r="G207" t="n">
-        <v>12350.37632305716</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7280,24 +6661,15 @@
         <v>1216.9999</v>
       </c>
       <c r="G208" t="n">
-        <v>12350.37632305716</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7319,22 +6691,15 @@
         <v>2092.2028</v>
       </c>
       <c r="G209" t="n">
-        <v>12350.37632305716</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7356,22 +6721,15 @@
         <v>495</v>
       </c>
       <c r="G210" t="n">
-        <v>11855.37632305716</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7393,24 +6751,15 @@
         <v>3749</v>
       </c>
       <c r="G211" t="n">
-        <v>11855.37632305716</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7432,24 +6781,15 @@
         <v>786</v>
       </c>
       <c r="G212" t="n">
-        <v>12641.37632305716</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7471,24 +6811,15 @@
         <v>1285</v>
       </c>
       <c r="G213" t="n">
-        <v>11356.37632305716</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7510,24 +6841,15 @@
         <v>6096.0111</v>
       </c>
       <c r="G214" t="n">
-        <v>11356.37632305716</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7549,22 +6871,15 @@
         <v>1996</v>
       </c>
       <c r="G215" t="n">
-        <v>11356.37632305716</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7586,24 +6901,15 @@
         <v>2695</v>
       </c>
       <c r="G216" t="n">
-        <v>11356.37632305716</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7625,24 +6931,15 @@
         <v>1299</v>
       </c>
       <c r="G217" t="n">
-        <v>12655.37632305716</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7664,24 +6961,15 @@
         <v>920</v>
       </c>
       <c r="G218" t="n">
-        <v>12655.37632305716</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7703,22 +6991,15 @@
         <v>17425.4944</v>
       </c>
       <c r="G219" t="n">
-        <v>12655.37632305716</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7740,24 +7021,15 @@
         <v>496</v>
       </c>
       <c r="G220" t="n">
-        <v>12655.37632305716</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7779,24 +7051,15 @@
         <v>4874</v>
       </c>
       <c r="G221" t="n">
-        <v>12655.37632305716</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7818,24 +7081,15 @@
         <v>3065</v>
       </c>
       <c r="G222" t="n">
-        <v>12655.37632305716</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7857,24 +7111,15 @@
         <v>16653</v>
       </c>
       <c r="G223" t="n">
-        <v>29308.37632305716</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7896,22 +7141,15 @@
         <v>4900</v>
       </c>
       <c r="G224" t="n">
-        <v>29308.37632305716</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7933,22 +7171,15 @@
         <v>16803</v>
       </c>
       <c r="G225" t="n">
-        <v>29308.37632305716</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7970,22 +7201,15 @@
         <v>12075.0015</v>
       </c>
       <c r="G226" t="n">
-        <v>17233.37482305716</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8007,22 +7231,15 @@
         <v>1171</v>
       </c>
       <c r="G227" t="n">
-        <v>17233.37482305716</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8044,22 +7261,15 @@
         <v>7644</v>
       </c>
       <c r="G228" t="n">
-        <v>17233.37482305716</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8081,22 +7291,15 @@
         <v>2506</v>
       </c>
       <c r="G229" t="n">
-        <v>14727.37482305716</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8118,22 +7321,15 @@
         <v>4024</v>
       </c>
       <c r="G230" t="n">
-        <v>14727.37482305716</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8155,22 +7351,15 @@
         <v>11.3389</v>
       </c>
       <c r="G231" t="n">
-        <v>14727.37482305716</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8192,22 +7381,15 @@
         <v>40349</v>
       </c>
       <c r="G232" t="n">
-        <v>-25621.62517694284</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8229,22 +7411,15 @@
         <v>9145.846100000001</v>
       </c>
       <c r="G233" t="n">
-        <v>-25621.62517694284</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8266,22 +7441,15 @@
         <v>10.15</v>
       </c>
       <c r="G234" t="n">
-        <v>-25611.47517694284</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8303,22 +7471,15 @@
         <v>3228.7981</v>
       </c>
       <c r="G235" t="n">
-        <v>-28840.27327694284</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8340,22 +7501,15 @@
         <v>3774.4605</v>
       </c>
       <c r="G236" t="n">
-        <v>-25065.81277694284</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8377,22 +7531,15 @@
         <v>5613</v>
       </c>
       <c r="G237" t="n">
-        <v>-25065.81277694284</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8414,24 +7561,15 @@
         <v>12551.3878</v>
       </c>
       <c r="G238" t="n">
-        <v>-12514.42497694284</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8453,22 +7591,15 @@
         <v>1855</v>
       </c>
       <c r="G239" t="n">
-        <v>-12514.42497694284</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8490,22 +7621,15 @@
         <v>1425</v>
       </c>
       <c r="G240" t="n">
-        <v>-12514.42497694284</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8527,22 +7651,15 @@
         <v>1800</v>
       </c>
       <c r="G241" t="n">
-        <v>-10714.42497694284</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8564,22 +7681,15 @@
         <v>10</v>
       </c>
       <c r="G242" t="n">
-        <v>-10714.42497694284</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8601,22 +7711,15 @@
         <v>6359</v>
       </c>
       <c r="G243" t="n">
-        <v>-10714.42497694284</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8638,22 +7741,15 @@
         <v>9458.1212</v>
       </c>
       <c r="G244" t="n">
-        <v>-20172.54617694284</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8675,22 +7771,15 @@
         <v>550</v>
       </c>
       <c r="G245" t="n">
-        <v>-19622.54617694284</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8712,22 +7801,15 @@
         <v>1505.7058</v>
       </c>
       <c r="G246" t="n">
-        <v>-21128.25197694284</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8749,22 +7831,15 @@
         <v>472</v>
       </c>
       <c r="G247" t="n">
-        <v>-21128.25197694284</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8786,22 +7861,15 @@
         <v>527</v>
       </c>
       <c r="G248" t="n">
-        <v>-21128.25197694284</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8823,22 +7891,15 @@
         <v>308.713</v>
       </c>
       <c r="G249" t="n">
-        <v>-20819.53897694284</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8860,22 +7921,15 @@
         <v>737.4609</v>
       </c>
       <c r="G250" t="n">
-        <v>-20082.07807694284</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8897,22 +7951,15 @@
         <v>293.3855</v>
       </c>
       <c r="G251" t="n">
-        <v>-20375.46357694284</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8934,22 +7981,15 @@
         <v>5388</v>
       </c>
       <c r="G252" t="n">
-        <v>-25763.46357694284</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8971,22 +8011,15 @@
         <v>555</v>
       </c>
       <c r="G253" t="n">
-        <v>-25208.46357694284</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9008,22 +8041,15 @@
         <v>144.841</v>
       </c>
       <c r="G254" t="n">
-        <v>-25208.46357694284</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9045,22 +8071,15 @@
         <v>589</v>
       </c>
       <c r="G255" t="n">
-        <v>-25797.46357694284</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9082,22 +8101,15 @@
         <v>307.5398</v>
       </c>
       <c r="G256" t="n">
-        <v>-25797.46357694284</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9119,22 +8131,15 @@
         <v>102.4602</v>
       </c>
       <c r="G257" t="n">
-        <v>-25797.46357694284</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9156,22 +8161,15 @@
         <v>646</v>
       </c>
       <c r="G258" t="n">
-        <v>-26443.46357694284</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9193,22 +8191,15 @@
         <v>4235</v>
       </c>
       <c r="G259" t="n">
-        <v>-30678.46357694284</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9230,22 +8221,15 @@
         <v>2244</v>
       </c>
       <c r="G260" t="n">
-        <v>-30678.46357694284</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9267,24 +8251,15 @@
         <v>10683</v>
       </c>
       <c r="G261" t="n">
-        <v>-19995.46357694284</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9306,22 +8281,15 @@
         <v>1570.4661</v>
       </c>
       <c r="G262" t="n">
-        <v>-19995.46357694284</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9343,22 +8311,15 @@
         <v>1246</v>
       </c>
       <c r="G263" t="n">
-        <v>-19995.46357694284</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9380,22 +8341,15 @@
         <v>999</v>
       </c>
       <c r="G264" t="n">
-        <v>-20994.46357694284</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9417,24 +8371,15 @@
         <v>3660</v>
       </c>
       <c r="G265" t="n">
-        <v>-24654.46357694284</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9456,24 +8401,15 @@
         <v>1009</v>
       </c>
       <c r="G266" t="n">
-        <v>-23645.46357694284</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9495,24 +8431,15 @@
         <v>657</v>
       </c>
       <c r="G267" t="n">
-        <v>-23645.46357694284</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9534,22 +8461,15 @@
         <v>2485</v>
       </c>
       <c r="G268" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9571,24 +8491,15 @@
         <v>2.8868</v>
       </c>
       <c r="G269" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9610,24 +8521,15 @@
         <v>10539.4298</v>
       </c>
       <c r="G270" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9649,22 +8551,15 @@
         <v>3913.8257</v>
       </c>
       <c r="G271" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9686,24 +8581,15 @@
         <v>6597.9999</v>
       </c>
       <c r="G272" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9725,24 +8611,15 @@
         <v>6297.8257</v>
       </c>
       <c r="G273" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9764,24 +8641,15 @@
         <v>119.8461</v>
       </c>
       <c r="G274" t="n">
-        <v>-26130.46357694284</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9803,24 +8671,15 @@
         <v>3212.9999</v>
       </c>
       <c r="G275" t="n">
-        <v>-22917.46367694284</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9842,24 +8701,15 @@
         <v>3239.9998</v>
       </c>
       <c r="G276" t="n">
-        <v>-26157.46347694284</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9881,24 +8731,15 @@
         <v>974</v>
       </c>
       <c r="G277" t="n">
-        <v>-26157.46347694284</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
